--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A3AB5E-128F-4427-A642-C2C9F3EE3149}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F472A6F0-7284-4746-8C8B-1AD548AE647F}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1395" windowWidth="16515" windowHeight="12735" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="1815" yWindow="2130" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="153">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -485,6 +485,18 @@
   </si>
   <si>
     <t>C:\Users\Administrator\EnviarTipsters\master.png</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\master.png</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\el de los picks.png</t>
   </si>
 </sst>
 </file>
@@ -599,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -615,12 +627,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -737,11 +832,11 @@
   <autoFilter ref="A1:G125" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="5" dataCellStyle="Porcentaje"/>
     <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -752,7 +847,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:C120" totalsRowShown="0">
   <autoFilter ref="A1:C120" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Tipster"/>
   </tableColumns>
@@ -761,12 +856,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BDB25287-9495-44F8-B73F-F11014A7E445}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D479B9DC-AF3E-44A1-8FDC-4426A29FE7D7}" name="Columna2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5552,7 +5649,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,6 +5669,12 @@
       <c r="C1" t="s">
         <v>92</v>
       </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5582,6 +5685,12 @@
       </c>
       <c r="C2" s="9" t="s">
         <v>147</v>
+      </c>
+      <c r="D2" s="16">
+        <v>-1002194870823</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5594,6 +5703,12 @@
       <c r="C3" s="9" t="s">
         <v>147</v>
       </c>
+      <c r="D3" s="16">
+        <v>-1002461593090</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5605,6 +5720,12 @@
       <c r="C4" s="9" t="s">
         <v>147</v>
       </c>
+      <c r="D4" s="16">
+        <v>-1002427940985</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5616,6 +5737,12 @@
       <c r="C5" s="9" t="s">
         <v>147</v>
       </c>
+      <c r="D5" s="15">
+        <v>-1002251083617</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5627,6 +5754,12 @@
       </c>
       <c r="C6" s="9" t="s">
         <v>148</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-1002297812775</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="3"/>
@@ -5641,6 +5774,12 @@
       <c r="C7" s="9" t="s">
         <v>148</v>
       </c>
+      <c r="D7" s="15">
+        <v>-1002475543778</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5652,6 +5791,12 @@
       <c r="C8" s="9" t="s">
         <v>148</v>
       </c>
+      <c r="D8" s="16">
+        <v>-1002359449640</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5664,6 +5809,7 @@
       <c r="A12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F472A6F0-7284-4746-8C8B-1AD548AE647F}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EEB60C-9C19-4A43-A565-7D6F00465480}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2130" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="155">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\el de los picks.png</t>
+  </si>
+  <si>
+    <t>Ruben Picks</t>
+  </si>
+  <si>
+    <t>Verdeando Club</t>
   </si>
 </sst>
 </file>
@@ -611,25 +617,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,8 +832,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G125" totalsRowShown="0">
-  <autoFilter ref="A1:G125" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G127" totalsRowShown="0">
+  <autoFilter ref="A1:G127" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="9"/>
@@ -844,8 +848,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:C120" totalsRowShown="0">
-  <autoFilter ref="A1:C120" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:C123" totalsRowShown="0">
+  <autoFilter ref="A1:C123" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
@@ -1188,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView topLeftCell="B98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1291,13 +1295,13 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1311,13 +1315,16 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1369,16 +1376,19 @@
         <v>10000</v>
       </c>
       <c r="C9" s="1">
-        <v>6845</v>
+        <v>8675</v>
       </c>
       <c r="D9" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,16 +1399,16 @@
         <v>10000</v>
       </c>
       <c r="C10" s="1">
-        <v>10000</v>
+        <v>8450</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,16 +1439,16 @@
         <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>7365</v>
+        <v>9434</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="F12" s="12">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1449,16 +1459,16 @@
         <v>10000</v>
       </c>
       <c r="C13" s="1">
-        <v>12055</v>
+        <v>10447</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="F13" s="12">
+        <v>60</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1476,7 +1486,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1486,16 +1496,16 @@
         <v>10000</v>
       </c>
       <c r="C15" s="1">
-        <v>8577</v>
+        <v>7947</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,16 +1516,19 @@
         <v>10000</v>
       </c>
       <c r="C16" s="1">
-        <v>7300</v>
+        <v>9803</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,13 +1573,13 @@
         <v>10000</v>
       </c>
       <c r="C19" s="1">
-        <v>9217</v>
+        <v>8512</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
         <v>38</v>
@@ -1580,12 +1593,12 @@
         <v>10000</v>
       </c>
       <c r="C20" s="1">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1595,19 +1608,19 @@
         <v>10000</v>
       </c>
       <c r="C21" s="1">
-        <v>10281</v>
+        <v>11627</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1617,17 +1630,20 @@
       <c r="B22" s="1">
         <v>10000</v>
       </c>
-      <c r="C22" s="1">
-        <v>8623</v>
+      <c r="C22" s="6">
+        <v>8973</v>
       </c>
       <c r="D22" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1638,16 +1654,19 @@
         <v>10000</v>
       </c>
       <c r="C23" s="1">
-        <v>10018</v>
+        <v>15207</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1744,17 +1763,16 @@
         <v>10000</v>
       </c>
       <c r="C29" s="1">
-        <v>13140</v>
+        <v>10250</v>
       </c>
       <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,19 +1783,16 @@
         <v>10000</v>
       </c>
       <c r="C30" s="1">
-        <v>10631</v>
+        <v>10431</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>71</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1802,16 +1817,16 @@
         <v>10000</v>
       </c>
       <c r="C32" s="1">
-        <v>1586</v>
+        <v>4220</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1822,11 +1837,17 @@
         <v>10000</v>
       </c>
       <c r="C33" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+        <v>8000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1836,19 +1857,19 @@
         <v>10000</v>
       </c>
       <c r="C34" s="1">
-        <v>12480</v>
+        <v>13840</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
         <v>8</v>
       </c>
       <c r="F34" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1859,16 +1880,16 @@
         <v>10000</v>
       </c>
       <c r="C35" s="1">
-        <v>1804</v>
+        <v>1976</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1879,11 +1900,17 @@
         <v>10000</v>
       </c>
       <c r="C36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+        <v>8200</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1893,19 +1920,19 @@
         <v>10000</v>
       </c>
       <c r="C37" s="1">
-        <v>10610</v>
+        <v>11149</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2">
+        <v>63</v>
+      </c>
+      <c r="G37">
         <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>60</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,13 +1976,13 @@
         <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>9652</v>
+        <v>9488</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2">
         <v>50</v>
@@ -1969,13 +1996,13 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>11559</v>
+        <v>11948</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2">
         <v>75</v>
@@ -1992,13 +2019,13 @@
         <v>10000</v>
       </c>
       <c r="C42" s="1">
-        <v>8780</v>
+        <v>8500</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -2043,16 +2070,16 @@
         <v>10000</v>
       </c>
       <c r="C45" s="1">
-        <v>14040</v>
+        <v>13730</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2063,16 +2090,16 @@
         <v>10000</v>
       </c>
       <c r="C46" s="1">
-        <v>10120</v>
+        <v>9920</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,16 +2149,19 @@
         <v>10000</v>
       </c>
       <c r="C50" s="1">
-        <v>8870</v>
+        <v>9233</v>
       </c>
       <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2">
         <v>5</v>
       </c>
-      <c r="E50" s="2">
-        <v>6</v>
-      </c>
       <c r="F50" s="2">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2142,16 +2172,16 @@
         <v>10000</v>
       </c>
       <c r="C51" s="1">
-        <v>7600</v>
+        <v>9375</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
       </c>
       <c r="F51" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,19 +2192,16 @@
         <v>10000</v>
       </c>
       <c r="C52" s="1">
-        <v>13910</v>
+        <v>8910</v>
       </c>
       <c r="D52" s="2">
         <v>11</v>
       </c>
       <c r="E52" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2">
-        <v>69</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,19 +2273,16 @@
         <v>10000</v>
       </c>
       <c r="C56" s="1">
-        <v>12995</v>
+        <v>13762</v>
       </c>
       <c r="D56" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E56" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F56" s="2">
         <v>60</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2269,19 +2293,19 @@
         <v>10000</v>
       </c>
       <c r="C57" s="1">
-        <v>13142</v>
+        <v>13762</v>
       </c>
       <c r="D57" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E57" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2">
         <v>75</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2292,19 +2316,19 @@
         <v>10000</v>
       </c>
       <c r="C58" s="1">
-        <v>10283</v>
+        <v>10597</v>
       </c>
       <c r="D58" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E58" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2315,16 +2339,16 @@
         <v>10000</v>
       </c>
       <c r="C59" s="1">
-        <v>5649</v>
+        <v>7844</v>
       </c>
       <c r="D59" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F59" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2350,16 +2374,16 @@
         <v>10000</v>
       </c>
       <c r="C61" s="1">
-        <v>9760</v>
+        <v>8875</v>
       </c>
       <c r="D61" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,16 +2394,16 @@
         <v>10000</v>
       </c>
       <c r="C62" s="1">
-        <v>9806</v>
+        <v>8488</v>
       </c>
       <c r="D62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F62" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,19 +2414,16 @@
         <v>10000</v>
       </c>
       <c r="C63" s="1">
-        <v>12065</v>
+        <v>10915</v>
       </c>
       <c r="D63" s="2">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2">
         <v>6</v>
       </c>
-      <c r="E63" s="2">
-        <v>2</v>
-      </c>
       <c r="F63" s="2">
-        <v>75</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,18 +2434,20 @@
         <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>9743</v>
+        <v>8883</v>
       </c>
       <c r="D64" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F64" s="2">
-        <v>59</v>
-      </c>
-      <c r="G64" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2434,19 +2457,16 @@
         <v>10000</v>
       </c>
       <c r="C65" s="1">
-        <v>12320</v>
+        <v>10320</v>
       </c>
       <c r="D65" s="2">
         <v>5</v>
       </c>
       <c r="E65" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" s="2">
-        <v>71</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2457,16 +2477,16 @@
         <v>10000</v>
       </c>
       <c r="C66" s="1">
-        <v>9940</v>
+        <v>9459</v>
       </c>
       <c r="D66" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E66" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F66" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,16 +2497,16 @@
         <v>10000</v>
       </c>
       <c r="C67" s="1">
-        <v>9957</v>
+        <v>10058</v>
       </c>
       <c r="D67" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E67" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F67" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2497,16 +2517,16 @@
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>11972</v>
+        <v>115820</v>
       </c>
       <c r="D68" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E68" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F68" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2549,13 +2569,13 @@
         <v>10000</v>
       </c>
       <c r="C71" s="1">
-        <v>9290</v>
+        <v>8990</v>
       </c>
       <c r="D71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2">
         <v>50</v>
@@ -2569,16 +2589,16 @@
         <v>10000</v>
       </c>
       <c r="C72" s="1">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2589,16 +2609,16 @@
         <v>10000</v>
       </c>
       <c r="C73" s="1">
-        <v>8986</v>
+        <v>6780</v>
       </c>
       <c r="D73" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2609,19 +2629,16 @@
         <v>10000</v>
       </c>
       <c r="C74" s="1">
-        <v>10489</v>
+        <v>10604</v>
       </c>
       <c r="D74" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E74" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F74" s="2">
-        <v>70</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2652,19 +2669,16 @@
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>10170</v>
+        <v>8170</v>
       </c>
       <c r="D76" s="2">
         <v>4</v>
       </c>
       <c r="E76" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2">
-        <v>57</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,16 +2689,16 @@
         <v>10000</v>
       </c>
       <c r="C77" s="1">
-        <v>10306</v>
+        <v>9506</v>
       </c>
       <c r="D77" s="2">
         <v>13</v>
       </c>
       <c r="E77" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F77" s="2">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2695,16 +2709,19 @@
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>9297</v>
+        <v>10870</v>
       </c>
       <c r="D78" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E78" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F78" s="2">
         <v>67</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,16 +2732,16 @@
         <v>10000</v>
       </c>
       <c r="C79" s="1">
-        <v>8960</v>
+        <v>9357</v>
       </c>
       <c r="D79" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F79" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,16 +2752,16 @@
         <v>10000</v>
       </c>
       <c r="C80" s="1">
-        <v>11345</v>
+        <v>9284</v>
       </c>
       <c r="D80" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E80" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F80" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,18 +2792,18 @@
         <v>10000</v>
       </c>
       <c r="C82" s="1">
-        <v>10100</v>
+        <v>9725</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="2">
         <v>50</v>
       </c>
-      <c r="G82" s="6"/>
+      <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2796,16 +2813,19 @@
         <v>10000</v>
       </c>
       <c r="C83" s="1">
-        <v>11240</v>
+        <v>11477</v>
       </c>
       <c r="D83" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2">
         <v>3</v>
       </c>
       <c r="F83" s="2">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2816,16 +2836,19 @@
         <v>10000</v>
       </c>
       <c r="C84" s="1">
-        <v>11180</v>
+        <v>11525</v>
       </c>
       <c r="D84" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" s="2">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2836,19 +2859,19 @@
         <v>10000</v>
       </c>
       <c r="C85" s="1">
-        <v>13170</v>
+        <v>14170</v>
       </c>
       <c r="D85" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" s="2">
         <v>2</v>
       </c>
       <c r="F85" s="2">
-        <v>67</v>
-      </c>
-      <c r="G85" s="6">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="G85" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2859,16 +2882,19 @@
         <v>10000</v>
       </c>
       <c r="C86" s="1">
-        <v>8000</v>
+        <v>9260</v>
       </c>
       <c r="D86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="2">
         <v>3</v>
       </c>
       <c r="F86" s="2">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,16 +2905,16 @@
         <v>10000</v>
       </c>
       <c r="C87" s="1">
-        <v>10104</v>
+        <v>8982</v>
       </c>
       <c r="D87" s="2">
         <v>4</v>
       </c>
       <c r="E87" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" s="2">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,16 +2953,19 @@
         <v>10000</v>
       </c>
       <c r="C90" s="1">
-        <v>7200</v>
+        <v>8700</v>
       </c>
       <c r="D90" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" s="2">
         <v>5</v>
       </c>
       <c r="F90" s="2">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2947,19 +2976,19 @@
         <v>10000</v>
       </c>
       <c r="C91" s="1">
-        <v>16500</v>
+        <v>25400</v>
       </c>
       <c r="D91" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91" s="2">
         <v>3</v>
       </c>
       <c r="F91" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,16 +3076,16 @@
         <v>10000</v>
       </c>
       <c r="C96" s="1">
-        <v>7460</v>
+        <v>3960</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
       <c r="E96" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F96" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3067,15 +3096,18 @@
         <v>10000</v>
       </c>
       <c r="C97" s="1">
-        <v>12900</v>
+        <v>13620</v>
       </c>
       <c r="D97" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2">
         <v>100</v>
       </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -3101,19 +3133,19 @@
         <v>10000</v>
       </c>
       <c r="C99" s="1">
-        <v>10352</v>
+        <v>10846</v>
       </c>
       <c r="D99" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E99" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F99" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3144,14 +3176,16 @@
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>11000</v>
+        <v>10870</v>
       </c>
       <c r="D101" s="2">
+        <v>4</v>
+      </c>
+      <c r="E101" s="2">
         <v>2</v>
       </c>
-      <c r="E101" s="2"/>
       <c r="F101" s="2">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3180,16 +3214,16 @@
         <v>10000</v>
       </c>
       <c r="C103" s="1">
-        <v>10250</v>
+        <v>10210</v>
       </c>
       <c r="D103" s="2">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2">
         <v>2</v>
       </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
       <c r="F103" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H103" s="3"/>
     </row>
@@ -3201,16 +3235,16 @@
         <v>10000</v>
       </c>
       <c r="C104" s="1">
-        <v>13238</v>
+        <v>14654</v>
       </c>
       <c r="D104" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E104" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F104" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3224,16 +3258,16 @@
         <v>10000</v>
       </c>
       <c r="C105" s="1">
-        <v>4330</v>
+        <v>4250</v>
       </c>
       <c r="D105" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,16 +3298,19 @@
         <v>10000</v>
       </c>
       <c r="C107" s="1">
-        <v>8670</v>
+        <v>9540</v>
       </c>
       <c r="D107" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107" s="2">
         <v>4</v>
       </c>
       <c r="F107" s="2">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3349,19 +3386,19 @@
         <v>10000</v>
       </c>
       <c r="C112" s="1">
-        <v>9500</v>
+        <v>10110</v>
       </c>
       <c r="D112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
       </c>
       <c r="F112" s="2">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3406,16 +3443,19 @@
         <v>10000</v>
       </c>
       <c r="C115" s="1">
-        <v>9980</v>
+        <v>10780</v>
       </c>
       <c r="D115" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115" s="2">
         <v>2</v>
       </c>
       <c r="F115" s="2">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3426,16 +3466,16 @@
         <v>10000</v>
       </c>
       <c r="C116" s="1">
-        <v>7370</v>
+        <v>7890</v>
       </c>
       <c r="D116" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" s="2">
         <v>6</v>
       </c>
       <c r="F116" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3470,8 +3510,8 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="6"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -3562,11 +3602,18 @@
         <v>10000</v>
       </c>
       <c r="C123" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D123" s="2"/>
+        <v>10365</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -3581,7 +3628,7 @@
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="6"/>
+      <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3599,20 +3646,44 @@
       <c r="G125" s="2"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C126" s="1">
+        <v>8300</v>
+      </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="2">
+        <v>3</v>
+      </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C127" s="1">
+        <v>10735</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <v>80</v>
+      </c>
+      <c r="G127" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
@@ -3624,7 +3695,7 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
-      <c r="C129" s="8"/>
+      <c r="C129" s="6"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -3639,7 +3710,7 @@
       <c r="G130" s="2"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="8"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3658,7 +3729,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="7"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
@@ -4296,10 +4367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,7 +4392,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B2" t="s">
@@ -4332,7 +4403,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B3" t="s">
@@ -4343,7 +4414,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B4" t="s">
@@ -4354,7 +4425,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B5" t="s">
@@ -4365,7 +4436,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B6" t="s">
@@ -4376,7 +4447,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B7" t="s">
@@ -4387,7 +4458,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B8" t="s">
@@ -4398,7 +4469,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B9" t="s">
@@ -4409,7 +4480,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B10" t="s">
@@ -4420,7 +4491,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B11" t="s">
@@ -4432,7 +4503,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B12" t="s">
@@ -4444,7 +4515,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B13" t="s">
@@ -4455,7 +4526,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B14" t="s">
@@ -4466,7 +4537,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B15" t="s">
@@ -4477,7 +4548,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B16" t="s">
@@ -4488,7 +4559,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B17" t="s">
@@ -4499,7 +4570,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B18" t="s">
@@ -4510,7 +4581,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B19" t="s">
@@ -4521,7 +4592,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B20" t="s">
@@ -4532,7 +4603,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B21" t="s">
@@ -4543,7 +4614,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B22" t="s">
@@ -4554,7 +4625,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B23" t="s">
@@ -4565,7 +4636,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B24" t="s">
@@ -4576,7 +4647,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B25" t="s">
@@ -4587,7 +4658,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B26" t="s">
@@ -4598,7 +4669,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B27" t="s">
@@ -4609,7 +4680,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B28" t="s">
@@ -4620,7 +4691,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B29" t="s">
@@ -4631,7 +4702,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B30" t="s">
@@ -4642,7 +4713,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B31" t="s">
@@ -4653,7 +4724,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B32" t="s">
@@ -4664,7 +4735,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B33" t="s">
@@ -4675,7 +4746,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B34" t="s">
@@ -4686,7 +4757,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>102</v>
       </c>
@@ -4695,7 +4766,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B36" t="s">
@@ -4706,7 +4777,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B37" t="s">
@@ -4717,7 +4788,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B38" t="s">
@@ -4728,7 +4799,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B39" t="s">
@@ -4739,7 +4810,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B40" t="s">
@@ -4750,7 +4821,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B41" t="s">
@@ -4761,7 +4832,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B42" t="s">
@@ -4772,7 +4843,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B43" t="s">
@@ -4783,7 +4854,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B44" t="s">
@@ -4794,7 +4865,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B45" t="s">
@@ -4805,7 +4876,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B46" t="s">
@@ -4816,7 +4887,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B47" t="s">
@@ -4827,10 +4898,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" t="s">
@@ -4838,10 +4909,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C49" t="s">
@@ -4849,10 +4920,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C50" t="s">
@@ -4860,10 +4931,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C51" t="s">
@@ -4871,10 +4942,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C52" t="s">
@@ -4882,10 +4953,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C53" t="s">
@@ -4893,10 +4964,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C54" t="s">
@@ -4904,10 +4975,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C55" t="s">
@@ -4915,10 +4986,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C56" t="s">
@@ -4926,10 +4997,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C57" t="s">
@@ -4937,10 +5008,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C58" t="s">
@@ -4948,10 +5019,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C59" t="s">
@@ -4959,10 +5030,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C60" t="s">
@@ -4970,10 +5041,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C61" t="s">
@@ -4981,10 +5052,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C62" t="s">
@@ -4992,10 +5063,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C63" t="s">
@@ -5003,10 +5074,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C64" t="s">
@@ -5014,7 +5085,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B65" t="s">
@@ -5025,7 +5096,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B66" t="s">
@@ -5036,7 +5107,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B67" t="s">
@@ -5047,7 +5118,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B68" t="s">
@@ -5058,7 +5129,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B69" t="s">
@@ -5069,7 +5140,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B70" t="s">
@@ -5080,7 +5151,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B71" t="s">
@@ -5091,7 +5162,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B72" t="s">
@@ -5102,7 +5173,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B73" t="s">
@@ -5113,7 +5184,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B74" t="s">
@@ -5124,7 +5195,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B75" t="s">
@@ -5135,7 +5206,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B76" t="s">
@@ -5146,7 +5217,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B77" t="s">
@@ -5157,7 +5228,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B78" t="s">
@@ -5168,472 +5239,505 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B79" t="s">
-        <v>104</v>
-      </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>135</v>
+      <c r="A80" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B81" t="s">
         <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B82" t="s">
         <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B83" t="s">
         <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B84" t="s">
         <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B85" t="s">
         <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B86" t="s">
         <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B87" t="s">
         <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B88" t="s">
         <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B89" t="s">
         <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B90" t="s">
         <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B91" t="s">
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B92" t="s">
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B94" t="s">
         <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B96" t="s">
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B97" t="s">
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B101" t="s">
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B107" t="s">
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B108" t="s">
         <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B109" t="s">
         <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B110" t="s">
         <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B111" t="s">
         <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B112" t="s">
         <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B113" t="s">
         <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B114" t="s">
         <v>104</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B115" t="s">
         <v>104</v>
       </c>
       <c r="C115" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B119" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C119" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B120" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C120" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B121" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C121" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B122" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B123" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C123" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5649,7 +5753,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,16 +5784,16 @@
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="11">
-        <v>-1002131916769</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="9">
+        <v>-2105211537</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>-1002194870823</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5697,16 +5801,16 @@
       <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="11">
-        <v>-1001987602366</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="9">
+        <v>-1957612350</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="9">
         <v>-1002461593090</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5714,16 +5818,16 @@
       <c r="A4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="10">
-        <v>-1002023819899</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8">
+        <v>-2018254333</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="9">
         <v>-1002427940985</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5731,16 +5835,16 @@
       <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="10">
-        <v>-1002120180361</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15">
+        <v>-2088477755</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="8">
         <v>-1002251083617</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G5" s="3"/>
@@ -5749,16 +5853,16 @@
       <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>-1002156412551</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="9">
         <v>-1002297812775</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G6" s="3"/>
@@ -5771,13 +5875,13 @@
       <c r="B7">
         <v>-1002197383783</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="8">
         <v>-1002475543778</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="7" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5788,13 +5892,13 @@
       <c r="B8">
         <v>-1002221930423</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="9">
         <v>-1002359449640</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>151</v>
       </c>
       <c r="J8" s="3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1063601-B1E5-4040-9CC7-7A2CB80CD88B}"/>
+  <xr:revisionPtr revIDLastSave="608" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E27CA9B-0685-4BE5-A0A1-986D8B40CF88}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="164">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Fredo</t>
   </si>
   <si>
-    <t>Danipicks</t>
-  </si>
-  <si>
     <t>HugoEsports</t>
   </si>
   <si>
@@ -271,256 +268,268 @@
     <t>ProAnalyst</t>
   </si>
   <si>
+    <t>PronosVIP</t>
+  </si>
+  <si>
+    <t>El Mago</t>
+  </si>
+  <si>
+    <t>Loco de las Apuestas</t>
+  </si>
+  <si>
+    <t>Einstein Analistas</t>
+  </si>
+  <si>
+    <t>SITO</t>
+  </si>
+  <si>
+    <t>Rey Analista</t>
+  </si>
+  <si>
+    <t>Tenis 10 VIP</t>
+  </si>
+  <si>
+    <t>Daily4Tips</t>
+  </si>
+  <si>
+    <t>JJAnalistas</t>
+  </si>
+  <si>
+    <t>Inversiones Deportivas</t>
+  </si>
+  <si>
+    <t>Thunder bets</t>
+  </si>
+  <si>
+    <t>Miss Winner</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Marca de Agua</t>
+  </si>
+  <si>
+    <t>Revista Reyes</t>
+  </si>
+  <si>
+    <t>Lara Basado</t>
+  </si>
+  <si>
+    <t>Picks de polo</t>
+  </si>
+  <si>
+    <t>Oscar Marquez</t>
+  </si>
+  <si>
+    <t>Niño picks</t>
+  </si>
+  <si>
+    <t>Dbets</t>
+  </si>
+  <si>
+    <t>Vikingo Negro</t>
+  </si>
+  <si>
+    <t>Hassido</t>
+  </si>
+  <si>
+    <t>Revista Sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionales </t>
+  </si>
+  <si>
+    <t>Americanos</t>
+  </si>
+  <si>
+    <t>Stakes 10 y garantizados</t>
+  </si>
+  <si>
+    <t>Retos chapito</t>
+  </si>
+  <si>
+    <t>Garantizado diego palafox</t>
+  </si>
+  <si>
+    <t>Retos hugowx</t>
+  </si>
+  <si>
+    <t>NFL iluminati</t>
+  </si>
+  <si>
+    <t>Iluminati</t>
+  </si>
+  <si>
+    <t>Retos japo</t>
+  </si>
+  <si>
+    <t>LMB pirrupicks</t>
+  </si>
+  <si>
+    <t>RevovlerBets</t>
+  </si>
+  <si>
+    <t>El profe VIP</t>
+  </si>
+  <si>
+    <t>bombas gallitovip</t>
+  </si>
+  <si>
+    <t>Parlays Exoticos gallitovip</t>
+  </si>
+  <si>
+    <t>Asegurado mera fiera</t>
+  </si>
+  <si>
+    <t>Cristian rey mensual</t>
+  </si>
+  <si>
+    <t>Marco Rey APP</t>
+  </si>
+  <si>
+    <t>Anual cristian rey</t>
+  </si>
+  <si>
+    <t>Cristian Rey APP</t>
+  </si>
+  <si>
+    <t>Consejo Abuelo APP</t>
+  </si>
+  <si>
+    <t>Oscar Rey APP</t>
+  </si>
+  <si>
+    <t>Roberto Rey APP</t>
+  </si>
+  <si>
+    <t>Garantizado los picks del gordo</t>
+  </si>
+  <si>
+    <t>Garantizado iluminati</t>
+  </si>
+  <si>
+    <t>hugo wx garantizado</t>
+  </si>
+  <si>
+    <t>chapito NFL</t>
+  </si>
+  <si>
+    <t>NFL Stats</t>
+  </si>
+  <si>
+    <t>Retos Escalera y soñadores</t>
+  </si>
+  <si>
+    <t>Premium master</t>
+  </si>
+  <si>
+    <t>el profe stakes</t>
+  </si>
+  <si>
+    <t>Winner Apuestas</t>
+  </si>
+  <si>
+    <t>Sports peru</t>
+  </si>
+  <si>
+    <t>Cabezas premium</t>
+  </si>
+  <si>
+    <t>Stakes 10 y garantizados master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retos Escalera y parlays master </t>
+  </si>
+  <si>
+    <t>KinPicks</t>
+  </si>
+  <si>
+    <t>FrostyParlays</t>
+  </si>
+  <si>
+    <t>FrostyEsports</t>
+  </si>
+  <si>
+    <t>DaniPicks</t>
+  </si>
+  <si>
+    <t>La suca</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\el de los picks.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\master.png</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\master.png</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\el de los picks.png</t>
+  </si>
+  <si>
+    <t>Ruben Picks</t>
+  </si>
+  <si>
+    <t>Verdeando Club</t>
+  </si>
+  <si>
+    <t>Doctor Apuesta</t>
+  </si>
+  <si>
+    <t>I. A. Bet</t>
+  </si>
+  <si>
+    <t>P. PR. T.S. Apuestas</t>
+  </si>
+  <si>
+    <t>Stakazo Oro Verde</t>
+  </si>
+  <si>
+    <t>Ex Teenista Profesional</t>
+  </si>
+  <si>
+    <t>Oro VIP</t>
+  </si>
+  <si>
+    <t>Doctor apuesta</t>
+  </si>
+  <si>
+    <t>DaniPicks stakes</t>
+  </si>
+  <si>
+    <t>Main Play</t>
+  </si>
+  <si>
     <t xml:space="preserve">La suca </t>
   </si>
   <si>
-    <t>PronosVIP</t>
-  </si>
-  <si>
-    <t>El Mago</t>
-  </si>
-  <si>
-    <t>Loco de las Apuestas</t>
-  </si>
-  <si>
-    <t>Einstein Analistas</t>
-  </si>
-  <si>
-    <t>SITO</t>
-  </si>
-  <si>
-    <t>Rey Analista</t>
-  </si>
-  <si>
-    <t>Tenis 10 VIP</t>
-  </si>
-  <si>
-    <t>Daily4Tips</t>
-  </si>
-  <si>
-    <t>JJAnalistas</t>
-  </si>
-  <si>
-    <t>Inversiones Deportivas</t>
-  </si>
-  <si>
-    <t>Thunder bets</t>
-  </si>
-  <si>
-    <t>Miss Winner</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Marca de Agua</t>
-  </si>
-  <si>
-    <t>Revista Reyes</t>
-  </si>
-  <si>
-    <t>Lara Basado</t>
-  </si>
-  <si>
-    <t>Picks de polo</t>
-  </si>
-  <si>
-    <t>Oscar Marquez</t>
-  </si>
-  <si>
-    <t>Niño picks</t>
-  </si>
-  <si>
-    <t>Dbets</t>
-  </si>
-  <si>
-    <t>Vikingo Negro</t>
-  </si>
-  <si>
-    <t>Hassido</t>
-  </si>
-  <si>
-    <t>Revista Sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacionales </t>
-  </si>
-  <si>
-    <t>Americanos</t>
-  </si>
-  <si>
-    <t>Stakes 10 y garantizados</t>
-  </si>
-  <si>
-    <t>Retos chapito</t>
-  </si>
-  <si>
-    <t>Garantizado diego palafox</t>
-  </si>
-  <si>
-    <t>Retos hugowx</t>
-  </si>
-  <si>
-    <t>NFL iluminati</t>
-  </si>
-  <si>
-    <t>Iluminati</t>
-  </si>
-  <si>
-    <t>Retos japo</t>
-  </si>
-  <si>
-    <t>LMB pirrupicks</t>
-  </si>
-  <si>
-    <t>RevovlerBets</t>
-  </si>
-  <si>
-    <t>El profe VIP</t>
-  </si>
-  <si>
-    <t>bombas gallitovip</t>
-  </si>
-  <si>
-    <t>Parlays Exoticos gallitovip</t>
-  </si>
-  <si>
-    <t>Asegurado mera fiera</t>
-  </si>
-  <si>
-    <t>Cristian rey mensual</t>
-  </si>
-  <si>
-    <t>Marco Rey APP</t>
-  </si>
-  <si>
-    <t>Anual cristian rey</t>
-  </si>
-  <si>
-    <t>Cristian Rey APP</t>
-  </si>
-  <si>
-    <t>Consejo Abuelo APP</t>
-  </si>
-  <si>
-    <t>Oscar Rey APP</t>
-  </si>
-  <si>
-    <t>Roberto Rey APP</t>
-  </si>
-  <si>
-    <t>Garantizado los picks del gordo</t>
-  </si>
-  <si>
-    <t>Garantizado iluminati</t>
-  </si>
-  <si>
-    <t>hugo wx garantizado</t>
-  </si>
-  <si>
-    <t>chapito NFL</t>
-  </si>
-  <si>
-    <t>NFL Stats</t>
-  </si>
-  <si>
-    <t>Retos Escalera y soñadores</t>
-  </si>
-  <si>
-    <t>Premium master</t>
-  </si>
-  <si>
-    <t>el profe stakes</t>
-  </si>
-  <si>
-    <t>Winner Apuestas</t>
-  </si>
-  <si>
-    <t>Sports peru</t>
-  </si>
-  <si>
-    <t>Cabezas premium</t>
-  </si>
-  <si>
-    <t>Stakes 10 y garantizados master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retos Escalera y parlays master </t>
-  </si>
-  <si>
-    <t>KinPicks</t>
-  </si>
-  <si>
-    <t>FrostyParlays</t>
-  </si>
-  <si>
-    <t>FrostyEsports</t>
-  </si>
-  <si>
-    <t>DaniPicks</t>
-  </si>
-  <si>
-    <t>Winner apuestas</t>
-  </si>
-  <si>
-    <t>La suca</t>
-  </si>
-  <si>
-    <t>Grupo 2</t>
-  </si>
-  <si>
-    <t>Canal</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\EnviarTipsters\el de los picks.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\EnviarTipsters\master.png</t>
-  </si>
-  <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Columna2</t>
-  </si>
-  <si>
-    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\master.png</t>
-  </si>
-  <si>
-    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\el de los picks.png</t>
-  </si>
-  <si>
-    <t>Ruben Picks</t>
-  </si>
-  <si>
-    <t>Verdeando Club</t>
-  </si>
-  <si>
-    <t>Doctor Apuesta</t>
-  </si>
-  <si>
-    <t>I. A. Bet</t>
-  </si>
-  <si>
-    <t>P. PR. T.S. Apuestas</t>
-  </si>
-  <si>
-    <t>Stakazo Oro Verde</t>
-  </si>
-  <si>
-    <t>Ex Teenista Profesional</t>
-  </si>
-  <si>
-    <t>Oro VIP</t>
-  </si>
-  <si>
-    <t>Doctor apuesta</t>
-  </si>
-  <si>
-    <t>DaniPicks stakes</t>
-  </si>
-  <si>
-    <t>BestBet</t>
+    <t>Nacionales ADM</t>
+  </si>
+  <si>
+    <t>Americanos ADM</t>
+  </si>
+  <si>
+    <t>Stakes 10 y garantizados ADM</t>
+  </si>
+  <si>
+    <t>Retos Escalera y soñadores ADM</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\ADM</t>
   </si>
 </sst>
 </file>
@@ -574,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -630,12 +639,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -650,12 +679,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -783,53 +900,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -848,26 +918,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="0" dataCellStyle="Porcentaje">
   <autoFilter ref="A1:G134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="1" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:C129" totalsRowShown="0">
-  <autoFilter ref="A1:C129" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:C127" totalsRowShown="0">
+  <autoFilter ref="A1:C127" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Tipster"/>
   </tableColumns>
@@ -876,14 +946,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BDB25287-9495-44F8-B73F-F11014A7E445}" name="Columna1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D479B9DC-AF3E-44A1-8FDC-4426A29FE7D7}" name="Columna2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BDB25287-9495-44F8-B73F-F11014A7E445}" name="Columna1" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D479B9DC-AF3E-44A1-8FDC-4426A29FE7D7}" name="Columna2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1208,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1320,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
@@ -1262,13 +1332,11 @@
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -1282,7 +1350,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
@@ -1291,21 +1359,18 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
@@ -1314,21 +1379,18 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -1337,10 +1399,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>65</v>
@@ -1352,7 +1414,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
@@ -1375,7 +1437,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
@@ -1384,56 +1446,53 @@
         <v>10000</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2">
-        <v>55</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
       </c>
       <c r="C9" s="1">
-        <v>7504</v>
+        <v>6645</v>
       </c>
       <c r="D9" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1">
         <v>10000</v>
       </c>
       <c r="C10" s="1">
-        <v>10450</v>
+        <v>7830</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1444,16 +1503,16 @@
         <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>9682</v>
+        <v>9118</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,41 +1523,41 @@
         <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>8932</v>
+        <v>8390</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F12" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1">
         <v>10000</v>
       </c>
       <c r="C13" s="1">
-        <v>10447</v>
+        <v>7447</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="10">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1">
         <v>10000</v>
@@ -1518,16 +1577,16 @@
         <v>10000</v>
       </c>
       <c r="C15" s="1">
-        <v>8427</v>
+        <v>7677</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,33 +1597,36 @@
         <v>10000</v>
       </c>
       <c r="C16" s="1">
-        <v>9753</v>
+        <v>7676</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1">
         <v>10000</v>
       </c>
       <c r="C17" s="1">
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
         <v>50</v>
@@ -1591,59 +1653,59 @@
         <v>10000</v>
       </c>
       <c r="C19" s="1">
-        <v>7912</v>
+        <v>8224</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1">
         <v>10000</v>
       </c>
       <c r="C20" s="1">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="E20" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1">
         <v>10000</v>
       </c>
       <c r="C21" s="1">
-        <v>11032</v>
+        <v>11371</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1">
         <v>10000</v>
@@ -1669,24 +1731,21 @@
         <v>10000</v>
       </c>
       <c r="C23" s="1">
-        <v>20609</v>
+        <v>16103</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2">
-        <v>68</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1">
         <v>10000</v>
@@ -1702,7 +1761,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1">
         <v>10000</v>
@@ -1722,41 +1781,44 @@
         <v>10000</v>
       </c>
       <c r="C26" s="1">
-        <v>10100</v>
+        <v>9470</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1">
         <v>10000</v>
       </c>
       <c r="C27" s="1">
-        <v>13404</v>
+        <v>22631</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1">
         <v>10000</v>
@@ -1776,7 +1838,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1">
         <v>10000</v>
@@ -1802,16 +1864,16 @@
         <v>10000</v>
       </c>
       <c r="C30" s="1">
-        <v>10740</v>
+        <v>10476</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1819,7 +1881,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1">
         <v>10000</v>
@@ -1839,39 +1901,39 @@
         <v>10000</v>
       </c>
       <c r="C32" s="1">
-        <v>8450</v>
+        <v>8230</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1">
         <v>10000</v>
       </c>
       <c r="C33" s="1">
-        <v>10705</v>
+        <v>11430</v>
       </c>
       <c r="D33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
       </c>
       <c r="F33" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1905,21 +1967,21 @@
         <v>10000</v>
       </c>
       <c r="C35" s="1">
-        <v>5620</v>
+        <v>8224</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F35" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1">
         <v>10000</v>
@@ -1998,19 +2060,16 @@
         <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>10348</v>
+        <v>9726</v>
       </c>
       <c r="D40">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2">
         <v>12</v>
       </c>
-      <c r="E40" s="2">
-        <v>6</v>
-      </c>
       <c r="F40" s="2">
-        <v>67</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,21 +2080,21 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>12060</v>
+        <v>10886</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E41" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1">
         <v>10000</v>
@@ -2055,25 +2114,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1">
         <v>10000</v>
       </c>
       <c r="C43" s="1">
-        <v>9585</v>
+        <v>101845</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E43" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2">
-        <v>58</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,25 +2147,25 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1">
         <v>10000</v>
       </c>
       <c r="C45" s="1">
-        <v>15990</v>
+        <v>22240</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E45" s="2">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45">
         <v>5</v>
-      </c>
-      <c r="F45" s="2">
-        <v>74</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,16 +2176,19 @@
         <v>10000</v>
       </c>
       <c r="C46" s="1">
-        <v>9920</v>
+        <v>10391</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="2">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,7 +2206,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1">
         <v>10000</v>
@@ -2179,19 +2238,16 @@
         <v>10000</v>
       </c>
       <c r="C50" s="1">
-        <v>10780</v>
+        <v>10205</v>
       </c>
       <c r="D50">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2">
         <v>9</v>
       </c>
-      <c r="E50" s="2">
-        <v>6</v>
-      </c>
       <c r="F50" s="2">
-        <v>60</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2222,24 +2278,21 @@
         <v>10000</v>
       </c>
       <c r="C52" s="1">
-        <v>8344</v>
+        <v>9526</v>
       </c>
       <c r="D52" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2">
-        <v>56</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1">
         <v>10000</v>
@@ -2257,7 +2310,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="1">
         <v>10000</v>
@@ -2300,16 +2353,19 @@
         <v>10000</v>
       </c>
       <c r="C56" s="1">
-        <v>11495</v>
+        <v>12962</v>
       </c>
       <c r="D56" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E56" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F56" s="2">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2320,19 +2376,16 @@
         <v>10000</v>
       </c>
       <c r="C57" s="1">
-        <v>13762</v>
+        <v>14264</v>
       </c>
       <c r="D57" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F57" s="2">
-        <v>88</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2343,39 +2396,39 @@
         <v>10000</v>
       </c>
       <c r="C58" s="1">
-        <v>10823</v>
+        <v>11676</v>
       </c>
       <c r="D58" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E58" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F58" s="2">
-        <v>67</v>
-      </c>
-      <c r="G58">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" s="1">
         <v>10000</v>
       </c>
       <c r="C59" s="1">
-        <v>8934</v>
+        <v>9714</v>
       </c>
       <c r="D59" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2">
         <v>31</v>
       </c>
       <c r="F59" s="2">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,16 +2454,16 @@
         <v>10000</v>
       </c>
       <c r="C61" s="1">
-        <v>10130</v>
+        <v>9135</v>
       </c>
       <c r="D61" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F61" s="2">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,80 +2474,77 @@
         <v>10000</v>
       </c>
       <c r="C62" s="1">
-        <v>8488</v>
+        <v>7638</v>
       </c>
       <c r="D62" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F62" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1">
         <v>10000</v>
       </c>
       <c r="C63" s="1">
-        <v>11075</v>
+        <v>10180</v>
       </c>
       <c r="D63" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E63" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2">
-        <v>60</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" s="1">
         <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>9100</v>
+        <v>10399</v>
       </c>
       <c r="D64" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E64" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F64" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B65" s="1">
         <v>10000</v>
       </c>
       <c r="C65" s="1">
-        <v>10320</v>
+        <v>7090</v>
       </c>
       <c r="D65" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2505,21 +2555,21 @@
         <v>10000</v>
       </c>
       <c r="C66" s="1">
-        <v>9620</v>
+        <v>8669</v>
       </c>
       <c r="D66" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E66" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1">
         <v>10000</v>
@@ -2545,16 +2595,16 @@
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>11302</v>
+        <v>13572</v>
       </c>
       <c r="D68" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E68" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F68" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2565,15 +2615,18 @@
         <v>10000</v>
       </c>
       <c r="C69" s="1">
-        <v>11360</v>
+        <v>13322</v>
       </c>
       <c r="D69" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
         <v>100</v>
       </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -2597,16 +2650,16 @@
         <v>10000</v>
       </c>
       <c r="C71" s="1">
-        <v>10360</v>
+        <v>8360</v>
       </c>
       <c r="D71" s="2">
         <v>5</v>
       </c>
       <c r="E71" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F71" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2637,16 +2690,16 @@
         <v>10000</v>
       </c>
       <c r="C73" s="1">
-        <v>6580</v>
+        <v>6985</v>
       </c>
       <c r="D73" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E73" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2657,19 +2710,19 @@
         <v>10000</v>
       </c>
       <c r="C74" s="1">
-        <v>10523</v>
+        <v>10725</v>
       </c>
       <c r="D74" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E74" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2680,16 +2733,16 @@
         <v>10000</v>
       </c>
       <c r="C75" s="1">
-        <v>10400</v>
+        <v>11800</v>
       </c>
       <c r="D75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75" s="2">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2700,16 +2753,19 @@
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>8170</v>
+        <v>8620</v>
       </c>
       <c r="D76" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E76" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F76" s="2">
         <v>50</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2720,16 +2776,16 @@
         <v>10000</v>
       </c>
       <c r="C77" s="1">
-        <v>9655</v>
+        <v>8098</v>
       </c>
       <c r="D77" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E77" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F77" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2740,19 +2796,16 @@
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>10944</v>
+        <v>6448</v>
       </c>
       <c r="D78" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E78" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F78" s="2">
-        <v>56</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,16 +2816,16 @@
         <v>10000</v>
       </c>
       <c r="C79" s="1">
-        <v>7857</v>
+        <v>8612</v>
       </c>
       <c r="D79" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F79" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2783,19 +2836,16 @@
         <v>10000</v>
       </c>
       <c r="C80" s="1">
-        <v>8781</v>
+        <v>8241</v>
       </c>
       <c r="D80" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2">
-        <v>55</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,16 +2856,19 @@
         <v>10000</v>
       </c>
       <c r="C81" s="1">
-        <v>9773</v>
+        <v>10763</v>
       </c>
       <c r="D81" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" s="2">
         <v>2</v>
       </c>
       <c r="F81" s="2">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2826,18 +2879,20 @@
         <v>10000</v>
       </c>
       <c r="C82" s="1">
-        <v>9725</v>
+        <v>10425</v>
       </c>
       <c r="D82" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82" s="2">
         <v>2</v>
       </c>
       <c r="F82" s="2">
-        <v>50</v>
-      </c>
-      <c r="G82" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="G82" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2847,110 +2902,111 @@
         <v>10000</v>
       </c>
       <c r="C83" s="1">
-        <v>11564</v>
+        <v>10586</v>
       </c>
       <c r="D83" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E83" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1">
         <v>10000</v>
       </c>
       <c r="C84" s="1">
-        <v>10525</v>
+        <v>10833</v>
       </c>
       <c r="D84" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E84" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F84" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="1">
         <v>10000</v>
       </c>
       <c r="C85" s="1">
-        <v>15670</v>
+        <v>11700</v>
       </c>
       <c r="D85" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E85" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" s="2">
-        <v>80</v>
-      </c>
-      <c r="G85" s="11">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="1">
         <v>10000</v>
       </c>
       <c r="C86" s="1">
-        <v>17710</v>
+        <v>17050</v>
       </c>
       <c r="D86" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E86" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" s="1">
         <v>10000</v>
       </c>
       <c r="C87" s="1">
-        <v>9930</v>
+        <v>10618</v>
       </c>
       <c r="D87" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F87" s="2">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="1">
         <v>10000</v>
@@ -2964,7 +3020,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1">
         <v>10000</v>
@@ -2978,50 +3034,50 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1">
         <v>10000</v>
       </c>
       <c r="C90" s="1">
-        <v>8700</v>
+        <v>8070</v>
       </c>
       <c r="D90" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E90" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F90" s="2">
         <v>50</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="1">
         <v>10000</v>
       </c>
       <c r="C91" s="1">
-        <v>19650</v>
+        <v>22650</v>
       </c>
       <c r="D91" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E91" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91" s="2">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1">
         <v>10000</v>
@@ -3041,7 +3097,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1">
         <v>10000</v>
@@ -3055,27 +3111,30 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B94" s="1">
         <v>10000</v>
       </c>
       <c r="C94" s="1">
-        <v>9560</v>
+        <v>10220</v>
       </c>
       <c r="D94" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" s="2">
         <v>2</v>
       </c>
       <c r="F94" s="2">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B95" s="1">
         <v>10000</v>
@@ -3095,82 +3154,88 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B96" s="1">
         <v>10000</v>
       </c>
       <c r="C96" s="1">
-        <v>3960</v>
+        <v>11599</v>
       </c>
       <c r="D96" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E96" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F96" s="2">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B97" s="1">
         <v>10000</v>
       </c>
       <c r="C97" s="1">
-        <v>10879</v>
+        <v>12302</v>
       </c>
       <c r="D97" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
       </c>
       <c r="F97" s="2">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B98" s="1">
         <v>10000</v>
       </c>
       <c r="C98" s="1">
-        <v>8900</v>
+        <v>9430</v>
       </c>
       <c r="D98" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" s="2">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="1">
         <v>10000</v>
       </c>
       <c r="C99" s="1">
-        <v>12149</v>
+        <v>12295</v>
       </c>
       <c r="D99" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E99" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F99" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3178,154 +3243,160 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B100" s="1">
         <v>10000</v>
       </c>
       <c r="C100" s="1">
-        <v>8856</v>
+        <v>10201</v>
       </c>
       <c r="D100" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E100" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F100" s="2">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B101" s="1">
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>10470</v>
+        <v>10210</v>
       </c>
       <c r="D101" s="2">
+        <v>9</v>
+      </c>
+      <c r="E101" s="2">
         <v>6</v>
       </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
       <c r="F101" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B102" s="1">
         <v>10000</v>
       </c>
       <c r="C102" s="1">
-        <v>9600</v>
+        <v>10360</v>
       </c>
       <c r="D102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" s="2">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B103" s="1">
         <v>10000</v>
       </c>
       <c r="C103" s="1">
-        <v>10350</v>
+        <v>11315</v>
       </c>
       <c r="D103" s="2">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2">
         <v>7</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
+        <v>70</v>
+      </c>
+      <c r="G103">
         <v>4</v>
-      </c>
-      <c r="F103" s="2">
-        <v>64</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
       </c>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B104" s="1">
         <v>10000</v>
       </c>
       <c r="C104" s="1">
-        <v>14654</v>
+        <v>15659</v>
       </c>
       <c r="D104" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E104" s="2">
         <v>5</v>
       </c>
       <c r="F104" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B105" s="1">
         <v>10000</v>
       </c>
       <c r="C105" s="1">
-        <v>4250</v>
+        <v>8810</v>
       </c>
       <c r="D105" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E105" s="2">
         <v>12</v>
       </c>
       <c r="F105" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B106" s="1">
         <v>10000</v>
       </c>
       <c r="C106" s="1">
-        <v>6790</v>
+        <v>8103</v>
       </c>
       <c r="D106" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B107" s="1">
         <v>10000</v>
@@ -3345,27 +3416,27 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B108" s="1">
         <v>10000</v>
       </c>
       <c r="C108" s="1">
-        <v>9450</v>
+        <v>6150</v>
       </c>
       <c r="D108" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E108" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F108" s="2">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B109" s="1">
         <v>10000</v>
@@ -3379,7 +3450,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B110" s="1">
         <v>10000</v>
@@ -3393,7 +3464,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B111" s="1">
         <v>10000</v>
@@ -3407,27 +3478,30 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B112" s="1">
         <v>10000</v>
       </c>
       <c r="C112" s="1">
-        <v>10110</v>
+        <v>9940</v>
       </c>
       <c r="D112" s="2">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2">
         <v>3</v>
       </c>
-      <c r="E112" s="2">
-        <v>2</v>
-      </c>
       <c r="F112" s="2">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B113" s="1">
         <v>10000</v>
@@ -3447,7 +3521,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B114" s="1">
         <v>10000</v>
@@ -3461,67 +3535,73 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B115" s="1">
         <v>10000</v>
       </c>
       <c r="C115" s="1">
-        <v>10780</v>
+        <v>9780</v>
       </c>
       <c r="D115" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
       </c>
       <c r="F115" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B116" s="1">
         <v>10000</v>
       </c>
       <c r="C116" s="1">
-        <v>7430</v>
+        <v>9040</v>
       </c>
       <c r="D116" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E116" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" s="2">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B117" s="1">
         <v>10000</v>
       </c>
       <c r="C117" s="1">
-        <v>5670</v>
+        <v>7860</v>
       </c>
       <c r="D117" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E117" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F117" s="2">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B118" s="1">
         <v>10000</v>
@@ -3536,27 +3616,27 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B119" s="1">
         <v>10000</v>
       </c>
       <c r="C119" s="1">
-        <v>9270</v>
+        <v>6370</v>
       </c>
       <c r="D119" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E119" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F119" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B120" s="1">
         <v>10000</v>
@@ -3576,7 +3656,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B121" s="1">
         <v>10000</v>
@@ -3596,27 +3676,27 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B122" s="1">
         <v>10000</v>
       </c>
       <c r="C122" s="1">
-        <v>10070</v>
+        <v>8810</v>
       </c>
       <c r="D122" s="2">
+        <v>6</v>
+      </c>
+      <c r="E122" s="2">
         <v>5</v>
       </c>
-      <c r="E122" s="2">
-        <v>3</v>
-      </c>
       <c r="F122" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B123" s="1">
         <v>10000</v>
@@ -3639,7 +3719,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B124" s="1">
         <v>10000</v>
@@ -3660,7 +3740,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B125" s="1">
         <v>10000</v>
@@ -3675,7 +3755,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B126" s="1">
         <v>10000</v>
@@ -3698,22 +3778,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B127" s="1">
         <v>10000</v>
       </c>
       <c r="C127" s="1">
-        <v>10735</v>
+        <v>11476</v>
       </c>
       <c r="D127" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E127" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F127" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -3721,7 +3801,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B128" s="1">
         <v>10000</v>
@@ -3742,7 +3822,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B129" s="1">
         <v>10000</v>
@@ -3759,7 +3839,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B130" s="1">
         <v>10000</v>
@@ -3782,16 +3862,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B131" s="1">
         <v>10000</v>
       </c>
       <c r="C131" s="1">
-        <v>10876</v>
+        <v>11530</v>
       </c>
       <c r="D131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2">
@@ -3803,7 +3883,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B132" s="1">
         <v>10000</v>
@@ -3820,7 +3900,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
@@ -3841,16 +3921,26 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="12"/>
+      <c r="C134" s="1">
+        <v>9890</v>
+      </c>
+      <c r="D134" s="2">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3</v>
+      </c>
+      <c r="F134" s="2">
+        <v>50</v>
+      </c>
+      <c r="G134" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
@@ -4488,10 +4578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,10 +4593,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -4514,32 +4604,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4547,10 +4637,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -4558,32 +4648,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -4591,10 +4681,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4602,10 +4692,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -4613,10 +4703,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -4625,33 +4715,33 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -4659,10 +4749,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -4670,32 +4760,32 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -4703,21 +4793,21 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -4725,10 +4815,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -4736,10 +4826,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -4747,10 +4837,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -4758,10 +4848,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -4769,10 +4859,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -4780,10 +4870,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -4791,10 +4881,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -4802,33 +4892,33 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -4836,21 +4926,21 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -4858,10 +4948,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -4869,21 +4959,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -4892,7 +4982,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4900,10 +4990,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -4911,10 +5001,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
@@ -4922,10 +5012,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -4933,10 +5023,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -4944,10 +5034,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>32</v>
@@ -4955,10 +5045,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
@@ -4966,21 +5056,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
@@ -4988,10 +5078,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -4999,10 +5089,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -5010,43 +5100,43 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
@@ -5054,21 +5144,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
@@ -5076,10 +5166,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
         <v>40</v>
@@ -5087,10 +5177,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -5098,10 +5188,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
         <v>42</v>
@@ -5109,10 +5199,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -5120,10 +5210,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>44</v>
@@ -5131,10 +5221,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>45</v>
@@ -5142,10 +5232,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -5153,10 +5243,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
@@ -5164,10 +5254,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>48</v>
@@ -5175,10 +5265,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -5186,10 +5276,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
@@ -5197,10 +5287,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
         <v>53</v>
@@ -5208,10 +5298,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
         <v>54</v>
@@ -5219,10 +5309,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
         <v>52</v>
@@ -5230,319 +5320,319 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
         <v>129</v>
-      </c>
-      <c r="B72" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
         <v>103</v>
-      </c>
-      <c r="C82" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" t="s">
         <v>134</v>
-      </c>
-      <c r="B90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>59</v>
@@ -5550,10 +5640,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>60</v>
@@ -5561,32 +5651,32 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>62</v>
@@ -5594,10 +5684,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
         <v>63</v>
@@ -5605,10 +5695,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>64</v>
@@ -5616,21 +5706,21 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -5638,21 +5728,21 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
         <v>76</v>
@@ -5660,87 +5750,87 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C113" t="s">
         <v>85</v>
@@ -5748,10 +5838,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
         <v>86</v>
@@ -5759,10 +5849,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C115" t="s">
         <v>87</v>
@@ -5770,156 +5860,134 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B117" t="s">
-        <v>103</v>
+        <v>133</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B118" t="s">
-        <v>103</v>
+        <v>133</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>128</v>
+      <c r="A121" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>128</v>
+      <c r="A123" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B128" t="s">
-        <v>103</v>
-      </c>
-      <c r="C128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>101</v>
-      </c>
-      <c r="C129" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5937,7 +6005,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5949,152 +6017,196 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7">
         <v>-1002105211537</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" s="7">
         <v>-1002194870823</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>-1001957612350</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D3" s="7">
         <v>-1002461593090</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="6">
         <v>-1002018254333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D4" s="7">
         <v>-1002427940985</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6">
         <v>-1002018254333</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6">
         <v>-1002251083617</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="7">
         <v>-1002156412551</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" s="7">
         <v>-1002297812775</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>-1002197383783</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="6">
         <v>-1002475543778</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>-1002221930423</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7">
         <v>-1002359449640</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
+      <c r="A9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-1002390345649</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="15">
+        <v>-1002378514893</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="3"/>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="15">
+        <v>-1002407233853</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="15">
+        <v>-1002248753359</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="608" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E27CA9B-0685-4BE5-A0A1-986D8B40CF88}"/>
+  <xr:revisionPtr revIDLastSave="683" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7623285E-7C53-4D0D-A2E5-F2D55DA596E4}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="171">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -529,7 +529,28 @@
     <t>Retos Escalera y soñadores ADM</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\EnviarTipsters\ADM</t>
+    <t>Nacionales Lyon</t>
+  </si>
+  <si>
+    <t>Americanos Lyon</t>
+  </si>
+  <si>
+    <t>Stakes 10 y garatizados Lyon</t>
+  </si>
+  <si>
+    <t>Retso escalera y soñadores Lyon</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\Lyon.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\ADM.png</t>
+  </si>
+  <si>
+    <t>Grupo 3</t>
+  </si>
+  <si>
+    <t>Grupo 4</t>
   </si>
 </sst>
 </file>
@@ -664,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -679,100 +700,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -900,6 +839,90 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -918,27 +941,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="0" dataCellStyle="Porcentaje">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="11" dataCellStyle="Porcentaje">
   <autoFilter ref="A1:G134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="5" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:C127" totalsRowShown="0">
-  <autoFilter ref="A1:C127" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E127" totalsRowShown="0">
+  <autoFilter ref="A1:E127" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
+    <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
+    <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
     <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Tipster"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -946,14 +971,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BDB25287-9495-44F8-B73F-F11014A7E445}" name="Columna1" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D479B9DC-AF3E-44A1-8FDC-4426A29FE7D7}" name="Columna2" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BDB25287-9495-44F8-B73F-F11014A7E445}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D479B9DC-AF3E-44A1-8FDC-4426A29FE7D7}" name="Columna2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4578,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:A129"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D121" sqref="D117:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,9 +4614,11 @@
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -4599,10 +4626,16 @@
         <v>139</v>
       </c>
       <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>127</v>
       </c>
@@ -4610,10 +4643,16 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>127</v>
       </c>
@@ -4621,10 +4660,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>127</v>
       </c>
@@ -4632,10 +4677,16 @@
         <v>99</v>
       </c>
       <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>127</v>
       </c>
@@ -4643,10 +4694,16 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>127</v>
       </c>
@@ -4654,10 +4711,16 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>133</v>
       </c>
@@ -4665,10 +4728,16 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>127</v>
       </c>
@@ -4676,10 +4745,16 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>127</v>
       </c>
@@ -4687,10 +4762,16 @@
         <v>99</v>
       </c>
       <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>127</v>
       </c>
@@ -4698,10 +4779,16 @@
         <v>99</v>
       </c>
       <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>127</v>
       </c>
@@ -4709,11 +4796,17 @@
         <v>99</v>
       </c>
       <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>127</v>
       </c>
@@ -4721,11 +4814,17 @@
         <v>99</v>
       </c>
       <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>127</v>
       </c>
@@ -4733,10 +4832,16 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>127</v>
       </c>
@@ -4744,10 +4849,16 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>127</v>
       </c>
@@ -4755,10 +4866,16 @@
         <v>99</v>
       </c>
       <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>127</v>
       </c>
@@ -4766,10 +4883,16 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>127</v>
       </c>
@@ -4777,10 +4900,16 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>127</v>
       </c>
@@ -4788,10 +4917,16 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -4799,10 +4934,16 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>127</v>
       </c>
@@ -4810,10 +4951,16 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>127</v>
       </c>
@@ -4821,10 +4968,16 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>127</v>
       </c>
@@ -4832,10 +4985,16 @@
         <v>99</v>
       </c>
       <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>127</v>
       </c>
@@ -4843,10 +5002,16 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>127</v>
       </c>
@@ -4854,10 +5019,16 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>127</v>
       </c>
@@ -4865,10 +5036,16 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>127</v>
       </c>
@@ -4876,10 +5053,16 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>127</v>
       </c>
@@ -4887,10 +5070,16 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>127</v>
       </c>
@@ -4898,11 +5087,17 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
@@ -4910,10 +5105,16 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>127</v>
       </c>
@@ -4921,10 +5122,16 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>127</v>
       </c>
@@ -4932,10 +5139,16 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>127</v>
       </c>
@@ -4943,10 +5156,16 @@
         <v>99</v>
       </c>
       <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>127</v>
       </c>
@@ -4954,10 +5173,16 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>127</v>
       </c>
@@ -4965,10 +5190,16 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>127</v>
       </c>
@@ -4976,19 +5207,31 @@
         <v>99</v>
       </c>
       <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>99</v>
       </c>
       <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>127</v>
       </c>
@@ -4996,10 +5239,16 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>127</v>
       </c>
@@ -5007,10 +5256,16 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>127</v>
       </c>
@@ -5018,10 +5273,16 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>127</v>
       </c>
@@ -5029,10 +5290,16 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>127</v>
       </c>
@@ -5040,10 +5307,16 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>127</v>
       </c>
@@ -5051,10 +5324,16 @@
         <v>99</v>
       </c>
       <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>127</v>
       </c>
@@ -5062,10 +5341,16 @@
         <v>99</v>
       </c>
       <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>127</v>
       </c>
@@ -5073,10 +5358,16 @@
         <v>99</v>
       </c>
       <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>127</v>
       </c>
@@ -5084,10 +5375,16 @@
         <v>99</v>
       </c>
       <c r="C45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>127</v>
       </c>
@@ -5095,10 +5392,16 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>127</v>
       </c>
@@ -5106,10 +5409,16 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>127</v>
       </c>
@@ -5117,10 +5426,16 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>132</v>
       </c>
@@ -5128,10 +5443,16 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>127</v>
       </c>
@@ -5139,10 +5460,16 @@
         <v>100</v>
       </c>
       <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>127</v>
       </c>
@@ -5150,10 +5477,16 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>127</v>
       </c>
@@ -5161,10 +5494,16 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>127</v>
       </c>
@@ -5172,10 +5511,16 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>127</v>
       </c>
@@ -5183,10 +5528,16 @@
         <v>100</v>
       </c>
       <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>127</v>
       </c>
@@ -5194,10 +5545,16 @@
         <v>100</v>
       </c>
       <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>127</v>
       </c>
@@ -5205,10 +5562,16 @@
         <v>100</v>
       </c>
       <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>127</v>
       </c>
@@ -5216,10 +5579,16 @@
         <v>100</v>
       </c>
       <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>127</v>
       </c>
@@ -5227,10 +5596,16 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>127</v>
       </c>
@@ -5238,10 +5613,16 @@
         <v>100</v>
       </c>
       <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>127</v>
       </c>
@@ -5249,10 +5630,16 @@
         <v>100</v>
       </c>
       <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>127</v>
       </c>
@@ -5260,10 +5647,16 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>127</v>
       </c>
@@ -5271,10 +5664,16 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>127</v>
       </c>
@@ -5282,10 +5681,16 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>127</v>
       </c>
@@ -5293,10 +5698,16 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>127</v>
       </c>
@@ -5304,10 +5715,16 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>127</v>
       </c>
@@ -5315,10 +5732,16 @@
         <v>99</v>
       </c>
       <c r="C66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>127</v>
       </c>
@@ -5326,10 +5749,16 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>127</v>
       </c>
@@ -5337,10 +5766,16 @@
         <v>99</v>
       </c>
       <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>127</v>
       </c>
@@ -5348,10 +5783,16 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>127</v>
       </c>
@@ -5359,10 +5800,16 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>127</v>
       </c>
@@ -5370,10 +5817,16 @@
         <v>99</v>
       </c>
       <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>127</v>
       </c>
@@ -5381,10 +5834,16 @@
         <v>99</v>
       </c>
       <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>127</v>
       </c>
@@ -5392,10 +5851,16 @@
         <v>99</v>
       </c>
       <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>127</v>
       </c>
@@ -5403,10 +5868,16 @@
         <v>99</v>
       </c>
       <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>127</v>
       </c>
@@ -5414,10 +5885,16 @@
         <v>99</v>
       </c>
       <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>127</v>
       </c>
@@ -5425,10 +5902,16 @@
         <v>99</v>
       </c>
       <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>127</v>
       </c>
@@ -5436,10 +5919,16 @@
         <v>99</v>
       </c>
       <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>127</v>
       </c>
@@ -5447,21 +5936,33 @@
         <v>101</v>
       </c>
       <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B79" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>127</v>
       </c>
@@ -5469,10 +5970,16 @@
         <v>99</v>
       </c>
       <c r="C80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>132</v>
       </c>
@@ -5480,10 +5987,16 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>132</v>
       </c>
@@ -5491,10 +6004,16 @@
         <v>101</v>
       </c>
       <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>132</v>
       </c>
@@ -5502,10 +6021,16 @@
         <v>101</v>
       </c>
       <c r="C83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>132</v>
       </c>
@@ -5513,10 +6038,16 @@
         <v>101</v>
       </c>
       <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>132</v>
       </c>
@@ -5524,10 +6055,16 @@
         <v>101</v>
       </c>
       <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>132</v>
       </c>
@@ -5535,10 +6072,16 @@
         <v>101</v>
       </c>
       <c r="C86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>132</v>
       </c>
@@ -5546,10 +6089,16 @@
         <v>101</v>
       </c>
       <c r="C87" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>132</v>
       </c>
@@ -5557,10 +6106,16 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>132</v>
       </c>
@@ -5568,10 +6123,16 @@
         <v>101</v>
       </c>
       <c r="C89" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>132</v>
       </c>
@@ -5579,10 +6140,16 @@
         <v>101</v>
       </c>
       <c r="C90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>132</v>
       </c>
@@ -5590,10 +6157,16 @@
         <v>101</v>
       </c>
       <c r="C91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>132</v>
       </c>
@@ -5601,10 +6174,16 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>132</v>
       </c>
@@ -5612,10 +6191,16 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>132</v>
       </c>
@@ -5623,11 +6208,17 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>132</v>
       </c>
@@ -5635,10 +6226,16 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>132</v>
       </c>
@@ -5646,10 +6243,16 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>132</v>
       </c>
@@ -5657,10 +6260,16 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>132</v>
       </c>
@@ -5668,10 +6277,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>132</v>
       </c>
@@ -5679,10 +6294,16 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>132</v>
       </c>
@@ -5690,10 +6311,16 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>132</v>
       </c>
@@ -5701,10 +6328,16 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>132</v>
       </c>
@@ -5712,10 +6345,16 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>132</v>
       </c>
@@ -5723,10 +6362,16 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>132</v>
       </c>
@@ -5734,10 +6379,16 @@
         <v>101</v>
       </c>
       <c r="C104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>132</v>
       </c>
@@ -5745,10 +6396,16 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>132</v>
       </c>
@@ -5756,10 +6413,16 @@
         <v>101</v>
       </c>
       <c r="C106" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>132</v>
       </c>
@@ -5767,10 +6430,16 @@
         <v>101</v>
       </c>
       <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>132</v>
       </c>
@@ -5778,10 +6447,16 @@
         <v>101</v>
       </c>
       <c r="C108" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E108" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>132</v>
       </c>
@@ -5789,10 +6464,16 @@
         <v>101</v>
       </c>
       <c r="C109" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>132</v>
       </c>
@@ -5800,10 +6481,16 @@
         <v>101</v>
       </c>
       <c r="C110" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>132</v>
       </c>
@@ -5811,10 +6498,16 @@
         <v>101</v>
       </c>
       <c r="C111" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>132</v>
       </c>
@@ -5822,10 +6515,16 @@
         <v>101</v>
       </c>
       <c r="C112" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>132</v>
       </c>
@@ -5833,10 +6532,16 @@
         <v>101</v>
       </c>
       <c r="C113" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>132</v>
       </c>
@@ -5844,10 +6549,16 @@
         <v>101</v>
       </c>
       <c r="C114" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>132</v>
       </c>
@@ -5855,10 +6566,16 @@
         <v>101</v>
       </c>
       <c r="C115" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>132</v>
       </c>
@@ -5866,10 +6583,16 @@
         <v>101</v>
       </c>
       <c r="C116" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>133</v>
       </c>
@@ -5877,10 +6600,16 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>133</v>
       </c>
@@ -5888,10 +6617,16 @@
         <v>126</v>
       </c>
       <c r="C118" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>133</v>
       </c>
@@ -5899,10 +6634,16 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E119" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>133</v>
       </c>
@@ -5910,10 +6651,16 @@
         <v>126</v>
       </c>
       <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>133</v>
       </c>
@@ -5921,10 +6668,16 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E121" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>132</v>
       </c>
@@ -5932,10 +6685,16 @@
         <v>101</v>
       </c>
       <c r="C122" t="s">
+        <v>161</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E122" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>127</v>
       </c>
@@ -5943,10 +6702,16 @@
         <v>101</v>
       </c>
       <c r="C123" t="s">
+        <v>161</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>132</v>
       </c>
@@ -5954,10 +6719,16 @@
         <v>101</v>
       </c>
       <c r="C124" t="s">
+        <v>161</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>132</v>
       </c>
@@ -5965,10 +6736,16 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>132</v>
       </c>
@@ -5976,11 +6753,17 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E126" t="s">
         <v>154</v>
       </c>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>127</v>
       </c>
@@ -5988,10 +6771,17 @@
         <v>99</v>
       </c>
       <c r="C127" t="s">
+        <v>159</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E127" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6002,10 +6792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6156,57 +6946,109 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-1002378514893</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="14">
+        <v>-1002407233853</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="14">
+        <v>-1002248753359</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="15">
-        <v>-1002378514893</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="15">
-        <v>-1002407233853</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="15">
-        <v>-1002248753359</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B13" s="18">
+        <v>-1002148324453</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="18">
+        <v>-1002170091825</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="18">
+        <v>-1002177242150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="18">
+        <v>-1002242675024</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="683" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7623285E-7C53-4D0D-A2E5-F2D55DA596E4}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F8305AE-FEEC-46C2-8815-8B91F612AAA5}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="810" yWindow="1335" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
     <sheet name="Grupos" sheetId="2" r:id="rId2"/>
     <sheet name="Canales" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="168">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -454,9 +455,6 @@
     <t>DaniPicks</t>
   </si>
   <si>
-    <t>La suca</t>
-  </si>
-  <si>
     <t>Grupo 2</t>
   </si>
   <si>
@@ -469,12 +467,6 @@
     <t>C:\Users\Administrator\EnviarTipsters\master.png</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Columna2</t>
-  </si>
-  <si>
     <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\master.png</t>
   </si>
   <si>
@@ -514,9 +506,6 @@
     <t>Main Play</t>
   </si>
   <si>
-    <t xml:space="preserve">La suca </t>
-  </si>
-  <si>
     <t>Nacionales ADM</t>
   </si>
   <si>
@@ -551,6 +540,9 @@
   </si>
   <si>
     <t>Grupo 4</t>
+  </si>
+  <si>
+    <t>Suca</t>
   </si>
 </sst>
 </file>
@@ -604,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -669,23 +661,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -701,39 +682,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -751,93 +708,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -906,6 +776,41 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -922,6 +827,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,16 +860,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="11" dataCellStyle="Porcentaje">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="0" dataCellStyle="Porcentaje">
   <autoFilter ref="A1:G134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="1" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,7 +879,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E127" totalsRowShown="0">
   <autoFilter ref="A1:E127" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
@@ -971,14 +890,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:E16" totalsRowShown="0">
-  <autoFilter ref="A1:E16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BDB25287-9495-44F8-B73F-F11014A7E445}" name="Columna1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D479B9DC-AF3E-44A1-8FDC-4426A29FE7D7}" name="Columna2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1303,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,9 +1271,7 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1384,10 +1299,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>55</v>
@@ -1424,16 +1339,16 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
         <v>65</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1488,16 +1403,16 @@
         <v>10000</v>
       </c>
       <c r="C9" s="1">
-        <v>6645</v>
+        <v>7380</v>
       </c>
       <c r="D9" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,16 +1443,16 @@
         <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>9118</v>
+        <v>8418</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,16 +1463,19 @@
         <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>8390</v>
+        <v>9430</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
       </c>
       <c r="F12" s="10">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,13 +1520,13 @@
         <v>10000</v>
       </c>
       <c r="C15" s="1">
-        <v>7677</v>
+        <v>7577</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>38</v>
@@ -1678,16 +1596,16 @@
         <v>10000</v>
       </c>
       <c r="C19" s="1">
-        <v>8224</v>
+        <v>7924</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,16 +1674,16 @@
         <v>10000</v>
       </c>
       <c r="C23" s="1">
-        <v>16103</v>
+        <v>19055</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2">
         <v>23</v>
       </c>
       <c r="F23" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,19 +1744,19 @@
         <v>10000</v>
       </c>
       <c r="C27" s="1">
-        <v>22631</v>
+        <v>23231</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="2">
         <v>56</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,16 +1807,16 @@
         <v>10000</v>
       </c>
       <c r="C30" s="1">
-        <v>10476</v>
+        <v>10557</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1926,16 +1844,16 @@
         <v>10000</v>
       </c>
       <c r="C32" s="1">
-        <v>8230</v>
+        <v>9320</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2085,16 +2003,16 @@
         <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>9726</v>
+        <v>10822</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2">
         <v>12</v>
       </c>
       <c r="F40" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,16 +2023,19 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>10886</v>
+        <v>11628</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E41" s="2">
         <v>16</v>
       </c>
       <c r="F41" s="2">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,16 +2066,16 @@
         <v>10000</v>
       </c>
       <c r="C43" s="1">
-        <v>101845</v>
+        <v>11628</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
       <c r="E43" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,19 +2099,16 @@
         <v>10000</v>
       </c>
       <c r="C45" s="1">
-        <v>22240</v>
+        <v>21240</v>
       </c>
       <c r="D45">
         <v>23</v>
       </c>
       <c r="E45" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2">
-        <v>79</v>
-      </c>
-      <c r="G45">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2283,16 +2201,16 @@
         <v>10000</v>
       </c>
       <c r="C51" s="1">
-        <v>9375</v>
+        <v>8375</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2378,19 +2296,16 @@
         <v>10000</v>
       </c>
       <c r="C56" s="1">
-        <v>12962</v>
+        <v>12317</v>
       </c>
       <c r="D56" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E56" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2">
-        <v>57</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,16 +2316,19 @@
         <v>10000</v>
       </c>
       <c r="C57" s="1">
-        <v>14264</v>
+        <v>14574</v>
       </c>
       <c r="D57" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2">
         <v>8</v>
       </c>
       <c r="F57" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,16 +2339,16 @@
         <v>10000</v>
       </c>
       <c r="C58" s="1">
-        <v>11676</v>
+        <v>11536</v>
       </c>
       <c r="D58" s="2">
         <v>53</v>
       </c>
       <c r="E58" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F58" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,16 +2397,16 @@
         <v>10000</v>
       </c>
       <c r="C61" s="1">
-        <v>9135</v>
+        <v>9615</v>
       </c>
       <c r="D61" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2">
         <v>18</v>
       </c>
       <c r="F61" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2539,13 +2457,13 @@
         <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>10399</v>
+        <v>10144</v>
       </c>
       <c r="D64" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E64" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F64" s="2">
         <v>48</v>
@@ -2554,7 +2472,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B65" s="1">
         <v>10000</v>
@@ -2580,16 +2498,16 @@
         <v>10000</v>
       </c>
       <c r="C66" s="1">
-        <v>8669</v>
+        <v>8932</v>
       </c>
       <c r="D66" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E66" s="2">
         <v>56</v>
       </c>
       <c r="F66" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,16 +2538,16 @@
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>13572</v>
+        <v>12714</v>
       </c>
       <c r="D68" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E68" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F68" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2695,16 +2613,16 @@
         <v>10000</v>
       </c>
       <c r="C72" s="1">
-        <v>5800</v>
+        <v>6300</v>
       </c>
       <c r="D72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
       </c>
       <c r="F72" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,16 +2633,16 @@
         <v>10000</v>
       </c>
       <c r="C73" s="1">
-        <v>6985</v>
+        <v>6585</v>
       </c>
       <c r="D73" s="2">
         <v>18</v>
       </c>
       <c r="E73" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F73" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,19 +2653,19 @@
         <v>10000</v>
       </c>
       <c r="C74" s="1">
-        <v>10725</v>
+        <v>10790</v>
       </c>
       <c r="D74" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E74" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F74" s="2">
         <v>64</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,19 +2696,19 @@
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>8620</v>
+        <v>9280</v>
       </c>
       <c r="D76" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="2">
         <v>7</v>
       </c>
       <c r="F76" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,16 +2719,16 @@
         <v>10000</v>
       </c>
       <c r="C77" s="1">
-        <v>8098</v>
+        <v>8285</v>
       </c>
       <c r="D77" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,16 +2739,16 @@
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>6448</v>
+        <v>6048</v>
       </c>
       <c r="D78" s="2">
         <v>35</v>
       </c>
       <c r="E78" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F78" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,19 +2845,19 @@
         <v>10000</v>
       </c>
       <c r="C83" s="1">
-        <v>10586</v>
+        <v>11010</v>
       </c>
       <c r="D83" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E83" s="2">
         <v>10</v>
       </c>
       <c r="F83" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,19 +2932,19 @@
         <v>10000</v>
       </c>
       <c r="C87" s="1">
-        <v>10618</v>
+        <v>11146</v>
       </c>
       <c r="D87" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2">
         <v>6</v>
       </c>
       <c r="F87" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,19 +3003,16 @@
         <v>10000</v>
       </c>
       <c r="C91" s="1">
-        <v>22650</v>
+        <v>26450</v>
       </c>
       <c r="D91" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E91" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2">
-        <v>63</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3231,13 +3146,13 @@
         <v>10000</v>
       </c>
       <c r="C98" s="1">
-        <v>9430</v>
+        <v>9260</v>
       </c>
       <c r="D98" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E98" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98" s="2">
         <v>50</v>
@@ -3251,19 +3166,16 @@
         <v>10000</v>
       </c>
       <c r="C99" s="1">
-        <v>12295</v>
+        <v>10778</v>
       </c>
       <c r="D99" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E99" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F99" s="2">
-        <v>69</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3274,19 +3186,16 @@
         <v>10000</v>
       </c>
       <c r="C100" s="1">
-        <v>10201</v>
+        <v>10039</v>
       </c>
       <c r="D100" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E100" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F100" s="2">
-        <v>61</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,16 +3206,16 @@
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>10210</v>
+        <v>9210</v>
       </c>
       <c r="D101" s="2">
         <v>9</v>
       </c>
       <c r="E101" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3317,19 +3226,16 @@
         <v>10000</v>
       </c>
       <c r="C102" s="1">
-        <v>10360</v>
+        <v>9360</v>
       </c>
       <c r="D102" s="2">
         <v>2</v>
       </c>
       <c r="E102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" s="2">
-        <v>67</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3364,19 +3270,19 @@
         <v>10000</v>
       </c>
       <c r="C104" s="1">
-        <v>15659</v>
+        <v>16664</v>
       </c>
       <c r="D104" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E104" s="2">
         <v>5</v>
       </c>
       <c r="F104" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3441,7 +3347,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B108" s="1">
         <v>10000</v>
@@ -3509,19 +3415,16 @@
         <v>10000</v>
       </c>
       <c r="C112" s="1">
-        <v>9940</v>
+        <v>8940</v>
       </c>
       <c r="D112" s="2">
         <v>4</v>
       </c>
       <c r="E112" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" s="2">
-        <v>57</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3707,16 +3610,16 @@
         <v>10000</v>
       </c>
       <c r="C122" s="1">
-        <v>8810</v>
+        <v>6080</v>
       </c>
       <c r="D122" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E122" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F122" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3780,7 +3683,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B126" s="1">
         <v>10000</v>
@@ -3803,7 +3706,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B127" s="1">
         <v>10000</v>
@@ -3826,7 +3729,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B128" s="1">
         <v>10000</v>
@@ -3847,7 +3750,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B129" s="1">
         <v>10000</v>
@@ -3864,7 +3767,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B130" s="1">
         <v>10000</v>
@@ -3887,7 +3790,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B131" s="1">
         <v>10000</v>
@@ -3908,7 +3811,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B132" s="1">
         <v>10000</v>
@@ -3925,7 +3828,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
@@ -3946,7 +3849,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
@@ -4605,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D121" sqref="D117:D121"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,13 +4526,13 @@
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -4643,10 +4546,10 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
         <v>159</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
@@ -4660,10 +4563,10 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>159</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E3" t="s">
         <v>125</v>
@@ -4677,10 +4580,10 @@
         <v>99</v>
       </c>
       <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
         <v>159</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -4694,10 +4597,10 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
         <v>159</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -4711,10 +4614,10 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
         <v>159</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E6" t="s">
         <v>124</v>
@@ -4728,10 +4631,10 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
         <v>159</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -4745,10 +4648,10 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4762,10 +4665,10 @@
         <v>99</v>
       </c>
       <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
         <v>159</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -4779,10 +4682,10 @@
         <v>99</v>
       </c>
       <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -4796,10 +4699,10 @@
         <v>99</v>
       </c>
       <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -4814,10 +4717,10 @@
         <v>99</v>
       </c>
       <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
         <v>159</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E12" t="s">
         <v>136</v>
@@ -4832,10 +4735,10 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
         <v>159</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E13" t="s">
         <v>98</v>
@@ -4849,10 +4752,10 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
         <v>159</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -4866,10 +4769,10 @@
         <v>99</v>
       </c>
       <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
         <v>159</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -4883,10 +4786,10 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
         <v>159</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E16" t="s">
         <v>106</v>
@@ -4900,10 +4803,10 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
         <v>159</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E17" t="s">
         <v>105</v>
@@ -4917,10 +4820,10 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
         <v>159</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -4934,13 +4837,13 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4951,10 +4854,10 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
         <v>159</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -4968,10 +4871,10 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
         <v>159</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -4985,10 +4888,10 @@
         <v>99</v>
       </c>
       <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
         <v>159</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -5002,10 +4905,10 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
         <v>159</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -5019,10 +4922,10 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
         <v>159</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -5036,10 +4939,10 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
         <v>159</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -5053,10 +4956,10 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
         <v>159</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -5070,10 +4973,10 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" t="s">
         <v>159</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -5087,10 +4990,10 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E28" t="s">
         <v>108</v>
@@ -5105,10 +5008,10 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="s">
         <v>159</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E29" t="s">
         <v>92</v>
@@ -5122,10 +5025,10 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
         <v>159</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
@@ -5139,10 +5042,10 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
         <v>159</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E31" t="s">
         <v>109</v>
@@ -5156,10 +5059,10 @@
         <v>99</v>
       </c>
       <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
         <v>159</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -5173,10 +5076,10 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
         <v>159</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -5190,10 +5093,10 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
         <v>159</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
@@ -5207,10 +5110,10 @@
         <v>99</v>
       </c>
       <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
         <v>159</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
@@ -5222,10 +5125,10 @@
         <v>99</v>
       </c>
       <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
         <v>159</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
@@ -5239,10 +5142,10 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
         <v>159</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
@@ -5256,10 +5159,10 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
         <v>159</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
@@ -5273,10 +5176,10 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
         <v>159</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -5290,10 +5193,10 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
         <v>159</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E40" t="s">
         <v>31</v>
@@ -5307,10 +5210,10 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
         <v>159</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -5324,10 +5227,10 @@
         <v>99</v>
       </c>
       <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
         <v>159</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
@@ -5341,10 +5244,10 @@
         <v>99</v>
       </c>
       <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
         <v>159</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E43" t="s">
         <v>93</v>
@@ -5358,10 +5261,10 @@
         <v>99</v>
       </c>
       <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
         <v>159</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E44" t="s">
         <v>35</v>
@@ -5375,10 +5278,10 @@
         <v>99</v>
       </c>
       <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
         <v>159</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5392,10 +5295,10 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
         <v>159</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E46" t="s">
         <v>37</v>
@@ -5409,10 +5312,10 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
         <v>159</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E47" t="s">
         <v>94</v>
@@ -5426,10 +5329,10 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" t="s">
         <v>159</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E48" t="s">
         <v>91</v>
@@ -5443,13 +5346,13 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>164</v>
-      </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5460,10 +5363,10 @@
         <v>100</v>
       </c>
       <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
         <v>160</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -5477,10 +5380,10 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
         <v>160</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -5494,10 +5397,10 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" t="s">
         <v>160</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E52" t="s">
         <v>39</v>
@@ -5511,10 +5414,10 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
         <v>160</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
@@ -5528,10 +5431,10 @@
         <v>100</v>
       </c>
       <c r="C54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
         <v>160</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -5545,10 +5448,10 @@
         <v>100</v>
       </c>
       <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" t="s">
         <v>160</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
@@ -5562,10 +5465,10 @@
         <v>100</v>
       </c>
       <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
         <v>160</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
@@ -5579,10 +5482,10 @@
         <v>100</v>
       </c>
       <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
         <v>160</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E57" t="s">
         <v>44</v>
@@ -5596,10 +5499,10 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
         <v>160</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E58" t="s">
         <v>45</v>
@@ -5613,10 +5516,10 @@
         <v>100</v>
       </c>
       <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
         <v>160</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E59" t="s">
         <v>46</v>
@@ -5630,10 +5533,10 @@
         <v>100</v>
       </c>
       <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" t="s">
         <v>160</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E60" t="s">
         <v>47</v>
@@ -5647,10 +5550,10 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
         <v>160</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
@@ -5664,10 +5567,10 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" t="s">
         <v>160</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E62" t="s">
         <v>50</v>
@@ -5681,10 +5584,10 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
         <v>160</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E63" t="s">
         <v>51</v>
@@ -5698,10 +5601,10 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
         <v>160</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E64" t="s">
         <v>53</v>
@@ -5715,10 +5618,10 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
         <v>160</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="E65" t="s">
         <v>54</v>
@@ -5732,10 +5635,10 @@
         <v>99</v>
       </c>
       <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
         <v>159</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E66" t="s">
         <v>52</v>
@@ -5749,10 +5652,10 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
         <v>159</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E67" t="s">
         <v>137</v>
@@ -5766,10 +5669,10 @@
         <v>99</v>
       </c>
       <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
         <v>159</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E68" t="s">
         <v>72</v>
@@ -5783,10 +5686,10 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" t="s">
         <v>159</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E69" t="s">
         <v>110</v>
@@ -5800,10 +5703,10 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
         <v>159</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E70" t="s">
         <v>66</v>
@@ -5817,10 +5720,10 @@
         <v>99</v>
       </c>
       <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
         <v>159</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
@@ -5834,10 +5737,10 @@
         <v>99</v>
       </c>
       <c r="C72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" t="s">
         <v>159</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E72" t="s">
         <v>129</v>
@@ -5851,10 +5754,10 @@
         <v>99</v>
       </c>
       <c r="C73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" t="s">
         <v>159</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E73" t="s">
         <v>70</v>
@@ -5868,10 +5771,10 @@
         <v>99</v>
       </c>
       <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
         <v>159</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E74" t="s">
         <v>131</v>
@@ -5885,10 +5788,10 @@
         <v>99</v>
       </c>
       <c r="C75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" t="s">
         <v>159</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
@@ -5902,10 +5805,10 @@
         <v>99</v>
       </c>
       <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
         <v>159</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -5919,10 +5822,10 @@
         <v>99</v>
       </c>
       <c r="C77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" t="s">
         <v>159</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E77" t="s">
         <v>57</v>
@@ -5936,13 +5839,13 @@
         <v>101</v>
       </c>
       <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5953,10 +5856,10 @@
         <v>101</v>
       </c>
       <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" t="s">
         <v>161</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>130</v>
@@ -5970,10 +5873,10 @@
         <v>99</v>
       </c>
       <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" t="s">
         <v>159</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E80" t="s">
         <v>71</v>
@@ -5987,13 +5890,13 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6004,10 +5907,10 @@
         <v>101</v>
       </c>
       <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="s">
         <v>161</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E82" t="s">
         <v>103</v>
@@ -6021,10 +5924,10 @@
         <v>101</v>
       </c>
       <c r="C83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" t="s">
         <v>161</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E83" t="s">
         <v>123</v>
@@ -6038,10 +5941,10 @@
         <v>101</v>
       </c>
       <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" t="s">
         <v>161</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E84" t="s">
         <v>122</v>
@@ -6055,10 +5958,10 @@
         <v>101</v>
       </c>
       <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" t="s">
         <v>161</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E85" t="s">
         <v>113</v>
@@ -6072,10 +5975,10 @@
         <v>101</v>
       </c>
       <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
         <v>161</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E86" t="s">
         <v>121</v>
@@ -6089,10 +5992,10 @@
         <v>101</v>
       </c>
       <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" t="s">
         <v>161</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E87" t="s">
         <v>84</v>
@@ -6106,10 +6009,10 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" t="s">
         <v>161</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E88" t="s">
         <v>85</v>
@@ -6123,13 +6026,13 @@
         <v>101</v>
       </c>
       <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
         <v>161</v>
       </c>
-      <c r="D89" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6140,10 +6043,10 @@
         <v>101</v>
       </c>
       <c r="C90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90" t="s">
         <v>161</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E90" t="s">
         <v>134</v>
@@ -6157,13 +6060,13 @@
         <v>101</v>
       </c>
       <c r="C91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E91" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6174,10 +6077,10 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" t="s">
         <v>161</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E92" t="s">
         <v>128</v>
@@ -6191,10 +6094,10 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" t="s">
         <v>161</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E93" t="s">
         <v>55</v>
@@ -6208,10 +6111,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" t="s">
         <v>161</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E94" t="s">
         <v>58</v>
@@ -6226,10 +6129,10 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
         <v>161</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E95" t="s">
         <v>59</v>
@@ -6243,10 +6146,10 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" t="s">
         <v>161</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E96" t="s">
         <v>60</v>
@@ -6260,10 +6163,10 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" t="s">
         <v>161</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
@@ -6277,10 +6180,10 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98" t="s">
         <v>161</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E98" t="s">
         <v>61</v>
@@ -6294,10 +6197,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" t="s">
         <v>161</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E99" t="s">
         <v>62</v>
@@ -6311,10 +6214,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" t="s">
         <v>161</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E100" t="s">
         <v>63</v>
@@ -6328,10 +6231,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" t="s">
         <v>161</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E101" t="s">
         <v>64</v>
@@ -6345,10 +6248,10 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" t="s">
         <v>161</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E102" t="s">
         <v>67</v>
@@ -6362,10 +6265,10 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" t="s">
         <v>161</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E103" t="s">
         <v>68</v>
@@ -6379,10 +6282,10 @@
         <v>101</v>
       </c>
       <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" t="s">
         <v>161</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E104" t="s">
         <v>75</v>
@@ -6396,10 +6299,10 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" t="s">
         <v>161</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E105" t="s">
         <v>76</v>
@@ -6413,10 +6316,10 @@
         <v>101</v>
       </c>
       <c r="C106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" t="s">
         <v>161</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E106" t="s">
         <v>77</v>
@@ -6430,10 +6333,10 @@
         <v>101</v>
       </c>
       <c r="C107" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" t="s">
         <v>161</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E107" t="s">
         <v>78</v>
@@ -6447,10 +6350,10 @@
         <v>101</v>
       </c>
       <c r="C108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" t="s">
         <v>161</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E108" t="s">
         <v>79</v>
@@ -6464,10 +6367,10 @@
         <v>101</v>
       </c>
       <c r="C109" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" t="s">
         <v>161</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E109" t="s">
         <v>80</v>
@@ -6481,10 +6384,10 @@
         <v>101</v>
       </c>
       <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" t="s">
         <v>161</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E110" t="s">
         <v>81</v>
@@ -6498,10 +6401,10 @@
         <v>101</v>
       </c>
       <c r="C111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" t="s">
         <v>161</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E111" t="s">
         <v>82</v>
@@ -6515,10 +6418,10 @@
         <v>101</v>
       </c>
       <c r="C112" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" t="s">
         <v>161</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E112" t="s">
         <v>83</v>
@@ -6532,10 +6435,10 @@
         <v>101</v>
       </c>
       <c r="C113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" t="s">
         <v>161</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E113" t="s">
         <v>85</v>
@@ -6549,10 +6452,10 @@
         <v>101</v>
       </c>
       <c r="C114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" t="s">
         <v>161</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E114" t="s">
         <v>86</v>
@@ -6566,10 +6469,10 @@
         <v>101</v>
       </c>
       <c r="C115" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" t="s">
         <v>161</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E115" t="s">
         <v>87</v>
@@ -6583,10 +6486,10 @@
         <v>101</v>
       </c>
       <c r="C116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" t="s">
         <v>161</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E116" t="s">
         <v>95</v>
@@ -6600,10 +6503,10 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" t="s">
         <v>162</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="E117" t="s">
         <v>135</v>
@@ -6617,10 +6520,10 @@
         <v>126</v>
       </c>
       <c r="C118" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" t="s">
         <v>162</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="E118" t="s">
         <v>104</v>
@@ -6634,10 +6537,10 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" t="s">
         <v>162</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="E119" t="s">
         <v>107</v>
@@ -6651,10 +6554,10 @@
         <v>126</v>
       </c>
       <c r="C120" t="s">
+        <v>158</v>
+      </c>
+      <c r="D120" t="s">
         <v>162</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="E120" t="s">
         <v>112</v>
@@ -6668,10 +6571,10 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" t="s">
         <v>162</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="E121" t="s">
         <v>111</v>
@@ -6685,13 +6588,13 @@
         <v>101</v>
       </c>
       <c r="C122" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" t="s">
         <v>161</v>
       </c>
-      <c r="D122" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E122" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6702,13 +6605,13 @@
         <v>101</v>
       </c>
       <c r="C123" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123" t="s">
         <v>161</v>
       </c>
-      <c r="D123" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -6719,13 +6622,13 @@
         <v>101</v>
       </c>
       <c r="C124" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124" t="s">
         <v>161</v>
       </c>
-      <c r="D124" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E124" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6736,13 +6639,13 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
+        <v>157</v>
+      </c>
+      <c r="D125" t="s">
         <v>161</v>
       </c>
-      <c r="D125" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E125" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6753,13 +6656,13 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" t="s">
         <v>161</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E126" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G126" s="3"/>
     </row>
@@ -6771,10 +6674,10 @@
         <v>99</v>
       </c>
       <c r="C127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D127" t="s">
         <v>159</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="E127" t="s">
         <v>49</v>
@@ -6792,10 +6695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,24 +6708,18 @@
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -6830,16 +6727,10 @@
         <v>-1002105211537</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="7">
-        <v>-1002194870823</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -6847,16 +6738,10 @@
         <v>-1001957612350</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="7">
-        <v>-1002461593090</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -6864,16 +6749,10 @@
         <v>-1002018254333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-1002427940985</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -6881,17 +6760,10 @@
         <v>-1002018254333</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="6">
-        <v>-1002251083617</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -6899,18 +6771,11 @@
         <v>-1002156412551</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-1002297812775</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -6918,16 +6783,10 @@
         <v>-1002197383783</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="6">
-        <v>-1002475543778</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -6935,120 +6794,97 @@
         <v>-1002221930423</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-1002359449640</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" s="14">
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" s="14">
         <v>-1002378514893</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B11" s="14">
         <v>-1002407233853</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B12" s="14">
         <v>-1002248753359</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="14">
+        <v>-1002148324453</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="18">
-        <v>-1002148324453</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="18">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="14">
         <v>-1002170091825</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="18">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="14">
         <v>-1002177242150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="18">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="14">
         <v>-1002242675024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="16"/>
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7058,4 +6894,75 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8322463-DDB4-408E-9911-272820B4360D}">
+  <dimension ref="B19:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>-1002194870823</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <v>-1002461593090</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
+        <v>-1002427940985</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>-1002251083617</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
+        <v>-1002297812775</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>-1002475543778</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>-1002359449640</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F8305AE-FEEC-46C2-8815-8B91F612AAA5}"/>
+  <xr:revisionPtr revIDLastSave="773" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73E3B5BA-3E55-4957-8844-94392F834F75}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1335" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="12285" yWindow="1215" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="173">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -543,6 +543,21 @@
   </si>
   <si>
     <t>Suca</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\ADM.png</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\Lyon.png</t>
+  </si>
+  <si>
+    <t>Nacionales</t>
+  </si>
+  <si>
+    <t>nacionales</t>
+  </si>
+  <si>
+    <t>nacionales ADM</t>
   </si>
 </sst>
 </file>
@@ -596,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -652,21 +667,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -681,16 +687,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -708,6 +756,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -776,41 +838,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -827,20 +854,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,16 +873,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="0" dataCellStyle="Porcentaje">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
   <autoFilter ref="A1:G134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="3" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,7 +892,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E127" totalsRowShown="0">
   <autoFilter ref="A1:E127" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
@@ -894,8 +907,8 @@
   <autoFilter ref="A1:C16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4508,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,7 +4556,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>155</v>
@@ -4560,7 +4573,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
@@ -4577,7 +4590,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>155</v>
@@ -4594,7 +4607,7 @@
         <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>155</v>
@@ -4611,7 +4624,7 @@
         <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>155</v>
@@ -4628,7 +4641,7 @@
         <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
         <v>155</v>
@@ -4645,7 +4658,7 @@
         <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>155</v>
@@ -4662,7 +4675,7 @@
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>155</v>
@@ -4679,7 +4692,7 @@
         <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>155</v>
@@ -4696,7 +4709,7 @@
         <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>155</v>
@@ -4714,7 +4727,7 @@
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
         <v>155</v>
@@ -4732,7 +4745,7 @@
         <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -4749,7 +4762,7 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
         <v>155</v>
@@ -4766,7 +4779,7 @@
         <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>155</v>
@@ -4783,7 +4796,7 @@
         <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>155</v>
@@ -4800,7 +4813,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>155</v>
@@ -4817,7 +4830,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>155</v>
@@ -4834,7 +4847,7 @@
         <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>155</v>
@@ -4851,7 +4864,7 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
         <v>155</v>
@@ -4868,7 +4881,7 @@
         <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
         <v>155</v>
@@ -4885,7 +4898,7 @@
         <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
         <v>155</v>
@@ -4902,7 +4915,7 @@
         <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
         <v>155</v>
@@ -4919,7 +4932,7 @@
         <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
         <v>155</v>
@@ -4936,7 +4949,7 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
         <v>155</v>
@@ -4953,7 +4966,7 @@
         <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
         <v>155</v>
@@ -4970,7 +4983,7 @@
         <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
         <v>155</v>
@@ -4987,7 +5000,7 @@
         <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
         <v>155</v>
@@ -5005,7 +5018,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
         <v>155</v>
@@ -5022,7 +5035,7 @@
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
         <v>155</v>
@@ -5039,7 +5052,7 @@
         <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
         <v>155</v>
@@ -5056,7 +5069,7 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
         <v>155</v>
@@ -5073,7 +5086,7 @@
         <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
         <v>155</v>
@@ -5090,7 +5103,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
         <v>155</v>
@@ -5107,7 +5120,7 @@
         <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
         <v>155</v>
@@ -5122,7 +5135,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
         <v>155</v>
@@ -5139,7 +5152,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
         <v>155</v>
@@ -5156,7 +5169,7 @@
         <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
         <v>155</v>
@@ -5173,7 +5186,7 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
         <v>155</v>
@@ -5190,7 +5203,7 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
         <v>155</v>
@@ -5207,7 +5220,7 @@
         <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
         <v>155</v>
@@ -5224,7 +5237,7 @@
         <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
         <v>155</v>
@@ -5241,7 +5254,7 @@
         <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
         <v>155</v>
@@ -5258,7 +5271,7 @@
         <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
         <v>155</v>
@@ -5275,7 +5288,7 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
         <v>155</v>
@@ -5292,7 +5305,7 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
         <v>155</v>
@@ -5309,7 +5322,7 @@
         <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
         <v>155</v>
@@ -5326,7 +5339,7 @@
         <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
         <v>155</v>
@@ -6698,7 +6711,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6721,7 +6734,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B2" s="7">
         <v>-1002105211537</v>
@@ -6734,7 +6747,7 @@
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>-1001957612350</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -6745,7 +6758,7 @@
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>-1002018254333</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -6779,7 +6792,7 @@
       <c r="A7" t="s">
         <v>132</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>-1002197383783</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -6790,7 +6803,7 @@
       <c r="A8" t="s">
         <v>133</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>-1002221930423</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -6800,9 +6813,9 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="14">
+        <v>172</v>
+      </c>
+      <c r="B9" s="6">
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6813,7 +6826,7 @@
       <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="7">
         <v>-1002378514893</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -6824,7 +6837,7 @@
       <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="6">
         <v>-1002407233853</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -6835,7 +6848,7 @@
       <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="7">
         <v>-1002248753359</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -6846,7 +6859,7 @@
       <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="6">
         <v>-1002148324453</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -6857,7 +6870,7 @@
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="7">
         <v>-1002170091825</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -6868,7 +6881,7 @@
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="6">
         <v>-1002177242150</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -6879,7 +6892,7 @@
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="7">
         <v>-1002242675024</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -6898,68 +6911,132 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8322463-DDB4-408E-9911-272820B4360D}">
-  <dimension ref="B19:C25"/>
+  <dimension ref="A18:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>-1002194870823</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
-        <v>-1002461593090</v>
-      </c>
-      <c r="C20" s="15" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>-1002194870823</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
-        <v>-1002427940985</v>
-      </c>
-      <c r="C21" s="15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>-1002194870823</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>-1002194870823</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>-1002297812775</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>-1002297812775</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>-1002297812775</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>-1002390345649</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>-1002390345649</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>-1002390345649</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>-1002390345649</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>-1002251083617</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
-        <v>-1002297812775</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>-1002475543778</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
-        <v>-1002359449640</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>142</v>
+      <c r="B29" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>-1002251083617</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>-1002251083617</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>-1002251083617</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="773" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73E3B5BA-3E55-4957-8844-94392F834F75}"/>
+  <xr:revisionPtr revIDLastSave="783" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87043069-D93E-4B83-BB00-D138B5C4C10E}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="1215" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="12285" yWindow="1215" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -494,15 +494,9 @@
     <t>Ex Teenista Profesional</t>
   </si>
   <si>
-    <t>Oro VIP</t>
-  </si>
-  <si>
     <t>Doctor apuesta</t>
   </si>
   <si>
-    <t>DaniPicks stakes</t>
-  </si>
-  <si>
     <t>Main Play</t>
   </si>
   <si>
@@ -558,6 +552,12 @@
   </si>
   <si>
     <t>nacionales ADM</t>
+  </si>
+  <si>
+    <t>OroVIP</t>
+  </si>
+  <si>
+    <t>DaniStakes</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -687,9 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B65" s="1">
         <v>10000</v>
@@ -3360,7 +3357,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B108" s="1">
         <v>10000</v>
@@ -3841,7 +3838,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
@@ -3862,7 +3859,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
@@ -4521,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B48"/>
+    <sheetView topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4542,10 +4539,10 @@
         <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -4556,13 +4553,13 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
@@ -4573,13 +4570,13 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
         <v>125</v>
@@ -4590,13 +4587,13 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -4607,13 +4604,13 @@
         <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -4624,13 +4621,13 @@
         <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
         <v>124</v>
@@ -4641,13 +4638,13 @@
         <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -4658,13 +4655,13 @@
         <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4675,13 +4672,13 @@
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -4692,13 +4689,13 @@
         <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -4709,13 +4706,13 @@
         <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -4727,13 +4724,13 @@
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
         <v>136</v>
@@ -4745,13 +4742,13 @@
         <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
         <v>98</v>
@@ -4762,13 +4759,13 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -4779,13 +4776,13 @@
         <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -4796,13 +4793,13 @@
         <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
         <v>106</v>
@@ -4813,13 +4810,13 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
         <v>105</v>
@@ -4830,13 +4827,13 @@
         <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -4847,16 +4844,16 @@
         <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,13 +4861,13 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -4881,13 +4878,13 @@
         <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -4898,13 +4895,13 @@
         <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -4915,13 +4912,13 @@
         <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -4932,13 +4929,13 @@
         <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -4949,13 +4946,13 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -4966,13 +4963,13 @@
         <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -4983,13 +4980,13 @@
         <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -5000,13 +4997,13 @@
         <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
         <v>108</v>
@@ -5018,13 +5015,13 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
         <v>92</v>
@@ -5035,13 +5032,13 @@
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
@@ -5052,13 +5049,13 @@
         <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
         <v>109</v>
@@ -5069,13 +5066,13 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -5086,13 +5083,13 @@
         <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -5103,13 +5100,13 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
@@ -5120,13 +5117,13 @@
         <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
@@ -5135,13 +5132,13 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
@@ -5152,13 +5149,13 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
@@ -5169,13 +5166,13 @@
         <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
@@ -5186,13 +5183,13 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -5203,13 +5200,13 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
         <v>31</v>
@@ -5220,13 +5217,13 @@
         <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -5237,13 +5234,13 @@
         <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
@@ -5254,13 +5251,13 @@
         <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
         <v>93</v>
@@ -5271,13 +5268,13 @@
         <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
         <v>35</v>
@@ -5288,13 +5285,13 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5305,13 +5302,13 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
         <v>37</v>
@@ -5322,13 +5319,13 @@
         <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
         <v>94</v>
@@ -5339,13 +5336,13 @@
         <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
         <v>91</v>
@@ -5359,13 +5356,13 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5376,10 +5373,10 @@
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -5393,10 +5390,10 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -5410,10 +5407,10 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
         <v>39</v>
@@ -5427,10 +5424,10 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
@@ -5444,10 +5441,10 @@
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -5461,10 +5458,10 @@
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
@@ -5478,10 +5475,10 @@
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
@@ -5495,10 +5492,10 @@
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
         <v>44</v>
@@ -5512,10 +5509,10 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
         <v>45</v>
@@ -5529,10 +5526,10 @@
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
         <v>46</v>
@@ -5546,10 +5543,10 @@
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
         <v>47</v>
@@ -5563,10 +5560,10 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
@@ -5580,10 +5577,10 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
         <v>50</v>
@@ -5597,10 +5594,10 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
         <v>51</v>
@@ -5614,10 +5611,10 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
         <v>53</v>
@@ -5631,10 +5628,10 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
         <v>54</v>
@@ -5648,10 +5645,10 @@
         <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
         <v>52</v>
@@ -5665,10 +5662,10 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
         <v>137</v>
@@ -5682,10 +5679,10 @@
         <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
         <v>72</v>
@@ -5699,10 +5696,10 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E69" t="s">
         <v>110</v>
@@ -5716,10 +5713,10 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
         <v>66</v>
@@ -5733,10 +5730,10 @@
         <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
@@ -5750,10 +5747,10 @@
         <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E72" t="s">
         <v>129</v>
@@ -5767,10 +5764,10 @@
         <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
         <v>70</v>
@@ -5784,10 +5781,10 @@
         <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
         <v>131</v>
@@ -5801,10 +5798,10 @@
         <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
@@ -5818,10 +5815,10 @@
         <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -5835,10 +5832,10 @@
         <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
         <v>57</v>
@@ -5852,10 +5849,10 @@
         <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
         <v>144</v>
@@ -5869,10 +5866,10 @@
         <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>130</v>
@@ -5886,10 +5883,10 @@
         <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s">
         <v>71</v>
@@ -5903,10 +5900,10 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
         <v>145</v>
@@ -5920,10 +5917,10 @@
         <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
         <v>103</v>
@@ -5937,10 +5934,10 @@
         <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
         <v>123</v>
@@ -5954,10 +5951,10 @@
         <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
         <v>122</v>
@@ -5971,10 +5968,10 @@
         <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
         <v>113</v>
@@ -5988,10 +5985,10 @@
         <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
         <v>121</v>
@@ -6005,10 +6002,10 @@
         <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
         <v>84</v>
@@ -6022,10 +6019,10 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E88" t="s">
         <v>85</v>
@@ -6039,13 +6036,13 @@
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6056,10 +6053,10 @@
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
         <v>134</v>
@@ -6073,13 +6070,13 @@
         <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6090,10 +6087,10 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
         <v>128</v>
@@ -6107,10 +6104,10 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E93" t="s">
         <v>55</v>
@@ -6124,10 +6121,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E94" t="s">
         <v>58</v>
@@ -6142,10 +6139,10 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E95" t="s">
         <v>59</v>
@@ -6159,10 +6156,10 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
         <v>60</v>
@@ -6176,10 +6173,10 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
@@ -6193,10 +6190,10 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E98" t="s">
         <v>61</v>
@@ -6210,10 +6207,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E99" t="s">
         <v>62</v>
@@ -6227,10 +6224,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E100" t="s">
         <v>63</v>
@@ -6244,10 +6241,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E101" t="s">
         <v>64</v>
@@ -6261,10 +6258,10 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E102" t="s">
         <v>67</v>
@@ -6278,10 +6275,10 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
         <v>68</v>
@@ -6295,10 +6292,10 @@
         <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E104" t="s">
         <v>75</v>
@@ -6312,10 +6309,10 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E105" t="s">
         <v>76</v>
@@ -6329,10 +6326,10 @@
         <v>101</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E106" t="s">
         <v>77</v>
@@ -6346,10 +6343,10 @@
         <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E107" t="s">
         <v>78</v>
@@ -6363,10 +6360,10 @@
         <v>101</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D108" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E108" t="s">
         <v>79</v>
@@ -6380,10 +6377,10 @@
         <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E109" t="s">
         <v>80</v>
@@ -6397,10 +6394,10 @@
         <v>101</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
         <v>81</v>
@@ -6414,10 +6411,10 @@
         <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E111" t="s">
         <v>82</v>
@@ -6431,10 +6428,10 @@
         <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E112" t="s">
         <v>83</v>
@@ -6448,10 +6445,10 @@
         <v>101</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E113" t="s">
         <v>85</v>
@@ -6465,10 +6462,10 @@
         <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E114" t="s">
         <v>86</v>
@@ -6482,10 +6479,10 @@
         <v>101</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E115" t="s">
         <v>87</v>
@@ -6499,10 +6496,10 @@
         <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D116" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E116" t="s">
         <v>95</v>
@@ -6516,10 +6513,10 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E117" t="s">
         <v>135</v>
@@ -6533,10 +6530,10 @@
         <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E118" t="s">
         <v>104</v>
@@ -6550,10 +6547,10 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E119" t="s">
         <v>107</v>
@@ -6567,10 +6564,10 @@
         <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E120" t="s">
         <v>112</v>
@@ -6584,10 +6581,10 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E121" t="s">
         <v>111</v>
@@ -6601,10 +6598,10 @@
         <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
         <v>147</v>
@@ -6618,10 +6615,10 @@
         <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D123" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E123" t="s">
         <v>145</v>
@@ -6635,10 +6632,10 @@
         <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E124" t="s">
         <v>149</v>
@@ -6652,10 +6649,10 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D125" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E125" t="s">
         <v>150</v>
@@ -6669,13 +6666,13 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E126" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G126" s="3"/>
     </row>
@@ -6687,10 +6684,10 @@
         <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D127" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E127" t="s">
         <v>49</v>
@@ -6710,8 +6707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,7 +6731,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="7">
         <v>-1002105211537</v>
@@ -6813,90 +6810,90 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9" s="6">
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="7">
         <v>-1002378514893</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="6">
         <v>-1002407233853</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="7">
         <v>-1002248753359</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="6">
-        <v>-1002148324453</v>
+        <v>-1002170091825</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="7">
-        <v>-1002170091825</v>
+        <v>-1002177242150</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-1002148324453</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B15" s="6">
-        <v>-1002177242150</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" s="7">
         <v>-1002242675024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6920,123 +6917,123 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="7">
         <v>-1002194870823</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="7">
         <v>-1002194870823</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="7">
         <v>-1002194870823</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="7">
         <v>-1002194870823</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="7">
         <v>-1002297812775</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="7">
         <v>-1002297812775</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="7">
         <v>-1002297812775</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="6">
         <v>-1002390345649</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>168</v>
+      <c r="B25" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="7">
         <v>-1002390345649</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>168</v>
+      <c r="B26" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="6">
         <v>-1002390345649</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>168</v>
+      <c r="B27" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="7">
         <v>-1002390345649</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>168</v>
+      <c r="B28" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="6">
         <v>-1002251083617</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>169</v>
+      <c r="B29" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="7">
         <v>-1002251083617</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>169</v>
+      <c r="B30" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="6">
         <v>-1002251083617</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>169</v>
+      <c r="B31" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="7">
         <v>-1002251083617</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>169</v>
+      <c r="B32" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="783" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87043069-D93E-4B83-BB00-D138B5C4C10E}"/>
+  <xr:revisionPtr revIDLastSave="793" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8E2722-2C65-427B-B2E3-DB59FEAAC7D8}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="1215" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="176">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -558,6 +558,15 @@
   </si>
   <si>
     <t>DaniStakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La suca </t>
+  </si>
+  <si>
+    <t>Oro VIP</t>
+  </si>
+  <si>
+    <t>DaniPicks stakes</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -687,12 +696,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -768,90 +862,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -870,26 +880,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="0" dataCellStyle="Porcentaje">
   <autoFilter ref="A1:G134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="1" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E127" totalsRowShown="0">
-  <autoFilter ref="A1:E127" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E128" totalsRowShown="0">
+  <autoFilter ref="A1:E128" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
@@ -904,8 +914,8 @@
   <autoFilter ref="A1:C16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1230,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:G72"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1291,9 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,13 +1321,16 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,13 +1344,13 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,16 +1428,16 @@
         <v>10000</v>
       </c>
       <c r="C9" s="1">
-        <v>7380</v>
+        <v>8660</v>
       </c>
       <c r="D9" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,16 +1448,16 @@
         <v>10000</v>
       </c>
       <c r="C10" s="1">
-        <v>7830</v>
+        <v>7030</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,13 +1468,13 @@
         <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>8418</v>
+        <v>8138</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
         <v>38</v>
@@ -1476,16 +1491,16 @@
         <v>9430</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,16 +1511,16 @@
         <v>10000</v>
       </c>
       <c r="C13" s="1">
-        <v>7447</v>
+        <v>8647</v>
       </c>
       <c r="D13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
       </c>
       <c r="F13" s="10">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,16 +1545,16 @@
         <v>10000</v>
       </c>
       <c r="C15" s="1">
-        <v>7577</v>
+        <v>7411</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1606,16 +1621,19 @@
         <v>10000</v>
       </c>
       <c r="C19" s="1">
-        <v>7924</v>
+        <v>8464</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2">
         <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1684,13 +1702,13 @@
         <v>10000</v>
       </c>
       <c r="C23" s="1">
-        <v>19055</v>
+        <v>17833</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2">
         <v>63</v>
@@ -1754,19 +1772,16 @@
         <v>10000</v>
       </c>
       <c r="C27" s="1">
-        <v>23231</v>
+        <v>19531</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2">
-        <v>56</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1797,16 +1812,16 @@
         <v>10000</v>
       </c>
       <c r="C29" s="1">
-        <v>10250</v>
+        <v>9290</v>
       </c>
       <c r="D29" s="2">
         <v>12</v>
       </c>
       <c r="E29" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,19 +1832,19 @@
         <v>10000</v>
       </c>
       <c r="C30" s="1">
-        <v>10557</v>
+        <v>10651</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2">
         <v>61</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,13 +1872,13 @@
         <v>9320</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,16 +1935,19 @@
         <v>10000</v>
       </c>
       <c r="C35" s="1">
-        <v>8224</v>
+        <v>9994</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E35" s="2">
         <v>23</v>
       </c>
       <c r="F35" s="2">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,16 +2031,16 @@
         <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>10822</v>
+        <v>10667</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,16 +2054,16 @@
         <v>11628</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E41" s="2">
         <v>16</v>
       </c>
       <c r="F41" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2109,16 +2127,19 @@
         <v>10000</v>
       </c>
       <c r="C45" s="1">
-        <v>21240</v>
+        <v>22860</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2">
         <v>7</v>
       </c>
       <c r="F45" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2191,16 +2212,16 @@
         <v>10000</v>
       </c>
       <c r="C50" s="1">
-        <v>10205</v>
+        <v>9954</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,13 +2252,13 @@
         <v>10000</v>
       </c>
       <c r="C52" s="1">
-        <v>9526</v>
+        <v>9226</v>
       </c>
       <c r="D52" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2">
         <v>55</v>
@@ -2285,15 +2306,11 @@
       <c r="C55" s="1">
         <v>7000</v>
       </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2">
         <v>3</v>
       </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
+      <c r="F55" s="2"/>
       <c r="G55">
         <v>1</v>
       </c>
@@ -2306,16 +2323,16 @@
         <v>10000</v>
       </c>
       <c r="C56" s="1">
-        <v>12317</v>
+        <v>14137</v>
       </c>
       <c r="D56" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E56" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2326,19 +2343,16 @@
         <v>10000</v>
       </c>
       <c r="C57" s="1">
-        <v>14574</v>
+        <v>14424</v>
       </c>
       <c r="D57" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E57" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="2">
-        <v>71</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2349,13 +2363,13 @@
         <v>10000</v>
       </c>
       <c r="C58" s="1">
-        <v>11536</v>
+        <v>11654</v>
       </c>
       <c r="D58" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E58" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F58" s="2">
         <v>69</v>
@@ -2375,13 +2389,10 @@
         <v>29</v>
       </c>
       <c r="E59" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F59" s="2">
-        <v>48</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2407,16 +2418,16 @@
         <v>10000</v>
       </c>
       <c r="C61" s="1">
-        <v>9615</v>
+        <v>10005</v>
       </c>
       <c r="D61" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2427,16 +2438,16 @@
         <v>10000</v>
       </c>
       <c r="C62" s="1">
-        <v>7638</v>
+        <v>7388</v>
       </c>
       <c r="D62" s="2">
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F62" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,18 +2478,20 @@
         <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>10144</v>
+        <v>11016</v>
       </c>
       <c r="D64" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E64" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F64" s="2">
-        <v>48</v>
-      </c>
-      <c r="G64" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2488,16 +2501,19 @@
         <v>10000</v>
       </c>
       <c r="C65" s="1">
-        <v>7090</v>
+        <v>7750</v>
       </c>
       <c r="D65" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65" s="2">
         <v>9</v>
       </c>
       <c r="F65" s="2">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,13 +2524,13 @@
         <v>10000</v>
       </c>
       <c r="C66" s="1">
-        <v>8932</v>
+        <v>8941</v>
       </c>
       <c r="D66" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E66" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2">
         <v>54</v>
@@ -2548,16 +2564,16 @@
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>12714</v>
+        <v>11514</v>
       </c>
       <c r="D68" s="2">
         <v>34</v>
       </c>
       <c r="E68" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F68" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,16 +2639,16 @@
         <v>10000</v>
       </c>
       <c r="C72" s="1">
-        <v>6300</v>
+        <v>7710</v>
       </c>
       <c r="D72" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E72" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F72" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2663,19 +2679,16 @@
         <v>10000</v>
       </c>
       <c r="C74" s="1">
-        <v>10790</v>
+        <v>10561</v>
       </c>
       <c r="D74" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E74" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F74" s="2">
-        <v>64</v>
-      </c>
-      <c r="G74">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2706,19 +2719,16 @@
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>9280</v>
+        <v>89980</v>
       </c>
       <c r="D76" s="2">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2">
         <v>8</v>
-      </c>
-      <c r="E76" s="2">
-        <v>7</v>
       </c>
       <c r="F76" s="2">
         <v>53</v>
-      </c>
-      <c r="G76">
-        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,16 +2739,19 @@
         <v>10000</v>
       </c>
       <c r="C77" s="1">
-        <v>8285</v>
+        <v>8425</v>
       </c>
       <c r="D77" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E77" s="2">
         <v>30</v>
       </c>
       <c r="F77" s="2">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2749,16 +2762,16 @@
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>6048</v>
+        <v>6151</v>
       </c>
       <c r="D78" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E78" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,19 +2868,16 @@
         <v>10000</v>
       </c>
       <c r="C83" s="1">
-        <v>11010</v>
+        <v>10623</v>
       </c>
       <c r="D83" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E83" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2">
-        <v>66</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2878,16 +2888,19 @@
         <v>10000</v>
       </c>
       <c r="C84" s="1">
-        <v>10833</v>
+        <v>12107</v>
       </c>
       <c r="D84" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" s="2">
         <v>9</v>
       </c>
       <c r="F84" s="2">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,16 +3026,19 @@
         <v>10000</v>
       </c>
       <c r="C91" s="1">
-        <v>26450</v>
+        <v>30600</v>
       </c>
       <c r="D91" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E91" s="2">
         <v>8</v>
       </c>
       <c r="F91" s="2">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,13 +3172,13 @@
         <v>10000</v>
       </c>
       <c r="C98" s="1">
-        <v>9260</v>
+        <v>9050</v>
       </c>
       <c r="D98" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E98" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F98" s="2">
         <v>50</v>
@@ -3179,13 +3195,16 @@
         <v>10778</v>
       </c>
       <c r="D99" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E99" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F99" s="2">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3196,16 +3215,16 @@
         <v>10000</v>
       </c>
       <c r="C100" s="1">
-        <v>10039</v>
+        <v>9114</v>
       </c>
       <c r="D100" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E100" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F100" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3216,16 +3235,16 @@
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>9210</v>
+        <v>9300</v>
       </c>
       <c r="D101" s="2">
+        <v>12</v>
+      </c>
+      <c r="E101" s="2">
         <v>9</v>
       </c>
-      <c r="E101" s="2">
-        <v>8</v>
-      </c>
       <c r="F101" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3236,16 +3255,16 @@
         <v>10000</v>
       </c>
       <c r="C102" s="1">
-        <v>9360</v>
+        <v>8360</v>
       </c>
       <c r="D102" s="2">
         <v>2</v>
       </c>
       <c r="E102" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3256,19 +3275,19 @@
         <v>10000</v>
       </c>
       <c r="C103" s="1">
-        <v>11315</v>
+        <v>11870</v>
       </c>
       <c r="D103" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E103" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F103" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H103" s="3"/>
     </row>
@@ -3326,10 +3345,10 @@
         <v>8103</v>
       </c>
       <c r="D106" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F106" s="2">
         <v>43</v>
@@ -3357,22 +3376,22 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B108" s="1">
         <v>10000</v>
       </c>
       <c r="C108" s="1">
-        <v>6150</v>
+        <v>5150</v>
       </c>
       <c r="D108" s="2">
         <v>5</v>
       </c>
       <c r="E108" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F108" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3425,16 +3444,16 @@
         <v>10000</v>
       </c>
       <c r="C112" s="1">
-        <v>8940</v>
+        <v>9770</v>
       </c>
       <c r="D112" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E112" s="2">
         <v>4</v>
       </c>
       <c r="F112" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3479,16 +3498,16 @@
         <v>10000</v>
       </c>
       <c r="C115" s="1">
-        <v>9780</v>
+        <v>9280</v>
       </c>
       <c r="D115" s="2">
         <v>4</v>
       </c>
       <c r="E115" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,10 +3518,10 @@
         <v>10000</v>
       </c>
       <c r="C116" s="1">
-        <v>9040</v>
+        <v>9970</v>
       </c>
       <c r="D116" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116" s="2">
         <v>9</v>
@@ -3522,19 +3541,19 @@
         <v>10000</v>
       </c>
       <c r="C117" s="1">
-        <v>7860</v>
+        <v>9380</v>
       </c>
       <c r="D117" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E117" s="2">
         <v>6</v>
       </c>
       <c r="F117" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3838,7 +3857,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
@@ -3859,19 +3878,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
       </c>
       <c r="C134" s="1">
-        <v>9890</v>
+        <v>10740</v>
       </c>
       <c r="D134" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F134" s="2">
         <v>50</v>
@@ -4516,10 +4535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,6 +6712,23 @@
         <v>49</v>
       </c>
     </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6707,7 +6743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="793" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8E2722-2C65-427B-B2E3-DB59FEAAC7D8}"/>
+  <xr:revisionPtr revIDLastSave="808" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2012D4E-66CD-4F4B-8EAA-8E783B087B86}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="178">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -368,205 +368,211 @@
     <t>LMB pirrupicks</t>
   </si>
   <si>
+    <t>El profe VIP</t>
+  </si>
+  <si>
+    <t>bombas gallitovip</t>
+  </si>
+  <si>
+    <t>Parlays Exoticos gallitovip</t>
+  </si>
+  <si>
+    <t>Asegurado mera fiera</t>
+  </si>
+  <si>
+    <t>Cristian rey mensual</t>
+  </si>
+  <si>
+    <t>Marco Rey APP</t>
+  </si>
+  <si>
+    <t>Anual cristian rey</t>
+  </si>
+  <si>
+    <t>Cristian Rey APP</t>
+  </si>
+  <si>
+    <t>Consejo Abuelo APP</t>
+  </si>
+  <si>
+    <t>Oscar Rey APP</t>
+  </si>
+  <si>
+    <t>Roberto Rey APP</t>
+  </si>
+  <si>
+    <t>Garantizado los picks del gordo</t>
+  </si>
+  <si>
+    <t>Garantizado iluminati</t>
+  </si>
+  <si>
+    <t>hugo wx garantizado</t>
+  </si>
+  <si>
+    <t>chapito NFL</t>
+  </si>
+  <si>
+    <t>NFL Stats</t>
+  </si>
+  <si>
+    <t>Retos Escalera y soñadores</t>
+  </si>
+  <si>
+    <t>Premium master</t>
+  </si>
+  <si>
+    <t>el profe stakes</t>
+  </si>
+  <si>
+    <t>Winner Apuestas</t>
+  </si>
+  <si>
+    <t>Sports peru</t>
+  </si>
+  <si>
+    <t>Cabezas premium</t>
+  </si>
+  <si>
+    <t>Stakes 10 y garantizados master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retos Escalera y parlays master </t>
+  </si>
+  <si>
+    <t>KinPicks</t>
+  </si>
+  <si>
+    <t>FrostyParlays</t>
+  </si>
+  <si>
+    <t>FrostyEsports</t>
+  </si>
+  <si>
+    <t>DaniPicks</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\el de los picks.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\master.png</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\master.png</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\el de los picks.png</t>
+  </si>
+  <si>
+    <t>Ruben Picks</t>
+  </si>
+  <si>
+    <t>Verdeando Club</t>
+  </si>
+  <si>
+    <t>Doctor Apuesta</t>
+  </si>
+  <si>
+    <t>I. A. Bet</t>
+  </si>
+  <si>
+    <t>P. PR. T.S. Apuestas</t>
+  </si>
+  <si>
+    <t>Stakazo Oro Verde</t>
+  </si>
+  <si>
+    <t>Ex Teenista Profesional</t>
+  </si>
+  <si>
+    <t>Doctor apuesta</t>
+  </si>
+  <si>
+    <t>Main Play</t>
+  </si>
+  <si>
+    <t>Nacionales ADM</t>
+  </si>
+  <si>
+    <t>Americanos ADM</t>
+  </si>
+  <si>
+    <t>Stakes 10 y garantizados ADM</t>
+  </si>
+  <si>
+    <t>Retos Escalera y soñadores ADM</t>
+  </si>
+  <si>
+    <t>Nacionales Lyon</t>
+  </si>
+  <si>
+    <t>Americanos Lyon</t>
+  </si>
+  <si>
+    <t>Stakes 10 y garatizados Lyon</t>
+  </si>
+  <si>
+    <t>Retso escalera y soñadores Lyon</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\Lyon.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\ADM.png</t>
+  </si>
+  <si>
+    <t>Grupo 3</t>
+  </si>
+  <si>
+    <t>Grupo 4</t>
+  </si>
+  <si>
+    <t>Suca</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\ADM.png</t>
+  </si>
+  <si>
+    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\Lyon.png</t>
+  </si>
+  <si>
+    <t>Nacionales</t>
+  </si>
+  <si>
+    <t>nacionales</t>
+  </si>
+  <si>
+    <t>nacionales ADM</t>
+  </si>
+  <si>
+    <t>OroVIP</t>
+  </si>
+  <si>
+    <t>DaniStakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La suca </t>
+  </si>
+  <si>
+    <t>Oro VIP</t>
+  </si>
+  <si>
+    <t>DaniPicks stakes</t>
+  </si>
+  <si>
+    <t>RevolverBets</t>
+  </si>
+  <si>
     <t>RevovlerBets</t>
   </si>
   <si>
-    <t>El profe VIP</t>
-  </si>
-  <si>
-    <t>bombas gallitovip</t>
-  </si>
-  <si>
-    <t>Parlays Exoticos gallitovip</t>
-  </si>
-  <si>
-    <t>Asegurado mera fiera</t>
-  </si>
-  <si>
-    <t>Cristian rey mensual</t>
-  </si>
-  <si>
-    <t>Marco Rey APP</t>
-  </si>
-  <si>
-    <t>Anual cristian rey</t>
-  </si>
-  <si>
-    <t>Cristian Rey APP</t>
-  </si>
-  <si>
-    <t>Consejo Abuelo APP</t>
-  </si>
-  <si>
-    <t>Oscar Rey APP</t>
-  </si>
-  <si>
-    <t>Roberto Rey APP</t>
-  </si>
-  <si>
-    <t>Garantizado los picks del gordo</t>
-  </si>
-  <si>
-    <t>Garantizado iluminati</t>
-  </si>
-  <si>
-    <t>hugo wx garantizado</t>
-  </si>
-  <si>
-    <t>chapito NFL</t>
-  </si>
-  <si>
-    <t>NFL Stats</t>
-  </si>
-  <si>
-    <t>Retos Escalera y soñadores</t>
-  </si>
-  <si>
-    <t>Premium master</t>
-  </si>
-  <si>
-    <t>el profe stakes</t>
-  </si>
-  <si>
-    <t>Winner Apuestas</t>
-  </si>
-  <si>
-    <t>Sports peru</t>
-  </si>
-  <si>
-    <t>Cabezas premium</t>
-  </si>
-  <si>
-    <t>Stakes 10 y garantizados master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retos Escalera y parlays master </t>
-  </si>
-  <si>
-    <t>KinPicks</t>
-  </si>
-  <si>
-    <t>FrostyParlays</t>
-  </si>
-  <si>
-    <t>FrostyEsports</t>
-  </si>
-  <si>
-    <t>DaniPicks</t>
-  </si>
-  <si>
-    <t>Grupo 2</t>
-  </si>
-  <si>
-    <t>Canal</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\EnviarTipsters\el de los picks.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\EnviarTipsters\master.png</t>
-  </si>
-  <si>
-    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\master.png</t>
-  </si>
-  <si>
-    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\el de los picks.png</t>
-  </si>
-  <si>
-    <t>Ruben Picks</t>
-  </si>
-  <si>
-    <t>Verdeando Club</t>
-  </si>
-  <si>
-    <t>Doctor Apuesta</t>
-  </si>
-  <si>
-    <t>I. A. Bet</t>
-  </si>
-  <si>
-    <t>P. PR. T.S. Apuestas</t>
-  </si>
-  <si>
-    <t>Stakazo Oro Verde</t>
-  </si>
-  <si>
-    <t>Ex Teenista Profesional</t>
-  </si>
-  <si>
-    <t>Doctor apuesta</t>
-  </si>
-  <si>
-    <t>Main Play</t>
-  </si>
-  <si>
-    <t>Nacionales ADM</t>
-  </si>
-  <si>
-    <t>Americanos ADM</t>
-  </si>
-  <si>
-    <t>Stakes 10 y garantizados ADM</t>
-  </si>
-  <si>
-    <t>Retos Escalera y soñadores ADM</t>
-  </si>
-  <si>
-    <t>Nacionales Lyon</t>
-  </si>
-  <si>
-    <t>Americanos Lyon</t>
-  </si>
-  <si>
-    <t>Stakes 10 y garatizados Lyon</t>
-  </si>
-  <si>
-    <t>Retso escalera y soñadores Lyon</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\EnviarTipsters\Lyon.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\EnviarTipsters\ADM.png</t>
-  </si>
-  <si>
-    <t>Grupo 3</t>
-  </si>
-  <si>
-    <t>Grupo 4</t>
-  </si>
-  <si>
-    <t>Suca</t>
-  </si>
-  <si>
-    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\ADM.png</t>
-  </si>
-  <si>
-    <t>C:\Users\saidd\OneDrive\Escritorio\Bot de Telegram pruebas\Bot Reventas\Lyon.png</t>
-  </si>
-  <si>
-    <t>Nacionales</t>
-  </si>
-  <si>
-    <t>nacionales</t>
-  </si>
-  <si>
-    <t>nacionales ADM</t>
-  </si>
-  <si>
-    <t>OroVIP</t>
-  </si>
-  <si>
-    <t>DaniStakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La suca </t>
-  </si>
-  <si>
-    <t>Oro VIP</t>
-  </si>
-  <si>
-    <t>DaniPicks stakes</t>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -696,31 +702,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -780,9 +767,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
@@ -862,6 +846,27 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -880,16 +885,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="0" dataCellStyle="Porcentaje">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
   <autoFilter ref="A1:G134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -899,7 +904,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E128" totalsRowShown="0">
   <autoFilter ref="A1:E128" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
@@ -914,8 +919,8 @@
   <autoFilter ref="A1:C16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1240,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1287,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
@@ -1298,7 +1303,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -1312,7 +1317,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
@@ -1335,7 +1340,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
@@ -1355,7 +1360,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -1364,13 +1369,13 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1379,7 +1384,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
@@ -1402,7 +1407,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
@@ -1442,7 +1447,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1">
         <v>10000</v>
@@ -1454,10 +1459,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,13 +1476,13 @@
         <v>8138</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1491,21 +1496,18 @@
         <v>9430</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1">
         <v>10000</v>
@@ -1517,10 +1519,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="10">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,16 +1547,16 @@
         <v>10000</v>
       </c>
       <c r="C15" s="1">
-        <v>7411</v>
+        <v>8411</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,19 +1567,16 @@
         <v>10000</v>
       </c>
       <c r="C16" s="1">
-        <v>7676</v>
+        <v>8676</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
       <c r="E16" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
-        <v>51</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,16 +1587,16 @@
         <v>10000</v>
       </c>
       <c r="C17" s="1">
-        <v>12250</v>
+        <v>8842</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1624,21 +1623,18 @@
         <v>8464</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>45</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1">
         <v>10000</v>
@@ -1653,7 +1649,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1">
         <v>10000</v>
@@ -1662,16 +1658,16 @@
         <v>11371</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1705,18 +1701,21 @@
         <v>17833</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
         <v>24</v>
       </c>
       <c r="F23" s="2">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1">
         <v>10000</v>
@@ -1755,13 +1754,13 @@
         <v>9470</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,36 +1771,36 @@
         <v>10000</v>
       </c>
       <c r="C27" s="1">
-        <v>19531</v>
+        <v>10531</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2">
         <v>15</v>
       </c>
       <c r="F27" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1">
         <v>10000</v>
       </c>
       <c r="C28" s="1">
-        <v>10000</v>
+        <v>9132</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,13 +1814,13 @@
         <v>9290</v>
       </c>
       <c r="D29" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,13 +1834,13 @@
         <v>10651</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1872,36 +1871,33 @@
         <v>9320</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1">
         <v>10000</v>
       </c>
       <c r="C33" s="1">
-        <v>11430</v>
+        <v>10320</v>
       </c>
       <c r="D33" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33" s="2">
-        <v>57</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1935,24 +1931,21 @@
         <v>10000</v>
       </c>
       <c r="C35" s="1">
-        <v>9994</v>
+        <v>8341</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2">
-        <v>51</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1">
         <v>10000</v>
@@ -2034,13 +2027,16 @@
         <v>10667</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2054,16 +2050,13 @@
         <v>11628</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2">
-        <v>66</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2074,16 +2067,16 @@
         <v>10000</v>
       </c>
       <c r="C42" s="1">
-        <v>8500</v>
+        <v>8740</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F42" s="2">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2097,13 +2090,13 @@
         <v>11628</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2114,14 +2107,19 @@
         <v>10000</v>
       </c>
       <c r="C44" s="1">
-        <v>10000</v>
+        <v>10900</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B45" s="1">
         <v>10000</v>
@@ -2133,13 +2131,10 @@
         <v>25</v>
       </c>
       <c r="E45" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" s="2">
-        <v>78</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2153,13 +2148,13 @@
         <v>10391</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2266,7 +2261,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1">
         <v>10000</v>
@@ -2284,7 +2279,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1">
         <v>10000</v>
@@ -2326,13 +2321,13 @@
         <v>14137</v>
       </c>
       <c r="D56" s="2">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E56" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,13 +2341,13 @@
         <v>14424</v>
       </c>
       <c r="D57" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2366,13 +2361,13 @@
         <v>11654</v>
       </c>
       <c r="D58" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E58" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F58" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,10 +2381,10 @@
         <v>9714</v>
       </c>
       <c r="D59" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E59" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F59" s="2">
         <v>47</v>
@@ -2418,16 +2413,16 @@
         <v>10000</v>
       </c>
       <c r="C61" s="1">
-        <v>10005</v>
+        <v>10659</v>
       </c>
       <c r="D61" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E61" s="2">
         <v>19</v>
       </c>
       <c r="F61" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,13 +2456,13 @@
         <v>10180</v>
       </c>
       <c r="D63" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2">
         <v>10</v>
       </c>
       <c r="F63" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,24 +2473,22 @@
         <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>11016</v>
+        <v>9213</v>
       </c>
       <c r="D64" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E64" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2">
-        <v>50</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="1">
         <v>10000</v>
@@ -2527,13 +2520,13 @@
         <v>8941</v>
       </c>
       <c r="D66" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E66" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2544,16 +2537,16 @@
         <v>10000</v>
       </c>
       <c r="C67" s="1">
-        <v>10058</v>
+        <v>9746</v>
       </c>
       <c r="D67" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E67" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F67" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2564,16 +2557,16 @@
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>11514</v>
+        <v>10514</v>
       </c>
       <c r="D68" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E68" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F68" s="2">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,14 +2580,14 @@
         <v>13322</v>
       </c>
       <c r="D69" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
         <v>100</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2622,13 +2615,13 @@
         <v>8360</v>
       </c>
       <c r="D71" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F71" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,16 +2632,16 @@
         <v>10000</v>
       </c>
       <c r="C72" s="1">
-        <v>7710</v>
+        <v>8710</v>
       </c>
       <c r="D72" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2">
         <v>7</v>
       </c>
       <c r="F72" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,13 +2655,13 @@
         <v>6585</v>
       </c>
       <c r="D73" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F73" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2682,13 +2675,13 @@
         <v>10561</v>
       </c>
       <c r="D74" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F74" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2719,13 +2712,13 @@
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>89980</v>
+        <v>9580</v>
       </c>
       <c r="D76" s="2">
         <v>9</v>
       </c>
       <c r="E76" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F76" s="2">
         <v>53</v>
@@ -2739,16 +2732,16 @@
         <v>10000</v>
       </c>
       <c r="C77" s="1">
-        <v>8425</v>
+        <v>9320</v>
       </c>
       <c r="D77" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E77" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F77" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2765,13 +2758,13 @@
         <v>6151</v>
       </c>
       <c r="D78" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E78" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2785,13 +2778,16 @@
         <v>8612</v>
       </c>
       <c r="D79" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2802,16 +2798,16 @@
         <v>10000</v>
       </c>
       <c r="C80" s="1">
-        <v>8241</v>
+        <v>9204</v>
       </c>
       <c r="D80" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E80" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F80" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,19 +2818,16 @@
         <v>10000</v>
       </c>
       <c r="C81" s="1">
-        <v>10763</v>
+        <v>9665</v>
       </c>
       <c r="D81" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81" s="2">
         <v>2</v>
       </c>
       <c r="F81" s="2">
-        <v>67</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2856,9 +2849,7 @@
       <c r="F82" s="2">
         <v>67</v>
       </c>
-      <c r="G82" s="11">
-        <v>1</v>
-      </c>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2871,36 +2862,33 @@
         <v>10623</v>
       </c>
       <c r="D83" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E83" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1">
         <v>10000</v>
       </c>
       <c r="C84" s="1">
-        <v>12107</v>
+        <v>8753</v>
       </c>
       <c r="D84" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E84" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" s="2">
-        <v>44</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2911,16 +2899,16 @@
         <v>10000</v>
       </c>
       <c r="C85" s="1">
-        <v>11700</v>
+        <v>10700</v>
       </c>
       <c r="D85" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E85" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -2935,16 +2923,13 @@
         <v>17050</v>
       </c>
       <c r="D86" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E86" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F86" s="2">
-        <v>76</v>
-      </c>
-      <c r="G86">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3006,16 +2991,16 @@
         <v>10000</v>
       </c>
       <c r="C90" s="1">
-        <v>8070</v>
+        <v>9070</v>
       </c>
       <c r="D90" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" s="2">
         <v>8</v>
       </c>
       <c r="F90" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,16 +3034,16 @@
         <v>10000</v>
       </c>
       <c r="C92" s="1">
-        <v>11789</v>
+        <v>10700</v>
       </c>
       <c r="D92" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,16 +3091,14 @@
         <v>10000</v>
       </c>
       <c r="C95" s="1">
-        <v>10290</v>
+        <v>12700</v>
       </c>
       <c r="D95" s="2">
-        <v>2</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3129,13 +3112,13 @@
         <v>11599</v>
       </c>
       <c r="D96" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E96" s="2">
         <v>6</v>
       </c>
       <c r="F96" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3149,16 +3132,16 @@
         <v>10000</v>
       </c>
       <c r="C97" s="1">
-        <v>12302</v>
+        <v>10800</v>
       </c>
       <c r="D97" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
       </c>
       <c r="F97" s="2">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3175,13 +3158,13 @@
         <v>9050</v>
       </c>
       <c r="D98" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="2">
         <v>6</v>
       </c>
       <c r="F98" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3195,13 +3178,13 @@
         <v>10778</v>
       </c>
       <c r="D99" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E99" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F99" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3215,16 +3198,16 @@
         <v>10000</v>
       </c>
       <c r="C100" s="1">
-        <v>9114</v>
+        <v>10220</v>
       </c>
       <c r="D100" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E100" s="2">
         <v>23</v>
       </c>
       <c r="F100" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3238,18 +3221,21 @@
         <v>9300</v>
       </c>
       <c r="D101" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E101" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B102" s="1">
         <v>10000</v>
@@ -3269,7 +3255,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="1">
         <v>10000</v>
@@ -3278,13 +3264,13 @@
         <v>11870</v>
       </c>
       <c r="D103" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E103" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G103">
         <v>5</v>
@@ -3302,16 +3288,13 @@
         <v>16664</v>
       </c>
       <c r="D104" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E104" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F104" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3325,10 +3308,10 @@
         <v>8810</v>
       </c>
       <c r="D105" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E105" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F105" s="2">
         <v>50</v>
@@ -3345,13 +3328,13 @@
         <v>8103</v>
       </c>
       <c r="D106" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F106" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3362,36 +3345,36 @@
         <v>10000</v>
       </c>
       <c r="C107" s="1">
-        <v>8540</v>
+        <v>7540</v>
       </c>
       <c r="D107" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B108" s="1">
         <v>10000</v>
       </c>
       <c r="C108" s="1">
-        <v>5150</v>
+        <v>7150</v>
       </c>
       <c r="D108" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E108" s="2">
         <v>8</v>
       </c>
       <c r="F108" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3450,10 +3433,10 @@
         <v>5</v>
       </c>
       <c r="E112" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F112" s="2">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3498,16 +3481,16 @@
         <v>10000</v>
       </c>
       <c r="C115" s="1">
-        <v>9280</v>
+        <v>8780</v>
       </c>
       <c r="D115" s="2">
         <v>4</v>
       </c>
       <c r="E115" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F115" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3527,10 +3510,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="2">
-        <v>44</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,13 +3562,13 @@
         <v>6370</v>
       </c>
       <c r="D119" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F119" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3619,41 +3599,41 @@
         <v>10000</v>
       </c>
       <c r="C121" s="1">
-        <v>9923</v>
+        <v>9325</v>
       </c>
       <c r="D121" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E121" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F121" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1">
         <v>10000</v>
       </c>
       <c r="C122" s="1">
-        <v>6080</v>
+        <v>9874</v>
       </c>
       <c r="D122" s="2">
+        <v>10</v>
+      </c>
+      <c r="E122" s="2">
         <v>8</v>
       </c>
-      <c r="E122" s="2">
-        <v>9</v>
-      </c>
       <c r="F122" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" s="1">
         <v>10000</v>
@@ -3662,80 +3642,84 @@
         <v>10365</v>
       </c>
       <c r="D123" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E123" s="2">
         <v>2</v>
       </c>
       <c r="F123" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1">
         <v>10000</v>
       </c>
       <c r="C124" s="1">
-        <v>9764</v>
+        <v>8740</v>
       </c>
       <c r="D124" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E124" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F124" s="2">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" s="1">
         <v>10000</v>
       </c>
       <c r="C125" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+        <v>13000</v>
+      </c>
+      <c r="D125" s="2">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2">
+        <v>6</v>
+      </c>
+      <c r="F125" s="2">
+        <v>63</v>
+      </c>
       <c r="G125" s="2"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" s="1">
         <v>10000</v>
       </c>
       <c r="C126" s="1">
-        <v>8830</v>
+        <v>6830</v>
       </c>
       <c r="D126" s="2">
         <v>1</v>
       </c>
       <c r="E126" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F126" s="2">
-        <v>20</v>
-      </c>
-      <c r="G126" s="2">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127" s="1">
         <v>10000</v>
@@ -3744,13 +3728,13 @@
         <v>11476</v>
       </c>
       <c r="D127" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E127" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F127" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -3758,7 +3742,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128" s="1">
         <v>10000</v>
@@ -3767,36 +3751,40 @@
         <v>8485</v>
       </c>
       <c r="D128" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F128" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" s="1">
         <v>10000</v>
       </c>
       <c r="C129" s="1">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="D129" s="2">
+        <v>4</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2">
+        <v>100</v>
+      </c>
+      <c r="G129" s="2">
         <v>2</v>
       </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130" s="1">
         <v>10000</v>
@@ -3819,7 +3807,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B131" s="1">
         <v>10000</v>
@@ -3840,7 +3828,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B132" s="1">
         <v>10000</v>
@@ -3857,7 +3845,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
@@ -3866,38 +3854,36 @@
         <v>9650</v>
       </c>
       <c r="D133" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E133" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F133" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G133" s="12"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
       </c>
       <c r="C134" s="1">
-        <v>10740</v>
+        <v>9500</v>
       </c>
       <c r="D134" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E134" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F134" s="2">
         <v>50</v>
       </c>
-      <c r="G134" s="13">
-        <v>1</v>
-      </c>
+      <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
@@ -4537,8 +4523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4555,13 +4541,13 @@
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -4569,16 +4555,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
@@ -4586,33 +4572,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -4620,16 +4606,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -4637,33 +4623,33 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -4671,16 +4657,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4688,16 +4674,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -4705,16 +4691,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -4722,16 +4708,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -4740,34 +4726,34 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
         <v>98</v>
@@ -4775,16 +4761,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -4792,16 +4778,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -4809,16 +4795,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
         <v>106</v>
@@ -4826,16 +4812,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
         <v>105</v>
@@ -4843,16 +4829,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -4860,33 +4846,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -4894,16 +4880,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -4911,16 +4897,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -4928,16 +4914,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -4945,16 +4931,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -4962,16 +4948,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -4979,16 +4965,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -4996,16 +4982,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -5013,16 +4999,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
         <v>108</v>
@@ -5031,16 +5017,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
         <v>92</v>
@@ -5048,16 +5034,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
@@ -5065,33 +5051,33 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -5099,16 +5085,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -5116,16 +5102,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
@@ -5133,16 +5119,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
@@ -5151,13 +5137,13 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
@@ -5165,16 +5151,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
         <v>29</v>
@@ -5182,16 +5168,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
@@ -5199,16 +5185,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -5216,16 +5202,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
         <v>31</v>
@@ -5233,16 +5219,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -5250,16 +5236,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
@@ -5267,16 +5253,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
         <v>93</v>
@@ -5284,16 +5270,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
         <v>35</v>
@@ -5301,16 +5287,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5318,16 +5304,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
         <v>37</v>
@@ -5335,16 +5321,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
         <v>94</v>
@@ -5352,16 +5338,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
         <v>91</v>
@@ -5369,33 +5355,33 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -5403,16 +5389,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -5420,16 +5406,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
         <v>39</v>
@@ -5437,16 +5423,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
@@ -5454,16 +5440,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -5471,16 +5457,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
@@ -5488,16 +5474,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
@@ -5505,16 +5491,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E57" t="s">
         <v>44</v>
@@ -5522,16 +5508,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E58" t="s">
         <v>45</v>
@@ -5539,16 +5525,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
         <v>46</v>
@@ -5556,16 +5542,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
         <v>47</v>
@@ -5573,16 +5559,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
@@ -5590,16 +5576,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s">
         <v>50</v>
@@ -5607,16 +5593,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
         <v>51</v>
@@ -5624,16 +5610,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
         <v>53</v>
@@ -5641,16 +5627,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
         <v>54</v>
@@ -5658,16 +5644,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
         <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
         <v>52</v>
@@ -5675,33 +5661,33 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
         <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
         <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
         <v>72</v>
@@ -5709,33 +5695,33 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
         <v>66</v>
@@ -5743,16 +5729,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
         <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
@@ -5760,33 +5746,33 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
         <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
         <v>70</v>
@@ -5794,33 +5780,33 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
         <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
         <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
@@ -5828,16 +5814,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
         <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -5845,16 +5831,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
         <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" t="s">
         <v>57</v>
@@ -5862,50 +5848,50 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
         <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
         <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
         <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" t="s">
         <v>71</v>
@@ -5913,33 +5899,33 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
         <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
         <v>103</v>
@@ -5947,84 +5933,84 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
         <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
         <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
         <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
         <v>84</v>
@@ -6032,16 +6018,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E88" t="s">
         <v>85</v>
@@ -6049,84 +6035,84 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
         <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
         <v>55</v>
@@ -6134,16 +6120,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" t="s">
         <v>58</v>
@@ -6152,16 +6138,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E95" t="s">
         <v>59</v>
@@ -6169,16 +6155,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E96" t="s">
         <v>60</v>
@@ -6186,16 +6172,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
@@ -6203,16 +6189,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B98" t="s">
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E98" t="s">
         <v>61</v>
@@ -6220,16 +6206,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E99" t="s">
         <v>62</v>
@@ -6237,16 +6223,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E100" t="s">
         <v>63</v>
@@ -6254,16 +6240,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
         <v>64</v>
@@ -6271,16 +6257,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102" t="s">
         <v>67</v>
@@ -6288,16 +6274,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103" t="s">
         <v>68</v>
@@ -6305,16 +6291,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
         <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" t="s">
         <v>75</v>
@@ -6322,16 +6308,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
         <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E105" t="s">
         <v>76</v>
@@ -6339,16 +6325,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B106" t="s">
         <v>101</v>
       </c>
       <c r="C106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" t="s">
         <v>77</v>
@@ -6356,16 +6342,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B107" t="s">
         <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" t="s">
         <v>78</v>
@@ -6373,16 +6359,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
         <v>101</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E108" t="s">
         <v>79</v>
@@ -6390,16 +6376,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
         <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109" t="s">
         <v>80</v>
@@ -6407,16 +6393,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B110" t="s">
         <v>101</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
         <v>81</v>
@@ -6424,16 +6410,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
         <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E111" t="s">
         <v>82</v>
@@ -6441,16 +6427,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
         <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E112" t="s">
         <v>83</v>
@@ -6458,16 +6444,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
         <v>101</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E113" t="s">
         <v>85</v>
@@ -6475,16 +6461,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
         <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E114" t="s">
         <v>86</v>
@@ -6492,16 +6478,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
         <v>101</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E115" t="s">
         <v>87</v>
@@ -6509,16 +6495,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
         <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E116" t="s">
         <v>95</v>
@@ -6526,33 +6512,33 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E118" t="s">
         <v>104</v>
@@ -6560,16 +6546,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E119" t="s">
         <v>107</v>
@@ -6577,136 +6563,136 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
         <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
         <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
         <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
         <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
         <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E127" t="s">
         <v>49</v>
@@ -6714,18 +6700,18 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D128" t="s">
-        <v>159</v>
-      </c>
-      <c r="E128" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6744,7 +6730,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6759,7 +6745,7 @@
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>89</v>
@@ -6767,24 +6753,24 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="7">
-        <v>-1002105211537</v>
+        <v>-1002194870823</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="6">
-        <v>-1001957612350</v>
+      <c r="B3" s="7">
+        <v>-1002194870823</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6792,29 +6778,29 @@
         <v>101</v>
       </c>
       <c r="B4" s="7">
-        <v>-1002018254333</v>
+        <v>-1002194870823</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="6">
-        <v>-1002018254333</v>
+        <v>125</v>
+      </c>
+      <c r="B5" s="7">
+        <v>-1002194870823</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="7">
-        <v>-1002156412551</v>
+        <v>-1002297812775</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>141</v>
@@ -6823,10 +6809,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-1002197383783</v>
+        <v>131</v>
+      </c>
+      <c r="B7" s="7">
+        <v>-1002297812775</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>141</v>
@@ -6834,10 +6820,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="7">
-        <v>-1002221930423</v>
+        <v>-1002297812775</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>141</v>
@@ -6846,90 +6832,90 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="6">
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="7">
-        <v>-1002378514893</v>
+        <v>-1002390345649</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="6">
-        <v>-1002407233853</v>
+        <v>-1002390345649</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="7">
-        <v>-1002248753359</v>
+        <v>-1002390345649</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="6">
-        <v>-1002170091825</v>
+        <v>-1002251083617</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="7">
-        <v>-1002177242150</v>
+        <v>-1002251083617</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="6">
-        <v>-1002148324453</v>
+        <v>-1002251083617</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="7">
-        <v>-1002242675024</v>
+        <v>-1002251083617</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6944,20 +6930,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8322463-DDB4-408E-9911-272820B4360D}">
-  <dimension ref="A18:B32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:B15"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>-1002105211537</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>-1001957612350</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>-1002018254333</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>-1002018254333</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>-1002156412551</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>-1002197383783</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>-1002221930423</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>-1002390345649</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>-1002378514893</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>-1002407233853</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>-1002248753359</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>-1002170091825</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>-1002177242150</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>-1002148324453</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>-1002242675024</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>-1002194870823</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6965,7 +7071,7 @@
         <v>-1002194870823</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6973,7 +7079,7 @@
         <v>-1002194870823</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +7087,7 @@
         <v>-1002194870823</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6989,7 +7095,7 @@
         <v>-1002297812775</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +7103,7 @@
         <v>-1002297812775</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7005,7 +7111,7 @@
         <v>-1002297812775</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7013,7 +7119,7 @@
         <v>-1002390345649</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7021,7 +7127,7 @@
         <v>-1002390345649</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7029,7 +7135,7 @@
         <v>-1002390345649</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7037,7 +7143,7 @@
         <v>-1002390345649</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7045,7 +7151,7 @@
         <v>-1002251083617</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +7159,7 @@
         <v>-1002251083617</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7061,7 +7167,7 @@
         <v>-1002251083617</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7175,7 @@
         <v>-1002251083617</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="808" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2012D4E-66CD-4F4B-8EAA-8E783B087B86}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BBC166A-092A-4A9A-B92F-DB72CC75834B}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -709,69 +709,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -847,6 +784,69 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
@@ -890,11 +890,11 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Bank Actual" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Victorias" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Derrotas" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Efectividad" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{9CB85050-B5DC-4A1E-93B7-6936AA8DFD7E}" name="Racha" dataDxfId="3" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -904,7 +904,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E128" totalsRowShown="0">
   <autoFilter ref="A1:E128" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
@@ -919,8 +919,8 @@
   <autoFilter ref="A1:C16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G134"/>
     </sheetView>
   </sheetViews>
@@ -4523,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -6729,8 +6729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6756,21 +6756,21 @@
         <v>168</v>
       </c>
       <c r="B2" s="7">
-        <v>-1002194870823</v>
+        <v>-1002105211537</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="7">
-        <v>-1002194870823</v>
+      <c r="B3" s="6">
+        <v>-1001957612350</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6778,21 +6778,21 @@
         <v>101</v>
       </c>
       <c r="B4" s="7">
-        <v>-1002194870823</v>
+        <v>-1002018254333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="7">
-        <v>-1002194870823</v>
+      <c r="B5" s="6">
+        <v>-1002018254333</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6800,10 +6800,10 @@
         <v>126</v>
       </c>
       <c r="B6" s="7">
-        <v>-1002297812775</v>
+        <v>-1002156412551</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -6811,11 +6811,11 @@
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="7">
-        <v>-1002297812775</v>
+      <c r="B7" s="6">
+        <v>-1002197383783</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6823,10 +6823,10 @@
         <v>132</v>
       </c>
       <c r="B8" s="7">
-        <v>-1002297812775</v>
+        <v>-1002221930423</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -6838,7 +6838,7 @@
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6846,10 +6846,10 @@
         <v>153</v>
       </c>
       <c r="B10" s="7">
-        <v>-1002390345649</v>
+        <v>-1002378514893</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6857,10 +6857,10 @@
         <v>154</v>
       </c>
       <c r="B11" s="6">
-        <v>-1002390345649</v>
+        <v>-1002407233853</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6868,10 +6868,10 @@
         <v>155</v>
       </c>
       <c r="B12" s="7">
-        <v>-1002390345649</v>
+        <v>-1002248753359</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6879,10 +6879,10 @@
         <v>156</v>
       </c>
       <c r="B13" s="6">
-        <v>-1002251083617</v>
+        <v>-1002170091825</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6890,10 +6890,10 @@
         <v>157</v>
       </c>
       <c r="B14" s="7">
-        <v>-1002251083617</v>
+        <v>-1002177242150</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6901,10 +6901,10 @@
         <v>158</v>
       </c>
       <c r="B15" s="6">
-        <v>-1002251083617</v>
+        <v>-1002148324453</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6912,10 +6912,10 @@
         <v>159</v>
       </c>
       <c r="B16" s="7">
-        <v>-1002251083617</v>
+        <v>-1002242675024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6932,8 +6932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8322463-DDB4-408E-9911-272820B4360D}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="811" documentId="13_ncr:1_{006596D4-B2C3-4256-B99C-25A01EB4C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BBC166A-092A-4A9A-B92F-DB72CC75834B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{D47A2C29-201C-4E2F-A6F3-ACA52D055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{840D895B-1ADB-4FEE-B3E4-E2EE477C124D}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16515" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="176">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -554,25 +554,19 @@
     <t>OroVIP</t>
   </si>
   <si>
-    <t>DaniStakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La suca </t>
-  </si>
-  <si>
     <t>Oro VIP</t>
   </si>
   <si>
-    <t>DaniPicks stakes</t>
-  </si>
-  <si>
     <t>RevolverBets</t>
   </si>
   <si>
-    <t>RevovlerBets</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>Danipicks stakes</t>
+  </si>
+  <si>
+    <t>Daniel Tipster</t>
+  </si>
+  <si>
+    <t>El profe colombiano</t>
   </si>
 </sst>
 </file>
@@ -687,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -702,12 +696,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -740,38 +767,6 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -880,13 +875,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G134" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
-  <autoFilter ref="A1:G134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G136" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
+  <autoFilter ref="A1:G136" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
@@ -901,10 +892,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E128" totalsRowShown="0">
-  <autoFilter ref="A1:E128" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E130" totalsRowShown="0">
+  <autoFilter ref="A1:E130" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
@@ -919,8 +910,8 @@
   <autoFilter ref="A1:C16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G134"/>
+    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,16 +1317,13 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1369,16 +1357,13 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
-        <v>61</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1436,13 +1421,13 @@
         <v>8660</v>
       </c>
       <c r="D9" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,13 +1441,13 @@
         <v>7030</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1476,13 +1461,13 @@
         <v>8138</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1493,16 +1478,16 @@
         <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>9430</v>
+        <v>9853</v>
       </c>
       <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
-        <v>16</v>
-      </c>
       <c r="F12" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,13 +1501,13 @@
         <v>8647</v>
       </c>
       <c r="D13" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,13 +1535,13 @@
         <v>8411</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2">
         <v>23</v>
       </c>
       <c r="F15" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,13 +1555,13 @@
         <v>8676</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1590,7 +1575,7 @@
         <v>8842</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
@@ -1623,10 +1608,10 @@
         <v>8464</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2">
         <v>42</v>
@@ -1658,16 +1643,16 @@
         <v>11371</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,19 +1683,16 @@
         <v>10000</v>
       </c>
       <c r="C23" s="1">
-        <v>17833</v>
+        <v>23021</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2">
-        <v>61</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1774,13 +1756,13 @@
         <v>10531</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1814,13 +1796,13 @@
         <v>9290</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,19 +1813,16 @@
         <v>10000</v>
       </c>
       <c r="C30" s="1">
-        <v>10651</v>
+        <v>10546</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>63</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,13 +1850,13 @@
         <v>9320</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1934,13 +1913,13 @@
         <v>8341</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1974,10 +1953,10 @@
         <v>10205</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2">
         <v>62</v>
@@ -2024,19 +2003,16 @@
         <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>10667</v>
+        <v>10557</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E40" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2">
-        <v>69</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,13 +2026,13 @@
         <v>11628</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F41" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,16 +2063,16 @@
         <v>10000</v>
       </c>
       <c r="C43" s="1">
-        <v>11628</v>
+        <v>11085</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2119,22 +2095,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1">
         <v>10000</v>
       </c>
       <c r="C45" s="1">
-        <v>22860</v>
+        <v>25900</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E45" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,19 +2121,19 @@
         <v>10000</v>
       </c>
       <c r="C46" s="1">
-        <v>10391</v>
+        <v>11052</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,13 +2206,13 @@
         <v>8375</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2250,13 +2226,13 @@
         <v>9226</v>
       </c>
       <c r="D52" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E52" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F52" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,10 +2297,10 @@
         <v>14137</v>
       </c>
       <c r="D56" s="2">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2">
         <v>48</v>
@@ -2338,16 +2314,19 @@
         <v>10000</v>
       </c>
       <c r="C57" s="1">
-        <v>14424</v>
+        <v>15845</v>
       </c>
       <c r="D57" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F57" s="2">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2358,16 +2337,16 @@
         <v>10000</v>
       </c>
       <c r="C58" s="1">
-        <v>11654</v>
+        <v>11634</v>
       </c>
       <c r="D58" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E58" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2381,13 +2360,13 @@
         <v>9714</v>
       </c>
       <c r="D59" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E59" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,16 +2392,16 @@
         <v>10000</v>
       </c>
       <c r="C61" s="1">
-        <v>10659</v>
+        <v>10635</v>
       </c>
       <c r="D61" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E61" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F61" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,13 +2435,13 @@
         <v>10180</v>
       </c>
       <c r="D63" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2">
         <v>13</v>
       </c>
-      <c r="E63" s="2">
-        <v>10</v>
-      </c>
       <c r="F63" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2473,16 +2452,16 @@
         <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>9213</v>
+        <v>10302</v>
       </c>
       <c r="D64" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E64" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F64" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -2494,19 +2473,16 @@
         <v>10000</v>
       </c>
       <c r="C65" s="1">
-        <v>7750</v>
+        <v>8920</v>
       </c>
       <c r="D65" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F65" s="2">
         <v>47</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2520,13 +2496,13 @@
         <v>8941</v>
       </c>
       <c r="D66" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,10 +2536,10 @@
         <v>10514</v>
       </c>
       <c r="D68" s="2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E68" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2">
         <v>52</v>
@@ -2577,17 +2553,16 @@
         <v>10000</v>
       </c>
       <c r="C69" s="1">
-        <v>13322</v>
+        <v>12322</v>
       </c>
       <c r="D69" s="2">
         <v>6</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
       <c r="F69" s="2">
-        <v>100</v>
-      </c>
-      <c r="G69">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2612,16 +2587,16 @@
         <v>10000</v>
       </c>
       <c r="C71" s="1">
-        <v>8360</v>
+        <v>9103</v>
       </c>
       <c r="D71" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E71" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F71" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2632,16 +2607,16 @@
         <v>10000</v>
       </c>
       <c r="C72" s="1">
-        <v>8710</v>
+        <v>9220</v>
       </c>
       <c r="D72" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F72" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2655,13 +2630,13 @@
         <v>6585</v>
       </c>
       <c r="D73" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E73" s="2">
         <v>24</v>
       </c>
       <c r="F73" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,13 +2650,16 @@
         <v>10561</v>
       </c>
       <c r="D74" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E74" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F74" s="2">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,13 +2693,13 @@
         <v>9580</v>
       </c>
       <c r="D76" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,16 +2713,13 @@
         <v>9320</v>
       </c>
       <c r="D77" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E77" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F77" s="2">
         <v>51</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,16 +2730,16 @@
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>6151</v>
+        <v>8950</v>
       </c>
       <c r="D78" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E78" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2786,9 +2761,6 @@
       <c r="F79" s="2">
         <v>37</v>
       </c>
-      <c r="G79" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2801,13 +2773,13 @@
         <v>9204</v>
       </c>
       <c r="D80" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E80" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F80" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,13 +2793,13 @@
         <v>9665</v>
       </c>
       <c r="D81" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2838,18 +2810,20 @@
         <v>10000</v>
       </c>
       <c r="C82" s="1">
-        <v>10425</v>
+        <v>16170</v>
       </c>
       <c r="D82" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" s="2">
-        <v>67</v>
-      </c>
-      <c r="G82" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="G82" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2862,13 +2836,13 @@
         <v>10623</v>
       </c>
       <c r="D83" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E83" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2882,13 +2856,13 @@
         <v>8753</v>
       </c>
       <c r="D84" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2">
         <v>8</v>
       </c>
       <c r="F84" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,19 +2985,16 @@
         <v>10000</v>
       </c>
       <c r="C91" s="1">
-        <v>30600</v>
+        <v>30100</v>
       </c>
       <c r="D91" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E91" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2">
-        <v>65</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,13 +3008,13 @@
         <v>10700</v>
       </c>
       <c r="D92" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E92" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3096,9 +3067,11 @@
       <c r="D95" s="2">
         <v>3</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
       <c r="F95" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3112,16 +3085,16 @@
         <v>11599</v>
       </c>
       <c r="D96" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E96" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F96" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3155,16 +3128,16 @@
         <v>10000</v>
       </c>
       <c r="C98" s="1">
-        <v>9050</v>
+        <v>10809</v>
       </c>
       <c r="D98" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E98" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F98" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3175,19 +3148,16 @@
         <v>10000</v>
       </c>
       <c r="C99" s="1">
-        <v>10778</v>
+        <v>11025</v>
       </c>
       <c r="D99" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E99" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F99" s="2">
-        <v>61</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3201,13 +3171,13 @@
         <v>10220</v>
       </c>
       <c r="D100" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E100" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F100" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3218,19 +3188,19 @@
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>9300</v>
+        <v>12849</v>
       </c>
       <c r="D101" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E101" s="2">
         <v>8</v>
       </c>
       <c r="F101" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3241,10 +3211,10 @@
         <v>10000</v>
       </c>
       <c r="C102" s="1">
-        <v>8360</v>
+        <v>10032</v>
       </c>
       <c r="D102" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102" s="2">
         <v>3</v>
@@ -3261,19 +3231,19 @@
         <v>10000</v>
       </c>
       <c r="C103" s="1">
-        <v>11870</v>
+        <v>12160</v>
       </c>
       <c r="D103" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E103" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F103" s="2">
         <v>76</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H103" s="3"/>
     </row>
@@ -3288,13 +3258,16 @@
         <v>16664</v>
       </c>
       <c r="D104" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E104" s="2">
         <v>7</v>
       </c>
       <c r="F104" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3308,13 +3281,13 @@
         <v>8810</v>
       </c>
       <c r="D105" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E105" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F105" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3325,16 +3298,16 @@
         <v>10000</v>
       </c>
       <c r="C106" s="1">
-        <v>8103</v>
+        <v>9853</v>
       </c>
       <c r="D106" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E106" s="2">
         <v>20</v>
       </c>
       <c r="F106" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,7 +3320,7 @@
       <c r="C107" s="1">
         <v>7540</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="13">
         <v>3</v>
       </c>
       <c r="E107" s="2">
@@ -3359,7 +3332,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B108" s="1">
         <v>10000</v>
@@ -3399,10 +3372,12 @@
         <v>10000</v>
       </c>
       <c r="C110" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3481,16 +3456,16 @@
         <v>10000</v>
       </c>
       <c r="C115" s="1">
-        <v>8780</v>
+        <v>7780</v>
       </c>
       <c r="D115" s="2">
         <v>4</v>
       </c>
       <c r="E115" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F115" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3504,13 +3479,13 @@
         <v>9970</v>
       </c>
       <c r="D116" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F116" s="2">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,10 +3597,10 @@
         <v>9874</v>
       </c>
       <c r="D122" s="2">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2">
         <v>10</v>
-      </c>
-      <c r="E122" s="2">
-        <v>8</v>
       </c>
       <c r="F122" s="2">
         <v>56</v>
@@ -3728,16 +3703,16 @@
         <v>11476</v>
       </c>
       <c r="D127" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E127" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F127" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G127" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,13 +3726,13 @@
         <v>8485</v>
       </c>
       <c r="D128" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E128" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F128" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G128" s="2"/>
     </row>
@@ -3845,7 +3820,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
@@ -3866,7 +3841,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
@@ -3886,15 +3861,27 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="1">
+        <v>10000</v>
+      </c>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="1">
+        <v>10000</v>
+      </c>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -4521,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,7 +5050,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6047,7 +6034,7 @@
         <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,6 +6700,40 @@
       </c>
       <c r="E128" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" t="s">
+        <v>154</v>
+      </c>
+      <c r="D130" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6729,7 +6750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{D47A2C29-201C-4E2F-A6F3-ACA52D055930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{840D895B-1ADB-4FEE-B3E4-E2EE477C124D}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E46A535-9134-429D-A0FD-B1BF53EAA057}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="179">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -566,7 +566,16 @@
     <t>Daniel Tipster</t>
   </si>
   <si>
-    <t>El profe colombiano</t>
+    <t>Profe Colombiano</t>
+  </si>
+  <si>
+    <t>Grupo 5</t>
+  </si>
+  <si>
+    <t>LuckyDealer</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\LuckyDealer.png</t>
   </si>
 </sst>
 </file>
@@ -620,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -676,6 +685,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -696,45 +714,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -767,6 +753,38 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -875,9 +893,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G136" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
-  <autoFilter ref="A1:G136" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G135" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
+  <autoFilter ref="A1:G135" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
@@ -892,13 +914,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:E130" totalsRowShown="0">
-  <autoFilter ref="A1:E130" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:F129" totalsRowShown="0">
+  <autoFilter ref="A1:F129" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
+    <tableColumn id="8" xr3:uid="{FABE7E00-E818-43A0-A114-F7715817F336}" name="Grupo 5"/>
     <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Tipster"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -906,12 +929,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,13 +1306,9 @@
       <c r="B2" s="1">
         <v>10000</v>
       </c>
-      <c r="C2" s="1">
-        <v>10000</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1314,16 +1333,16 @@
         <v>10000</v>
       </c>
       <c r="C4" s="1">
-        <v>10000</v>
+        <v>15550</v>
       </c>
       <c r="D4" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,16 +1353,16 @@
         <v>10000</v>
       </c>
       <c r="C5" s="1">
-        <v>10000</v>
+        <v>9170</v>
       </c>
       <c r="D5" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1354,16 +1373,16 @@
         <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <v>10000</v>
+        <v>15190</v>
       </c>
       <c r="D6" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1375,7 +1394,7 @@
         <v>10000</v>
       </c>
       <c r="C7" s="1">
-        <v>10000</v>
+        <v>7760</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1398,16 +1417,16 @@
         <v>10000</v>
       </c>
       <c r="C8" s="1">
-        <v>10000</v>
+        <v>6494</v>
       </c>
       <c r="D8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,16 +1437,16 @@
         <v>10000</v>
       </c>
       <c r="C9" s="1">
-        <v>8660</v>
+        <v>8848</v>
       </c>
       <c r="D9" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,16 +1457,16 @@
         <v>10000</v>
       </c>
       <c r="C10" s="1">
-        <v>7030</v>
+        <v>6200</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1458,16 +1477,16 @@
         <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>8138</v>
+        <v>8500</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1478,13 +1497,13 @@
         <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>9853</v>
+        <v>11900</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F12" s="10">
         <v>56</v>
@@ -1498,16 +1517,19 @@
         <v>10000</v>
       </c>
       <c r="C13" s="1">
-        <v>8647</v>
+        <v>9350</v>
       </c>
       <c r="D13" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1532,16 +1554,19 @@
         <v>10000</v>
       </c>
       <c r="C15" s="1">
-        <v>8411</v>
+        <v>9550</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,19 +1577,22 @@
         <v>10000</v>
       </c>
       <c r="C16" s="1">
-        <v>8676</v>
+        <v>8650</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -1572,19 +1600,19 @@
         <v>10000</v>
       </c>
       <c r="C17" s="1">
-        <v>8842</v>
+        <v>5950</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1597,7 +1625,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1605,19 +1633,19 @@
         <v>10000</v>
       </c>
       <c r="C19" s="1">
-        <v>8464</v>
+        <v>7550</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1632,7 +1660,7 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -1640,22 +1668,19 @@
         <v>10000</v>
       </c>
       <c r="C21" s="1">
-        <v>11371</v>
+        <v>15650</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2">
-        <v>70</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -1675,7 +1700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1683,19 +1708,19 @@
         <v>10000</v>
       </c>
       <c r="C23" s="1">
-        <v>23021</v>
+        <v>14650</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1703,7 +1728,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
@@ -1711,7 +1736,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -1725,7 +1750,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1733,19 +1758,19 @@
         <v>10000</v>
       </c>
       <c r="C26" s="1">
-        <v>9470</v>
+        <v>7950</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -1753,19 +1778,19 @@
         <v>10000</v>
       </c>
       <c r="C27" s="1">
-        <v>10531</v>
+        <v>6550</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -1773,7 +1798,7 @@
         <v>10000</v>
       </c>
       <c r="C28" s="1">
-        <v>9132</v>
+        <v>9980</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -1785,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -1793,19 +1818,19 @@
         <v>10000</v>
       </c>
       <c r="C29" s="1">
-        <v>9290</v>
+        <v>7050</v>
       </c>
       <c r="D29" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1813,19 +1838,19 @@
         <v>10000</v>
       </c>
       <c r="C30" s="1">
-        <v>10546</v>
+        <v>16250</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -1839,7 +1864,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1847,16 +1872,16 @@
         <v>10000</v>
       </c>
       <c r="C32" s="1">
-        <v>9320</v>
+        <v>4750</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,16 +1892,16 @@
         <v>10000</v>
       </c>
       <c r="C33" s="1">
-        <v>10320</v>
+        <v>12870</v>
       </c>
       <c r="D33" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,7 +1912,7 @@
         <v>10000</v>
       </c>
       <c r="C34" s="1">
-        <v>13840</v>
+        <v>11150</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -1910,16 +1935,19 @@
         <v>10000</v>
       </c>
       <c r="C35" s="1">
-        <v>8341</v>
+        <v>9800</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,7 +1958,7 @@
         <v>10000</v>
       </c>
       <c r="C36" s="1">
-        <v>6500</v>
+        <v>6990</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -1950,16 +1978,16 @@
         <v>10000</v>
       </c>
       <c r="C37" s="1">
-        <v>10205</v>
+        <v>9300</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E37" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1983,7 +2011,7 @@
         <v>10000</v>
       </c>
       <c r="C39" s="1">
-        <v>11250</v>
+        <v>9900</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2003,16 +2031,16 @@
         <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>10557</v>
+        <v>15000</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E40" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,16 +2051,19 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>11628</v>
+        <v>13800</v>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="2">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,16 +2074,16 @@
         <v>10000</v>
       </c>
       <c r="C42" s="1">
-        <v>8740</v>
+        <v>9000</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2063,16 +2094,16 @@
         <v>10000</v>
       </c>
       <c r="C43" s="1">
-        <v>11085</v>
+        <v>13500</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,7 +2114,7 @@
         <v>10000</v>
       </c>
       <c r="C44" s="1">
-        <v>10900</v>
+        <v>10990</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2101,13 +2132,13 @@
         <v>10000</v>
       </c>
       <c r="C45" s="1">
-        <v>25900</v>
+        <v>18350</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E45" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2">
         <v>72</v>
@@ -2121,19 +2152,16 @@
         <v>10000</v>
       </c>
       <c r="C46" s="1">
-        <v>11052</v>
+        <v>14650</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="2">
         <v>74</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,16 +2231,19 @@
         <v>10000</v>
       </c>
       <c r="C51" s="1">
-        <v>8375</v>
+        <v>11950</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2223,16 +2254,19 @@
         <v>10000</v>
       </c>
       <c r="C52" s="1">
-        <v>9226</v>
+        <v>9900</v>
       </c>
       <c r="D52" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E52" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F52" s="2">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,16 +2328,16 @@
         <v>10000</v>
       </c>
       <c r="C56" s="1">
-        <v>14137</v>
+        <v>-1900</v>
       </c>
       <c r="D56" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F56" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,19 +2348,16 @@
         <v>10000</v>
       </c>
       <c r="C57" s="1">
-        <v>15845</v>
+        <v>9800</v>
       </c>
       <c r="D57" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F57" s="2">
-        <v>61</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2337,13 +2368,13 @@
         <v>10000</v>
       </c>
       <c r="C58" s="1">
-        <v>11634</v>
+        <v>21100</v>
       </c>
       <c r="D58" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E58" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F58" s="2">
         <v>64</v>
@@ -2357,16 +2388,16 @@
         <v>10000</v>
       </c>
       <c r="C59" s="1">
-        <v>9714</v>
+        <v>6300</v>
       </c>
       <c r="D59" s="2">
         <v>34</v>
       </c>
       <c r="E59" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2392,16 +2423,16 @@
         <v>10000</v>
       </c>
       <c r="C61" s="1">
-        <v>10635</v>
+        <v>11350</v>
       </c>
       <c r="D61" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E61" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F61" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,16 +2463,16 @@
         <v>10000</v>
       </c>
       <c r="C63" s="1">
-        <v>10180</v>
+        <v>11500</v>
       </c>
       <c r="D63" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F63" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2452,16 +2483,16 @@
         <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>10302</v>
+        <v>9550</v>
       </c>
       <c r="D64" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E64" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -2473,16 +2504,16 @@
         <v>10000</v>
       </c>
       <c r="C65" s="1">
-        <v>8920</v>
+        <v>5900</v>
       </c>
       <c r="D65" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2493,16 +2524,16 @@
         <v>10000</v>
       </c>
       <c r="C66" s="1">
-        <v>8941</v>
+        <v>7300</v>
       </c>
       <c r="D66" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,7 +2544,7 @@
         <v>10000</v>
       </c>
       <c r="C67" s="1">
-        <v>9746</v>
+        <v>6950</v>
       </c>
       <c r="D67" s="2">
         <v>11</v>
@@ -2533,16 +2564,16 @@
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>10514</v>
+        <v>10600</v>
       </c>
       <c r="D68" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E68" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,16 +2584,19 @@
         <v>10000</v>
       </c>
       <c r="C69" s="1">
-        <v>12322</v>
+        <v>12150</v>
       </c>
       <c r="D69" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69">
         <v>1</v>
-      </c>
-      <c r="F69" s="2">
-        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,16 +2621,16 @@
         <v>10000</v>
       </c>
       <c r="C71" s="1">
-        <v>9103</v>
+        <v>8100</v>
       </c>
       <c r="D71" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F71" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2607,16 +2641,16 @@
         <v>10000</v>
       </c>
       <c r="C72" s="1">
-        <v>9220</v>
+        <v>10450</v>
       </c>
       <c r="D72" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72" s="2">
         <v>9</v>
       </c>
       <c r="F72" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2627,16 +2661,16 @@
         <v>10000</v>
       </c>
       <c r="C73" s="1">
-        <v>6585</v>
+        <v>6300</v>
       </c>
       <c r="D73" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E73" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F73" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2647,16 +2681,16 @@
         <v>10000</v>
       </c>
       <c r="C74" s="1">
-        <v>10561</v>
+        <v>15300</v>
       </c>
       <c r="D74" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E74" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2670,16 +2704,16 @@
         <v>10000</v>
       </c>
       <c r="C75" s="1">
-        <v>11800</v>
+        <v>9900</v>
       </c>
       <c r="D75" s="2">
         <v>2</v>
       </c>
       <c r="E75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="2">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,16 +2724,16 @@
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>9580</v>
+        <v>9650</v>
       </c>
       <c r="D76" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F76" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2710,16 +2744,16 @@
         <v>10000</v>
       </c>
       <c r="C77" s="1">
-        <v>9320</v>
+        <v>12300</v>
       </c>
       <c r="D77" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E77" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,16 +2764,16 @@
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>8950</v>
+        <v>9600</v>
       </c>
       <c r="D78" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E78" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,16 +2784,16 @@
         <v>10000</v>
       </c>
       <c r="C79" s="1">
-        <v>8612</v>
+        <v>4900</v>
       </c>
       <c r="D79" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E79" s="2">
-        <v>24</v>
-      </c>
-      <c r="F79" s="2">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="F79" s="13">
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2770,16 +2804,16 @@
         <v>10000</v>
       </c>
       <c r="C80" s="1">
-        <v>9204</v>
+        <v>14150</v>
       </c>
       <c r="D80" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E80" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F80" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2790,16 +2824,16 @@
         <v>10000</v>
       </c>
       <c r="C81" s="1">
-        <v>9665</v>
+        <v>7300</v>
       </c>
       <c r="D81" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F81" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,20 +2844,18 @@
         <v>10000</v>
       </c>
       <c r="C82" s="1">
-        <v>16170</v>
+        <v>12050</v>
       </c>
       <c r="D82" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" s="2">
-        <v>66</v>
-      </c>
-      <c r="G82" s="11">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2833,16 +2865,16 @@
         <v>10000</v>
       </c>
       <c r="C83" s="1">
-        <v>10623</v>
+        <v>17850</v>
       </c>
       <c r="D83" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E83" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F83" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,16 +2885,16 @@
         <v>10000</v>
       </c>
       <c r="C84" s="1">
-        <v>8753</v>
+        <v>8100</v>
       </c>
       <c r="D84" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E84" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F84" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,16 +2905,16 @@
         <v>10000</v>
       </c>
       <c r="C85" s="1">
-        <v>10700</v>
+        <v>9910</v>
       </c>
       <c r="D85" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2">
         <v>9</v>
       </c>
       <c r="F85" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -2894,16 +2926,19 @@
         <v>10000</v>
       </c>
       <c r="C86" s="1">
-        <v>17050</v>
+        <v>13700</v>
       </c>
       <c r="D86" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E86" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F86" s="2">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2914,19 +2949,19 @@
         <v>10000</v>
       </c>
       <c r="C87" s="1">
-        <v>11146</v>
+        <v>16870</v>
       </c>
       <c r="D87" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2">
         <v>6</v>
       </c>
       <c r="F87" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,16 +3000,16 @@
         <v>10000</v>
       </c>
       <c r="C90" s="1">
-        <v>9070</v>
+        <v>7930</v>
       </c>
       <c r="D90" s="2">
         <v>7</v>
       </c>
       <c r="E90" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,16 +3020,16 @@
         <v>10000</v>
       </c>
       <c r="C91" s="1">
-        <v>30100</v>
+        <v>14800</v>
       </c>
       <c r="D91" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E91" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F91" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,16 +3040,16 @@
         <v>10000</v>
       </c>
       <c r="C92" s="1">
-        <v>10700</v>
+        <v>11950</v>
       </c>
       <c r="D92" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F92" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3039,7 +3074,7 @@
         <v>10000</v>
       </c>
       <c r="C94" s="1">
-        <v>10220</v>
+        <v>10970</v>
       </c>
       <c r="D94" s="2">
         <v>3</v>
@@ -3062,16 +3097,19 @@
         <v>10000</v>
       </c>
       <c r="C95" s="1">
-        <v>12700</v>
+        <v>12960</v>
       </c>
       <c r="D95" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
       </c>
       <c r="F95" s="2">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,16 +3120,16 @@
         <v>10000</v>
       </c>
       <c r="C96" s="1">
-        <v>11599</v>
+        <v>10900</v>
       </c>
       <c r="D96" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E96" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3105,7 +3143,7 @@
         <v>10000</v>
       </c>
       <c r="C97" s="1">
-        <v>10800</v>
+        <v>10980</v>
       </c>
       <c r="D97" s="2">
         <v>2</v>
@@ -3128,16 +3166,19 @@
         <v>10000</v>
       </c>
       <c r="C98" s="1">
-        <v>10809</v>
+        <v>15880</v>
       </c>
       <c r="D98" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E98" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" s="2">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3148,16 +3189,16 @@
         <v>10000</v>
       </c>
       <c r="C99" s="1">
-        <v>11025</v>
+        <v>21300</v>
       </c>
       <c r="D99" s="2">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E99" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F99" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,16 +3209,19 @@
         <v>10000</v>
       </c>
       <c r="C100" s="1">
-        <v>10220</v>
+        <v>14600</v>
       </c>
       <c r="D100" s="2">
+        <v>48</v>
+      </c>
+      <c r="E100" s="2">
         <v>34</v>
       </c>
-      <c r="E100" s="2">
-        <v>29</v>
-      </c>
       <c r="F100" s="2">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3188,7 +3232,7 @@
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>12849</v>
+        <v>15450</v>
       </c>
       <c r="D101" s="2">
         <v>21</v>
@@ -3211,16 +3255,16 @@
         <v>10000</v>
       </c>
       <c r="C102" s="1">
-        <v>10032</v>
+        <v>8950</v>
       </c>
       <c r="D102" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F102" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3231,19 +3275,19 @@
         <v>10000</v>
       </c>
       <c r="C103" s="1">
-        <v>12160</v>
+        <v>22500</v>
       </c>
       <c r="D103" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E103" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F103" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H103" s="3"/>
     </row>
@@ -3255,7 +3299,7 @@
         <v>10000</v>
       </c>
       <c r="C104" s="1">
-        <v>16664</v>
+        <v>14150</v>
       </c>
       <c r="D104" s="2">
         <v>17</v>
@@ -3278,16 +3322,19 @@
         <v>10000</v>
       </c>
       <c r="C105" s="1">
-        <v>8810</v>
+        <v>12150</v>
       </c>
       <c r="D105" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E105" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F105" s="2">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3298,16 +3345,16 @@
         <v>10000</v>
       </c>
       <c r="C106" s="1">
-        <v>9853</v>
+        <v>9200</v>
       </c>
       <c r="D106" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E106" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F106" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,16 +3365,16 @@
         <v>10000</v>
       </c>
       <c r="C107" s="1">
-        <v>7540</v>
+        <v>2960</v>
       </c>
       <c r="D107" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,16 +3385,19 @@
         <v>10000</v>
       </c>
       <c r="C108" s="1">
-        <v>7150</v>
+        <v>10900</v>
       </c>
       <c r="D108" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E108" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108" s="2">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,7 +3452,7 @@
         <v>10000</v>
       </c>
       <c r="C112" s="1">
-        <v>9770</v>
+        <v>9980</v>
       </c>
       <c r="D112" s="2">
         <v>5</v>
@@ -3422,7 +3472,7 @@
         <v>10000</v>
       </c>
       <c r="C113" s="1">
-        <v>8820</v>
+        <v>9950</v>
       </c>
       <c r="D113" s="2">
         <v>5</v>
@@ -3456,13 +3506,13 @@
         <v>10000</v>
       </c>
       <c r="C115" s="1">
-        <v>7780</v>
+        <v>5950</v>
       </c>
       <c r="D115" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F115" s="2">
         <v>36</v>
@@ -3476,16 +3526,19 @@
         <v>10000</v>
       </c>
       <c r="C116" s="1">
-        <v>9970</v>
+        <v>8890</v>
       </c>
       <c r="D116" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E116" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F116" s="2">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,19 +3549,16 @@
         <v>10000</v>
       </c>
       <c r="C117" s="1">
-        <v>9380</v>
+        <v>11900</v>
       </c>
       <c r="D117" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E117" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F117" s="2">
-        <v>54</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,7 +3584,7 @@
         <v>10000</v>
       </c>
       <c r="C119" s="1">
-        <v>6370</v>
+        <v>4980</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
@@ -3594,7 +3644,7 @@
         <v>10000</v>
       </c>
       <c r="C122" s="1">
-        <v>9874</v>
+        <v>9950</v>
       </c>
       <c r="D122" s="2">
         <v>11</v>
@@ -3603,7 +3653,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="2">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3614,7 +3664,7 @@
         <v>10000</v>
       </c>
       <c r="C123" s="1">
-        <v>10365</v>
+        <v>12150</v>
       </c>
       <c r="D123" s="2">
         <v>7</v>
@@ -3637,16 +3687,16 @@
         <v>10000</v>
       </c>
       <c r="C124" s="1">
-        <v>8740</v>
+        <v>8450</v>
       </c>
       <c r="D124" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E124" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F124" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G124" s="11"/>
     </row>
@@ -3661,13 +3711,13 @@
         <v>13000</v>
       </c>
       <c r="D125" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2">
         <v>6</v>
       </c>
       <c r="F125" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G125" s="2"/>
     </row>
@@ -3679,7 +3729,7 @@
         <v>10000</v>
       </c>
       <c r="C126" s="1">
-        <v>6830</v>
+        <v>3990</v>
       </c>
       <c r="D126" s="2">
         <v>1</v>
@@ -3700,16 +3750,16 @@
         <v>10000</v>
       </c>
       <c r="C127" s="1">
-        <v>11476</v>
+        <v>16550</v>
       </c>
       <c r="D127" s="2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E127" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F127" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G127" s="2">
         <v>2</v>
@@ -3723,16 +3773,16 @@
         <v>10000</v>
       </c>
       <c r="C128" s="1">
-        <v>8485</v>
+        <v>3950</v>
       </c>
       <c r="D128" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E128" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F128" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G128" s="2"/>
     </row>
@@ -3744,7 +3794,7 @@
         <v>10000</v>
       </c>
       <c r="C129" s="1">
-        <v>13200</v>
+        <v>13960</v>
       </c>
       <c r="D129" s="2">
         <v>4</v>
@@ -3765,7 +3815,7 @@
         <v>10000</v>
       </c>
       <c r="C130" s="1">
-        <v>11439</v>
+        <v>10980</v>
       </c>
       <c r="D130" s="2">
         <v>2</v>
@@ -3788,18 +3838,18 @@
         <v>10000</v>
       </c>
       <c r="C131" s="1">
-        <v>11530</v>
+        <v>14900</v>
       </c>
       <c r="D131" s="2">
-        <v>2</v>
-      </c>
-      <c r="E131" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E131" s="2">
+        <v>5</v>
+      </c>
       <c r="F131" s="2">
-        <v>100</v>
-      </c>
-      <c r="G131" s="2">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -3826,7 +3876,7 @@
         <v>10000</v>
       </c>
       <c r="C133" s="1">
-        <v>9650</v>
+        <v>8950</v>
       </c>
       <c r="D133" s="2">
         <v>5</v>
@@ -3847,39 +3897,44 @@
         <v>10000</v>
       </c>
       <c r="C134" s="1">
-        <v>9500</v>
+        <v>12920</v>
       </c>
       <c r="D134" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E134" s="2">
         <v>5</v>
       </c>
       <c r="F134" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>174</v>
+      <c r="A135" t="s">
+        <v>175</v>
       </c>
       <c r="B135" s="1">
         <v>10000</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
+      <c r="C135" s="1">
+        <v>12960</v>
+      </c>
+      <c r="D135" s="2">
+        <v>4</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>80</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>175</v>
-      </c>
-      <c r="B136" s="1">
-        <v>10000</v>
-      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4508,10 +4563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4521,9 +4576,10 @@
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -4537,10 +4593,13 @@
         <v>163</v>
       </c>
       <c r="E1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>126</v>
       </c>
@@ -4554,10 +4613,13 @@
         <v>156</v>
       </c>
       <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>126</v>
       </c>
@@ -4571,10 +4633,13 @@
         <v>156</v>
       </c>
       <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
@@ -4588,10 +4653,13 @@
         <v>156</v>
       </c>
       <c r="E4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>126</v>
       </c>
@@ -4605,10 +4673,13 @@
         <v>156</v>
       </c>
       <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>126</v>
       </c>
@@ -4622,10 +4693,13 @@
         <v>156</v>
       </c>
       <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>132</v>
       </c>
@@ -4639,10 +4713,13 @@
         <v>156</v>
       </c>
       <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>126</v>
       </c>
@@ -4656,10 +4733,13 @@
         <v>156</v>
       </c>
       <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>126</v>
       </c>
@@ -4673,10 +4753,13 @@
         <v>156</v>
       </c>
       <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>126</v>
       </c>
@@ -4690,10 +4773,13 @@
         <v>156</v>
       </c>
       <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>126</v>
       </c>
@@ -4707,11 +4793,14 @@
         <v>156</v>
       </c>
       <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -4725,11 +4814,14 @@
         <v>156</v>
       </c>
       <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -4743,10 +4835,13 @@
         <v>156</v>
       </c>
       <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>126</v>
       </c>
@@ -4760,10 +4855,13 @@
         <v>156</v>
       </c>
       <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>126</v>
       </c>
@@ -4777,10 +4875,13 @@
         <v>156</v>
       </c>
       <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>126</v>
       </c>
@@ -4794,10 +4895,13 @@
         <v>156</v>
       </c>
       <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>126</v>
       </c>
@@ -4811,10 +4915,13 @@
         <v>156</v>
       </c>
       <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>126</v>
       </c>
@@ -4828,10 +4935,13 @@
         <v>156</v>
       </c>
       <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>126</v>
       </c>
@@ -4845,10 +4955,13 @@
         <v>156</v>
       </c>
       <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>126</v>
       </c>
@@ -4862,10 +4975,13 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>126</v>
       </c>
@@ -4879,10 +4995,13 @@
         <v>156</v>
       </c>
       <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>126</v>
       </c>
@@ -4896,10 +5015,13 @@
         <v>156</v>
       </c>
       <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>126</v>
       </c>
@@ -4913,10 +5035,13 @@
         <v>156</v>
       </c>
       <c r="E23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>126</v>
       </c>
@@ -4930,10 +5055,13 @@
         <v>156</v>
       </c>
       <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>126</v>
       </c>
@@ -4947,10 +5075,13 @@
         <v>156</v>
       </c>
       <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>126</v>
       </c>
@@ -4964,10 +5095,13 @@
         <v>156</v>
       </c>
       <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>126</v>
       </c>
@@ -4981,10 +5115,13 @@
         <v>156</v>
       </c>
       <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>126</v>
       </c>
@@ -4998,11 +5135,14 @@
         <v>156</v>
       </c>
       <c r="E28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>126</v>
       </c>
@@ -5016,10 +5156,13 @@
         <v>156</v>
       </c>
       <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>126</v>
       </c>
@@ -5033,10 +5176,13 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>126</v>
       </c>
@@ -5050,10 +5196,13 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>126</v>
       </c>
@@ -5067,10 +5216,13 @@
         <v>156</v>
       </c>
       <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
@@ -5084,10 +5236,13 @@
         <v>156</v>
       </c>
       <c r="E33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>126</v>
       </c>
@@ -5101,10 +5256,13 @@
         <v>156</v>
       </c>
       <c r="E34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>126</v>
       </c>
@@ -5118,10 +5276,13 @@
         <v>156</v>
       </c>
       <c r="E35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>167</v>
@@ -5133,12 +5294,15 @@
         <v>156</v>
       </c>
       <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>167</v>
@@ -5150,10 +5314,13 @@
         <v>156</v>
       </c>
       <c r="E37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>126</v>
       </c>
@@ -5167,10 +5334,13 @@
         <v>156</v>
       </c>
       <c r="E38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>126</v>
       </c>
@@ -5184,10 +5354,13 @@
         <v>156</v>
       </c>
       <c r="E39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>126</v>
       </c>
@@ -5201,10 +5374,13 @@
         <v>156</v>
       </c>
       <c r="E40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>126</v>
       </c>
@@ -5218,10 +5394,13 @@
         <v>156</v>
       </c>
       <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>126</v>
       </c>
@@ -5235,10 +5414,13 @@
         <v>156</v>
       </c>
       <c r="E42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>126</v>
       </c>
@@ -5252,10 +5434,13 @@
         <v>156</v>
       </c>
       <c r="E43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>126</v>
       </c>
@@ -5269,10 +5454,13 @@
         <v>156</v>
       </c>
       <c r="E44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>126</v>
       </c>
@@ -5286,10 +5474,13 @@
         <v>156</v>
       </c>
       <c r="E45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>126</v>
       </c>
@@ -5303,10 +5494,13 @@
         <v>156</v>
       </c>
       <c r="E46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>126</v>
       </c>
@@ -5320,10 +5514,13 @@
         <v>156</v>
       </c>
       <c r="E47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>126</v>
       </c>
@@ -5337,10 +5534,13 @@
         <v>156</v>
       </c>
       <c r="E48" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>131</v>
       </c>
@@ -5354,10 +5554,13 @@
         <v>157</v>
       </c>
       <c r="E49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>126</v>
       </c>
@@ -5371,10 +5574,13 @@
         <v>157</v>
       </c>
       <c r="E50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>126</v>
       </c>
@@ -5388,10 +5594,13 @@
         <v>157</v>
       </c>
       <c r="E51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>126</v>
       </c>
@@ -5405,10 +5614,13 @@
         <v>157</v>
       </c>
       <c r="E52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>126</v>
       </c>
@@ -5422,10 +5634,13 @@
         <v>157</v>
       </c>
       <c r="E53" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>126</v>
       </c>
@@ -5439,10 +5654,13 @@
         <v>157</v>
       </c>
       <c r="E54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>126</v>
       </c>
@@ -5456,10 +5674,13 @@
         <v>157</v>
       </c>
       <c r="E55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>126</v>
       </c>
@@ -5473,10 +5694,13 @@
         <v>157</v>
       </c>
       <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>126</v>
       </c>
@@ -5490,10 +5714,13 @@
         <v>157</v>
       </c>
       <c r="E57" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>126</v>
       </c>
@@ -5507,10 +5734,13 @@
         <v>157</v>
       </c>
       <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>126</v>
       </c>
@@ -5524,10 +5754,13 @@
         <v>157</v>
       </c>
       <c r="E59" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
@@ -5541,10 +5774,13 @@
         <v>157</v>
       </c>
       <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>126</v>
       </c>
@@ -5558,10 +5794,13 @@
         <v>157</v>
       </c>
       <c r="E61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>126</v>
       </c>
@@ -5575,10 +5814,13 @@
         <v>157</v>
       </c>
       <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>126</v>
       </c>
@@ -5592,10 +5834,13 @@
         <v>157</v>
       </c>
       <c r="E63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
@@ -5609,10 +5854,13 @@
         <v>157</v>
       </c>
       <c r="E64" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>126</v>
       </c>
@@ -5626,10 +5874,13 @@
         <v>157</v>
       </c>
       <c r="E65" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>126</v>
       </c>
@@ -5643,10 +5894,13 @@
         <v>156</v>
       </c>
       <c r="E66" t="s">
+        <v>177</v>
+      </c>
+      <c r="F66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>126</v>
       </c>
@@ -5657,13 +5911,16 @@
         <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>126</v>
       </c>
@@ -5674,13 +5931,16 @@
         <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>126</v>
       </c>
@@ -5694,10 +5954,13 @@
         <v>156</v>
       </c>
       <c r="E69" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>126</v>
       </c>
@@ -5708,13 +5971,16 @@
         <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>126</v>
       </c>
@@ -5728,10 +5994,13 @@
         <v>156</v>
       </c>
       <c r="E71" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>126</v>
       </c>
@@ -5745,10 +6014,13 @@
         <v>156</v>
       </c>
       <c r="E72" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>126</v>
       </c>
@@ -5759,13 +6031,16 @@
         <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>126</v>
       </c>
@@ -5779,10 +6054,13 @@
         <v>156</v>
       </c>
       <c r="E74" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>126</v>
       </c>
@@ -5793,13 +6071,16 @@
         <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>126</v>
       </c>
@@ -5810,13 +6091,16 @@
         <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>126</v>
       </c>
@@ -5827,13 +6111,16 @@
         <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
+        <v>177</v>
+      </c>
+      <c r="F77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>126</v>
       </c>
@@ -5847,10 +6134,13 @@
         <v>158</v>
       </c>
       <c r="E78" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>126</v>
       </c>
@@ -5863,11 +6153,14 @@
       <c r="D79" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>126</v>
       </c>
@@ -5878,13 +6171,16 @@
         <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>131</v>
       </c>
@@ -5895,13 +6191,16 @@
         <v>154</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E81" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>131</v>
       </c>
@@ -5915,10 +6214,13 @@
         <v>158</v>
       </c>
       <c r="E82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>131</v>
       </c>
@@ -5932,10 +6234,13 @@
         <v>158</v>
       </c>
       <c r="E83" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>131</v>
       </c>
@@ -5949,10 +6254,13 @@
         <v>158</v>
       </c>
       <c r="E84" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>131</v>
       </c>
@@ -5966,10 +6274,13 @@
         <v>158</v>
       </c>
       <c r="E85" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>131</v>
       </c>
@@ -5983,10 +6294,13 @@
         <v>158</v>
       </c>
       <c r="E86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>131</v>
       </c>
@@ -6000,10 +6314,13 @@
         <v>158</v>
       </c>
       <c r="E87" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>131</v>
       </c>
@@ -6017,10 +6334,13 @@
         <v>158</v>
       </c>
       <c r="E88" t="s">
+        <v>177</v>
+      </c>
+      <c r="F88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>131</v>
       </c>
@@ -6034,10 +6354,13 @@
         <v>158</v>
       </c>
       <c r="E89" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>131</v>
       </c>
@@ -6048,13 +6371,16 @@
         <v>154</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>131</v>
       </c>
@@ -6068,10 +6394,13 @@
         <v>158</v>
       </c>
       <c r="E91" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>131</v>
       </c>
@@ -6085,10 +6414,13 @@
         <v>158</v>
       </c>
       <c r="E92" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>131</v>
       </c>
@@ -6102,10 +6434,13 @@
         <v>158</v>
       </c>
       <c r="E93" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>131</v>
       </c>
@@ -6119,11 +6454,14 @@
         <v>158</v>
       </c>
       <c r="E94" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>131</v>
       </c>
@@ -6137,10 +6475,13 @@
         <v>158</v>
       </c>
       <c r="E95" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>131</v>
       </c>
@@ -6154,10 +6495,13 @@
         <v>158</v>
       </c>
       <c r="E96" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -6171,10 +6515,13 @@
         <v>158</v>
       </c>
       <c r="E97" t="s">
+        <v>177</v>
+      </c>
+      <c r="F97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>131</v>
       </c>
@@ -6188,10 +6535,13 @@
         <v>158</v>
       </c>
       <c r="E98" t="s">
+        <v>177</v>
+      </c>
+      <c r="F98" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>131</v>
       </c>
@@ -6205,10 +6555,13 @@
         <v>158</v>
       </c>
       <c r="E99" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>131</v>
       </c>
@@ -6222,10 +6575,13 @@
         <v>158</v>
       </c>
       <c r="E100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F100" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>131</v>
       </c>
@@ -6239,10 +6595,13 @@
         <v>158</v>
       </c>
       <c r="E101" t="s">
+        <v>177</v>
+      </c>
+      <c r="F101" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>131</v>
       </c>
@@ -6256,10 +6615,13 @@
         <v>158</v>
       </c>
       <c r="E102" t="s">
+        <v>177</v>
+      </c>
+      <c r="F102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>131</v>
       </c>
@@ -6273,10 +6635,13 @@
         <v>158</v>
       </c>
       <c r="E103" t="s">
+        <v>177</v>
+      </c>
+      <c r="F103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>131</v>
       </c>
@@ -6290,10 +6655,13 @@
         <v>158</v>
       </c>
       <c r="E104" t="s">
+        <v>177</v>
+      </c>
+      <c r="F104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>131</v>
       </c>
@@ -6307,10 +6675,13 @@
         <v>158</v>
       </c>
       <c r="E105" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>131</v>
       </c>
@@ -6324,10 +6695,13 @@
         <v>158</v>
       </c>
       <c r="E106" t="s">
+        <v>177</v>
+      </c>
+      <c r="F106" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>131</v>
       </c>
@@ -6341,10 +6715,13 @@
         <v>158</v>
       </c>
       <c r="E107" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>131</v>
       </c>
@@ -6355,13 +6732,16 @@
         <v>154</v>
       </c>
       <c r="D108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
+        <v>177</v>
+      </c>
+      <c r="F108" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>131</v>
       </c>
@@ -6375,10 +6755,13 @@
         <v>158</v>
       </c>
       <c r="E109" t="s">
+        <v>177</v>
+      </c>
+      <c r="F109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>131</v>
       </c>
@@ -6392,10 +6775,13 @@
         <v>158</v>
       </c>
       <c r="E110" t="s">
+        <v>177</v>
+      </c>
+      <c r="F110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>131</v>
       </c>
@@ -6409,10 +6795,13 @@
         <v>158</v>
       </c>
       <c r="E111" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>131</v>
       </c>
@@ -6426,10 +6815,13 @@
         <v>158</v>
       </c>
       <c r="E112" t="s">
+        <v>177</v>
+      </c>
+      <c r="F112" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>131</v>
       </c>
@@ -6443,10 +6835,13 @@
         <v>158</v>
       </c>
       <c r="E113" t="s">
+        <v>177</v>
+      </c>
+      <c r="F113" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -6460,10 +6855,13 @@
         <v>158</v>
       </c>
       <c r="E114" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>131</v>
       </c>
@@ -6477,10 +6875,13 @@
         <v>158</v>
       </c>
       <c r="E115" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>131</v>
       </c>
@@ -6494,10 +6895,13 @@
         <v>158</v>
       </c>
       <c r="E116" t="s">
+        <v>177</v>
+      </c>
+      <c r="F116" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>132</v>
       </c>
@@ -6511,10 +6915,13 @@
         <v>159</v>
       </c>
       <c r="E117" t="s">
+        <v>177</v>
+      </c>
+      <c r="F117" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>132</v>
       </c>
@@ -6528,10 +6935,13 @@
         <v>159</v>
       </c>
       <c r="E118" t="s">
+        <v>177</v>
+      </c>
+      <c r="F118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>132</v>
       </c>
@@ -6545,10 +6955,13 @@
         <v>159</v>
       </c>
       <c r="E119" t="s">
+        <v>177</v>
+      </c>
+      <c r="F119" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>132</v>
       </c>
@@ -6562,10 +6975,13 @@
         <v>159</v>
       </c>
       <c r="E120" t="s">
+        <v>177</v>
+      </c>
+      <c r="F120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>132</v>
       </c>
@@ -6579,10 +6995,13 @@
         <v>159</v>
       </c>
       <c r="E121" t="s">
+        <v>177</v>
+      </c>
+      <c r="F121" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>131</v>
       </c>
@@ -6596,12 +7015,15 @@
         <v>158</v>
       </c>
       <c r="E122" t="s">
+        <v>177</v>
+      </c>
+      <c r="F122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
         <v>101</v>
@@ -6613,10 +7035,13 @@
         <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>131</v>
       </c>
@@ -6630,10 +7055,13 @@
         <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>131</v>
       </c>
@@ -6644,50 +7072,59 @@
         <v>154</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" t="s">
+        <v>152</v>
+      </c>
+      <c r="D126" t="s">
+        <v>157</v>
+      </c>
+      <c r="E126" t="s">
+        <v>177</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" t="s">
+        <v>157</v>
+      </c>
+      <c r="E127" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B126" t="s">
-        <v>101</v>
-      </c>
-      <c r="C126" t="s">
-        <v>154</v>
-      </c>
-      <c r="D126" t="s">
-        <v>158</v>
-      </c>
-      <c r="E126" t="s">
-        <v>170</v>
-      </c>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>99</v>
-      </c>
-      <c r="C127" t="s">
-        <v>152</v>
-      </c>
-      <c r="D127" t="s">
-        <v>156</v>
-      </c>
-      <c r="E127" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>101</v>
@@ -6699,10 +7136,13 @@
         <v>158</v>
       </c>
       <c r="E128" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>131</v>
       </c>
@@ -6715,24 +7155,10 @@
       <c r="D129" t="s">
         <v>158</v>
       </c>
-      <c r="E129" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" t="s">
-        <v>101</v>
-      </c>
-      <c r="C130" t="s">
-        <v>154</v>
-      </c>
-      <c r="D130" t="s">
-        <v>158</v>
-      </c>
-      <c r="E130" s="14" t="s">
+      <c r="E129" t="s">
+        <v>177</v>
+      </c>
+      <c r="F129" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6748,10 +7174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,7 +7236,7 @@
         <v>125</v>
       </c>
       <c r="B5" s="6">
-        <v>-1002018254333</v>
+        <v>-1002088477755</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>139</v>
@@ -6937,6 +7363,17 @@
       </c>
       <c r="C16" s="5" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="14">
+        <v>-1002155900039</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E46A535-9134-429D-A0FD-B1BF53EAA057}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F77240-28F3-46F5-A19E-581F0BB16B1F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="186">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -576,6 +576,27 @@
   </si>
   <si>
     <t>C:\Users\Administrator\EnviarTipsters\LuckyDealer.png</t>
+  </si>
+  <si>
+    <t>Grupo 6</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\EnviarTipsters\ReyPicks.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReyPicks </t>
+  </si>
+  <si>
+    <t>Master Octubre</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Retos</t>
+  </si>
+  <si>
+    <t>Gara</t>
   </si>
 </sst>
 </file>
@@ -629,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -694,12 +715,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -715,6 +747,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,14 +950,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:F129" totalsRowShown="0">
-  <autoFilter ref="A1:F129" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:G129" totalsRowShown="0">
+  <autoFilter ref="A1:G129" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
     <tableColumn id="8" xr3:uid="{FABE7E00-E818-43A0-A114-F7715817F336}" name="Grupo 5"/>
+    <tableColumn id="6" xr3:uid="{DD0B2E47-176F-4799-A85B-D5F9BF9A257D}" name="Grupo 6"/>
     <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Tipster"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -929,8 +966,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
     <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
@@ -4563,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,9 +4614,10 @@
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -4596,10 +4634,13 @@
         <v>176</v>
       </c>
       <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>126</v>
       </c>
@@ -4615,11 +4656,14 @@
       <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>126</v>
       </c>
@@ -4635,11 +4679,14 @@
       <c r="E3" t="s">
         <v>177</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
@@ -4655,11 +4702,14 @@
       <c r="E4" t="s">
         <v>177</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>126</v>
       </c>
@@ -4675,11 +4725,14 @@
       <c r="E5" t="s">
         <v>177</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>126</v>
       </c>
@@ -4695,11 +4748,14 @@
       <c r="E6" t="s">
         <v>177</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>132</v>
       </c>
@@ -4715,11 +4771,14 @@
       <c r="E7" t="s">
         <v>177</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>126</v>
       </c>
@@ -4735,11 +4794,14 @@
       <c r="E8" t="s">
         <v>177</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>126</v>
       </c>
@@ -4755,11 +4817,12 @@
       <c r="E9" t="s">
         <v>177</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>126</v>
       </c>
@@ -4775,11 +4838,14 @@
       <c r="E10" t="s">
         <v>177</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>126</v>
       </c>
@@ -4795,12 +4861,15 @@
       <c r="E11" t="s">
         <v>177</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -4816,12 +4885,15 @@
       <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -4837,11 +4909,14 @@
       <c r="E13" t="s">
         <v>177</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>126</v>
       </c>
@@ -4857,11 +4932,12 @@
       <c r="E14" t="s">
         <v>177</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>126</v>
       </c>
@@ -4877,11 +4953,14 @@
       <c r="E15" t="s">
         <v>177</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>126</v>
       </c>
@@ -4897,11 +4976,12 @@
       <c r="E16" t="s">
         <v>177</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>126</v>
       </c>
@@ -4917,11 +4997,12 @@
       <c r="E17" t="s">
         <v>177</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>126</v>
       </c>
@@ -4937,11 +5018,14 @@
       <c r="E18" t="s">
         <v>177</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>126</v>
       </c>
@@ -4957,11 +5041,14 @@
       <c r="E19" t="s">
         <v>177</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>126</v>
       </c>
@@ -4977,11 +5064,14 @@
       <c r="E20" t="s">
         <v>177</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>126</v>
       </c>
@@ -4997,11 +5087,14 @@
       <c r="E21" t="s">
         <v>177</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>126</v>
       </c>
@@ -5017,11 +5110,14 @@
       <c r="E22" t="s">
         <v>177</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>126</v>
       </c>
@@ -5037,11 +5133,14 @@
       <c r="E23" t="s">
         <v>177</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>126</v>
       </c>
@@ -5057,11 +5156,14 @@
       <c r="E24" t="s">
         <v>177</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>126</v>
       </c>
@@ -5077,11 +5179,14 @@
       <c r="E25" t="s">
         <v>177</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>126</v>
       </c>
@@ -5097,11 +5202,14 @@
       <c r="E26" t="s">
         <v>177</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>126</v>
       </c>
@@ -5117,11 +5225,14 @@
       <c r="E27" t="s">
         <v>177</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>126</v>
       </c>
@@ -5137,12 +5248,15 @@
       <c r="E28" t="s">
         <v>177</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>126</v>
       </c>
@@ -5158,11 +5272,14 @@
       <c r="E29" t="s">
         <v>177</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>126</v>
       </c>
@@ -5178,11 +5295,14 @@
       <c r="E30" t="s">
         <v>177</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>126</v>
       </c>
@@ -5198,11 +5318,14 @@
       <c r="E31" t="s">
         <v>177</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>126</v>
       </c>
@@ -5218,11 +5341,14 @@
       <c r="E32" t="s">
         <v>177</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
@@ -5238,11 +5364,14 @@
       <c r="E33" t="s">
         <v>177</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>126</v>
       </c>
@@ -5258,11 +5387,14 @@
       <c r="E34" t="s">
         <v>177</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>126</v>
       </c>
@@ -5278,11 +5410,14 @@
       <c r="E35" t="s">
         <v>177</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>167</v>
@@ -5296,11 +5431,14 @@
       <c r="E36" t="s">
         <v>177</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>131</v>
       </c>
@@ -5316,11 +5454,14 @@
       <c r="E37" t="s">
         <v>177</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>126</v>
       </c>
@@ -5336,11 +5477,12 @@
       <c r="E38" t="s">
         <v>177</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>126</v>
       </c>
@@ -5356,11 +5498,14 @@
       <c r="E39" t="s">
         <v>177</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>126</v>
       </c>
@@ -5376,11 +5521,14 @@
       <c r="E40" t="s">
         <v>177</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>126</v>
       </c>
@@ -5396,11 +5544,14 @@
       <c r="E41" t="s">
         <v>177</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>126</v>
       </c>
@@ -5416,11 +5567,14 @@
       <c r="E42" t="s">
         <v>177</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>126</v>
       </c>
@@ -5436,11 +5590,14 @@
       <c r="E43" t="s">
         <v>177</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>126</v>
       </c>
@@ -5456,11 +5613,14 @@
       <c r="E44" t="s">
         <v>177</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>126</v>
       </c>
@@ -5476,11 +5636,14 @@
       <c r="E45" t="s">
         <v>177</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>126</v>
       </c>
@@ -5496,11 +5659,14 @@
       <c r="E46" t="s">
         <v>177</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>126</v>
       </c>
@@ -5516,11 +5682,14 @@
       <c r="E47" t="s">
         <v>177</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>126</v>
       </c>
@@ -5536,11 +5705,14 @@
       <c r="E48" t="s">
         <v>177</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>131</v>
       </c>
@@ -5556,11 +5728,11 @@
       <c r="E49" t="s">
         <v>177</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>126</v>
       </c>
@@ -5576,11 +5748,11 @@
       <c r="E50" t="s">
         <v>177</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>126</v>
       </c>
@@ -5596,11 +5768,11 @@
       <c r="E51" t="s">
         <v>177</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>126</v>
       </c>
@@ -5616,11 +5788,11 @@
       <c r="E52" t="s">
         <v>177</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>126</v>
       </c>
@@ -5636,11 +5808,11 @@
       <c r="E53" t="s">
         <v>177</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>126</v>
       </c>
@@ -5656,11 +5828,11 @@
       <c r="E54" t="s">
         <v>177</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>126</v>
       </c>
@@ -5676,11 +5848,11 @@
       <c r="E55" t="s">
         <v>177</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>126</v>
       </c>
@@ -5696,11 +5868,11 @@
       <c r="E56" t="s">
         <v>177</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>126</v>
       </c>
@@ -5716,11 +5888,11 @@
       <c r="E57" t="s">
         <v>177</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>126</v>
       </c>
@@ -5736,11 +5908,11 @@
       <c r="E58" t="s">
         <v>177</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>126</v>
       </c>
@@ -5756,11 +5928,11 @@
       <c r="E59" t="s">
         <v>177</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
@@ -5776,11 +5948,11 @@
       <c r="E60" t="s">
         <v>177</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>126</v>
       </c>
@@ -5796,11 +5968,11 @@
       <c r="E61" t="s">
         <v>177</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>126</v>
       </c>
@@ -5816,11 +5988,11 @@
       <c r="E62" t="s">
         <v>177</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>126</v>
       </c>
@@ -5836,11 +6008,11 @@
       <c r="E63" t="s">
         <v>177</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
@@ -5856,11 +6028,11 @@
       <c r="E64" t="s">
         <v>177</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>126</v>
       </c>
@@ -5876,11 +6048,11 @@
       <c r="E65" t="s">
         <v>177</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>126</v>
       </c>
@@ -5896,11 +6068,11 @@
       <c r="E66" t="s">
         <v>177</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>126</v>
       </c>
@@ -5916,11 +6088,11 @@
       <c r="E67" t="s">
         <v>177</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>126</v>
       </c>
@@ -5936,11 +6108,11 @@
       <c r="E68" t="s">
         <v>177</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>126</v>
       </c>
@@ -5956,11 +6128,11 @@
       <c r="E69" t="s">
         <v>177</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>126</v>
       </c>
@@ -5976,11 +6148,11 @@
       <c r="E70" t="s">
         <v>177</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>126</v>
       </c>
@@ -5996,11 +6168,11 @@
       <c r="E71" t="s">
         <v>177</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>126</v>
       </c>
@@ -6016,11 +6188,11 @@
       <c r="E72" t="s">
         <v>177</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>126</v>
       </c>
@@ -6036,11 +6208,11 @@
       <c r="E73" t="s">
         <v>177</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>126</v>
       </c>
@@ -6056,11 +6228,11 @@
       <c r="E74" t="s">
         <v>177</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>126</v>
       </c>
@@ -6076,11 +6248,11 @@
       <c r="E75" t="s">
         <v>177</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>126</v>
       </c>
@@ -6096,11 +6268,11 @@
       <c r="E76" t="s">
         <v>177</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>126</v>
       </c>
@@ -6116,11 +6288,11 @@
       <c r="E77" t="s">
         <v>177</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>126</v>
       </c>
@@ -6136,11 +6308,11 @@
       <c r="E78" t="s">
         <v>177</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>126</v>
       </c>
@@ -6156,11 +6328,11 @@
       <c r="E79" t="s">
         <v>177</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="G79" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>126</v>
       </c>
@@ -6176,11 +6348,11 @@
       <c r="E80" t="s">
         <v>177</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>131</v>
       </c>
@@ -6196,11 +6368,11 @@
       <c r="E81" t="s">
         <v>177</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>131</v>
       </c>
@@ -6216,11 +6388,11 @@
       <c r="E82" t="s">
         <v>177</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>131</v>
       </c>
@@ -6236,11 +6408,11 @@
       <c r="E83" t="s">
         <v>177</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>131</v>
       </c>
@@ -6256,11 +6428,11 @@
       <c r="E84" t="s">
         <v>177</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>131</v>
       </c>
@@ -6276,11 +6448,11 @@
       <c r="E85" t="s">
         <v>177</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>131</v>
       </c>
@@ -6296,11 +6468,11 @@
       <c r="E86" t="s">
         <v>177</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>131</v>
       </c>
@@ -6316,11 +6488,11 @@
       <c r="E87" t="s">
         <v>177</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>131</v>
       </c>
@@ -6336,11 +6508,11 @@
       <c r="E88" t="s">
         <v>177</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>131</v>
       </c>
@@ -6356,11 +6528,11 @@
       <c r="E89" t="s">
         <v>177</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>131</v>
       </c>
@@ -6376,11 +6548,11 @@
       <c r="E90" t="s">
         <v>177</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>131</v>
       </c>
@@ -6396,11 +6568,11 @@
       <c r="E91" t="s">
         <v>177</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>131</v>
       </c>
@@ -6416,11 +6588,11 @@
       <c r="E92" t="s">
         <v>177</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>131</v>
       </c>
@@ -6436,11 +6608,11 @@
       <c r="E93" t="s">
         <v>177</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>131</v>
       </c>
@@ -6456,12 +6628,12 @@
       <c r="E94" t="s">
         <v>177</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>58</v>
       </c>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>131</v>
       </c>
@@ -6477,11 +6649,11 @@
       <c r="E95" t="s">
         <v>177</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>131</v>
       </c>
@@ -6497,11 +6669,11 @@
       <c r="E96" t="s">
         <v>177</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -6517,11 +6689,11 @@
       <c r="E97" t="s">
         <v>177</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>131</v>
       </c>
@@ -6537,11 +6709,11 @@
       <c r="E98" t="s">
         <v>177</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>131</v>
       </c>
@@ -6557,11 +6729,11 @@
       <c r="E99" t="s">
         <v>177</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>131</v>
       </c>
@@ -6577,11 +6749,11 @@
       <c r="E100" t="s">
         <v>177</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>131</v>
       </c>
@@ -6597,11 +6769,11 @@
       <c r="E101" t="s">
         <v>177</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>131</v>
       </c>
@@ -6617,11 +6789,11 @@
       <c r="E102" t="s">
         <v>177</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>131</v>
       </c>
@@ -6637,11 +6809,11 @@
       <c r="E103" t="s">
         <v>177</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>131</v>
       </c>
@@ -6657,11 +6829,11 @@
       <c r="E104" t="s">
         <v>177</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>131</v>
       </c>
@@ -6677,11 +6849,11 @@
       <c r="E105" t="s">
         <v>177</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>131</v>
       </c>
@@ -6697,11 +6869,11 @@
       <c r="E106" t="s">
         <v>177</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>131</v>
       </c>
@@ -6717,11 +6889,11 @@
       <c r="E107" t="s">
         <v>177</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>131</v>
       </c>
@@ -6737,11 +6909,11 @@
       <c r="E108" t="s">
         <v>177</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>131</v>
       </c>
@@ -6757,11 +6929,11 @@
       <c r="E109" t="s">
         <v>177</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>131</v>
       </c>
@@ -6777,11 +6949,11 @@
       <c r="E110" t="s">
         <v>177</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>131</v>
       </c>
@@ -6797,11 +6969,11 @@
       <c r="E111" t="s">
         <v>177</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>131</v>
       </c>
@@ -6817,11 +6989,11 @@
       <c r="E112" t="s">
         <v>177</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>131</v>
       </c>
@@ -6837,11 +7009,11 @@
       <c r="E113" t="s">
         <v>177</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -6857,11 +7029,11 @@
       <c r="E114" t="s">
         <v>177</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>131</v>
       </c>
@@ -6877,11 +7049,11 @@
       <c r="E115" t="s">
         <v>177</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>131</v>
       </c>
@@ -6897,11 +7069,11 @@
       <c r="E116" t="s">
         <v>177</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>132</v>
       </c>
@@ -6917,11 +7089,11 @@
       <c r="E117" t="s">
         <v>177</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>132</v>
       </c>
@@ -6937,11 +7109,11 @@
       <c r="E118" t="s">
         <v>177</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>132</v>
       </c>
@@ -6957,11 +7129,11 @@
       <c r="E119" t="s">
         <v>177</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>132</v>
       </c>
@@ -6977,11 +7149,11 @@
       <c r="E120" t="s">
         <v>177</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>132</v>
       </c>
@@ -6997,11 +7169,11 @@
       <c r="E121" t="s">
         <v>177</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>131</v>
       </c>
@@ -7017,11 +7189,11 @@
       <c r="E122" t="s">
         <v>177</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>131</v>
       </c>
@@ -7037,11 +7209,11 @@
       <c r="E123" t="s">
         <v>177</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>131</v>
       </c>
@@ -7057,11 +7229,11 @@
       <c r="E124" t="s">
         <v>177</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>131</v>
       </c>
@@ -7077,11 +7249,11 @@
       <c r="E125" t="s">
         <v>177</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>126</v>
       </c>
@@ -7097,12 +7269,12 @@
       <c r="E126" t="s">
         <v>177</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>49</v>
       </c>
-      <c r="H126" s="3"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>126</v>
       </c>
@@ -7118,11 +7290,11 @@
       <c r="E127" t="s">
         <v>177</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>131</v>
       </c>
@@ -7138,11 +7310,11 @@
       <c r="E128" t="s">
         <v>177</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>131</v>
       </c>
@@ -7158,7 +7330,7 @@
       <c r="E129" t="s">
         <v>177</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7174,10 +7346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7376,6 +7548,20 @@
         <v>178</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="16">
+        <v>-2247918484</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7388,13 +7574,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8322463-DDB4-408E-9911-272820B4360D}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
@@ -7636,6 +7825,35 @@
         <v>166</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37">
+        <v>-1002402556424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38">
+        <v>-1002367221793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39">
+        <v>-1002383589094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F77240-28F3-46F5-A19E-581F0BB16B1F}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7040042-B290-44CB-8893-966D5CCDF686}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="5370" yWindow="1485" windowWidth="16515" windowHeight="12345" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="184">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -572,21 +572,9 @@
     <t>Grupo 5</t>
   </si>
   <si>
-    <t>LuckyDealer</t>
-  </si>
-  <si>
     <t>C:\Users\Administrator\EnviarTipsters\LuckyDealer.png</t>
   </si>
   <si>
-    <t>Grupo 6</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\EnviarTipsters\ReyPicks.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReyPicks </t>
-  </si>
-  <si>
     <t>Master Octubre</t>
   </si>
   <si>
@@ -597,6 +585,12 @@
   </si>
   <si>
     <t>Gara</t>
+  </si>
+  <si>
+    <t>LuckyDealer mexicanos</t>
+  </si>
+  <si>
+    <t>LuckyDealer extranjeros</t>
   </si>
 </sst>
 </file>
@@ -650,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -715,23 +709,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -747,10 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,15 +930,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:G129" totalsRowShown="0">
-  <autoFilter ref="A1:G129" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:F129" totalsRowShown="0">
+  <autoFilter ref="A1:F129" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
     <tableColumn id="8" xr3:uid="{FABE7E00-E818-43A0-A114-F7715817F336}" name="Grupo 5"/>
-    <tableColumn id="6" xr3:uid="{DD0B2E47-176F-4799-A85B-D5F9BF9A257D}" name="Grupo 6"/>
     <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Tipster"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1296,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4600,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,7 +4596,7 @@
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -4634,13 +4613,10 @@
         <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>126</v>
       </c>
@@ -4654,16 +4630,13 @@
         <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>126</v>
       </c>
@@ -4677,16 +4650,13 @@
         <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
@@ -4700,16 +4670,13 @@
         <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>126</v>
       </c>
@@ -4723,16 +4690,13 @@
         <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>126</v>
       </c>
@@ -4746,16 +4710,13 @@
         <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>132</v>
       </c>
@@ -4769,16 +4730,13 @@
         <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>126</v>
       </c>
@@ -4792,16 +4750,13 @@
         <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>126</v>
       </c>
@@ -4815,14 +4770,13 @@
         <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>126</v>
       </c>
@@ -4836,16 +4790,13 @@
         <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>126</v>
       </c>
@@ -4859,17 +4810,14 @@
         <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -4883,17 +4831,14 @@
         <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -4907,16 +4852,13 @@
         <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>126</v>
       </c>
@@ -4930,14 +4872,13 @@
         <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>126</v>
       </c>
@@ -4951,16 +4892,13 @@
         <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>126</v>
       </c>
@@ -4974,14 +4912,13 @@
         <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>126</v>
       </c>
@@ -4995,14 +4932,13 @@
         <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>126</v>
       </c>
@@ -5016,16 +4952,13 @@
         <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>126</v>
       </c>
@@ -5039,16 +4972,13 @@
         <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>126</v>
       </c>
@@ -5062,16 +4992,13 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>126</v>
       </c>
@@ -5085,16 +5012,13 @@
         <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>126</v>
       </c>
@@ -5108,16 +5032,13 @@
         <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>126</v>
       </c>
@@ -5131,16 +5052,13 @@
         <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>126</v>
       </c>
@@ -5154,16 +5072,13 @@
         <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>126</v>
       </c>
@@ -5177,16 +5092,13 @@
         <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>126</v>
       </c>
@@ -5200,16 +5112,13 @@
         <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>126</v>
       </c>
@@ -5223,16 +5132,13 @@
         <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>126</v>
       </c>
@@ -5246,17 +5152,14 @@
         <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>126</v>
       </c>
@@ -5270,16 +5173,13 @@
         <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>126</v>
       </c>
@@ -5293,16 +5193,13 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>126</v>
       </c>
@@ -5316,16 +5213,13 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>126</v>
       </c>
@@ -5339,16 +5233,13 @@
         <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
@@ -5362,16 +5253,13 @@
         <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>126</v>
       </c>
@@ -5385,16 +5273,13 @@
         <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>126</v>
       </c>
@@ -5408,16 +5293,13 @@
         <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>167</v>
@@ -5429,16 +5311,13 @@
         <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>131</v>
       </c>
@@ -5452,16 +5331,13 @@
         <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>126</v>
       </c>
@@ -5475,14 +5351,13 @@
         <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>126</v>
       </c>
@@ -5496,16 +5371,13 @@
         <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>126</v>
       </c>
@@ -5519,16 +5391,13 @@
         <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>126</v>
       </c>
@@ -5542,16 +5411,13 @@
         <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>126</v>
       </c>
@@ -5565,16 +5431,13 @@
         <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>126</v>
       </c>
@@ -5588,16 +5451,13 @@
         <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>126</v>
       </c>
@@ -5611,16 +5471,13 @@
         <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>126</v>
       </c>
@@ -5634,16 +5491,13 @@
         <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>126</v>
       </c>
@@ -5657,16 +5511,13 @@
         <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>126</v>
       </c>
@@ -5680,16 +5531,13 @@
         <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>126</v>
       </c>
@@ -5703,16 +5551,13 @@
         <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>131</v>
       </c>
@@ -5726,13 +5571,13 @@
         <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>126</v>
       </c>
@@ -5746,13 +5591,13 @@
         <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>126</v>
       </c>
@@ -5766,13 +5611,13 @@
         <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>126</v>
       </c>
@@ -5786,13 +5631,13 @@
         <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>126</v>
       </c>
@@ -5806,13 +5651,13 @@
         <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
-      </c>
-      <c r="G53" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>126</v>
       </c>
@@ -5826,13 +5671,13 @@
         <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
-      </c>
-      <c r="G54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>126</v>
       </c>
@@ -5846,13 +5691,13 @@
         <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
-      </c>
-      <c r="G55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>126</v>
       </c>
@@ -5866,13 +5711,13 @@
         <v>157</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
-      </c>
-      <c r="G56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>126</v>
       </c>
@@ -5886,13 +5731,13 @@
         <v>157</v>
       </c>
       <c r="E57" t="s">
-        <v>177</v>
-      </c>
-      <c r="G57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>126</v>
       </c>
@@ -5906,13 +5751,13 @@
         <v>157</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>126</v>
       </c>
@@ -5926,13 +5771,13 @@
         <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
-      </c>
-      <c r="G59" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
@@ -5946,13 +5791,13 @@
         <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
-      </c>
-      <c r="G60" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>126</v>
       </c>
@@ -5966,13 +5811,13 @@
         <v>157</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>126</v>
       </c>
@@ -5986,13 +5831,13 @@
         <v>157</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>126</v>
       </c>
@@ -6006,13 +5851,13 @@
         <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
-      </c>
-      <c r="G63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
@@ -6026,13 +5871,13 @@
         <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>126</v>
       </c>
@@ -6046,13 +5891,13 @@
         <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
-      </c>
-      <c r="G65" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>126</v>
       </c>
@@ -6066,13 +5911,13 @@
         <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>177</v>
-      </c>
-      <c r="G66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>126</v>
       </c>
@@ -6086,13 +5931,13 @@
         <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>126</v>
       </c>
@@ -6106,13 +5951,13 @@
         <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>126</v>
       </c>
@@ -6126,13 +5971,13 @@
         <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
-      </c>
-      <c r="G69" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>126</v>
       </c>
@@ -6146,13 +5991,13 @@
         <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>177</v>
-      </c>
-      <c r="G70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>126</v>
       </c>
@@ -6166,13 +6011,13 @@
         <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
-      </c>
-      <c r="G71" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>126</v>
       </c>
@@ -6186,13 +6031,13 @@
         <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>177</v>
-      </c>
-      <c r="G72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>126</v>
       </c>
@@ -6206,13 +6051,13 @@
         <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>126</v>
       </c>
@@ -6226,13 +6071,13 @@
         <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>177</v>
-      </c>
-      <c r="G74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>126</v>
       </c>
@@ -6246,13 +6091,13 @@
         <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>126</v>
       </c>
@@ -6266,13 +6111,13 @@
         <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>177</v>
-      </c>
-      <c r="G76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>126</v>
       </c>
@@ -6286,13 +6131,13 @@
         <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>177</v>
-      </c>
-      <c r="G77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>126</v>
       </c>
@@ -6306,13 +6151,13 @@
         <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>177</v>
-      </c>
-      <c r="G78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>126</v>
       </c>
@@ -6326,13 +6171,13 @@
         <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
-      </c>
-      <c r="G79" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>126</v>
       </c>
@@ -6346,13 +6191,13 @@
         <v>157</v>
       </c>
       <c r="E80" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>131</v>
       </c>
@@ -6366,13 +6211,13 @@
         <v>157</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
-      </c>
-      <c r="G81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>131</v>
       </c>
@@ -6386,13 +6231,13 @@
         <v>158</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
-      </c>
-      <c r="G82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>131</v>
       </c>
@@ -6406,13 +6251,13 @@
         <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>177</v>
-      </c>
-      <c r="G83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>131</v>
       </c>
@@ -6426,13 +6271,13 @@
         <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>177</v>
-      </c>
-      <c r="G84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>131</v>
       </c>
@@ -6446,13 +6291,13 @@
         <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
-      </c>
-      <c r="G85" t="s">
+        <v>182</v>
+      </c>
+      <c r="F85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>131</v>
       </c>
@@ -6466,13 +6311,13 @@
         <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>177</v>
-      </c>
-      <c r="G86" t="s">
+        <v>182</v>
+      </c>
+      <c r="F86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>131</v>
       </c>
@@ -6486,13 +6331,13 @@
         <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>177</v>
-      </c>
-      <c r="G87" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>131</v>
       </c>
@@ -6506,13 +6351,13 @@
         <v>158</v>
       </c>
       <c r="E88" t="s">
-        <v>177</v>
-      </c>
-      <c r="G88" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>131</v>
       </c>
@@ -6526,13 +6371,13 @@
         <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
-      </c>
-      <c r="G89" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>131</v>
       </c>
@@ -6546,13 +6391,13 @@
         <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
-      </c>
-      <c r="G90" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>131</v>
       </c>
@@ -6566,13 +6411,13 @@
         <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
-      </c>
-      <c r="G91" t="s">
+        <v>183</v>
+      </c>
+      <c r="F91" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>131</v>
       </c>
@@ -6586,13 +6431,13 @@
         <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
-      </c>
-      <c r="G92" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>131</v>
       </c>
@@ -6606,13 +6451,13 @@
         <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
-      </c>
-      <c r="G93" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>131</v>
       </c>
@@ -6626,14 +6471,14 @@
         <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
-      </c>
-      <c r="G94" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" t="s">
         <v>58</v>
       </c>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>131</v>
       </c>
@@ -6647,13 +6492,13 @@
         <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
-      </c>
-      <c r="G95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>131</v>
       </c>
@@ -6667,13 +6512,13 @@
         <v>158</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
-      </c>
-      <c r="G96" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -6687,13 +6532,13 @@
         <v>158</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
-      </c>
-      <c r="G97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>131</v>
       </c>
@@ -6707,13 +6552,13 @@
         <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
-      </c>
-      <c r="G98" t="s">
+        <v>183</v>
+      </c>
+      <c r="F98" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>131</v>
       </c>
@@ -6727,13 +6572,13 @@
         <v>158</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
-      </c>
-      <c r="G99" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>131</v>
       </c>
@@ -6747,13 +6592,13 @@
         <v>158</v>
       </c>
       <c r="E100" t="s">
-        <v>177</v>
-      </c>
-      <c r="G100" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>131</v>
       </c>
@@ -6767,13 +6612,13 @@
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>177</v>
-      </c>
-      <c r="G101" t="s">
+        <v>183</v>
+      </c>
+      <c r="F101" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>131</v>
       </c>
@@ -6787,13 +6632,13 @@
         <v>158</v>
       </c>
       <c r="E102" t="s">
-        <v>177</v>
-      </c>
-      <c r="G102" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>131</v>
       </c>
@@ -6807,13 +6652,13 @@
         <v>158</v>
       </c>
       <c r="E103" t="s">
-        <v>177</v>
-      </c>
-      <c r="G103" t="s">
+        <v>183</v>
+      </c>
+      <c r="F103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>131</v>
       </c>
@@ -6827,13 +6672,13 @@
         <v>158</v>
       </c>
       <c r="E104" t="s">
-        <v>177</v>
-      </c>
-      <c r="G104" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>131</v>
       </c>
@@ -6847,13 +6692,13 @@
         <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>177</v>
-      </c>
-      <c r="G105" t="s">
+        <v>183</v>
+      </c>
+      <c r="F105" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>131</v>
       </c>
@@ -6867,13 +6712,13 @@
         <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>177</v>
-      </c>
-      <c r="G106" t="s">
+        <v>183</v>
+      </c>
+      <c r="F106" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>131</v>
       </c>
@@ -6887,13 +6732,13 @@
         <v>158</v>
       </c>
       <c r="E107" t="s">
-        <v>177</v>
-      </c>
-      <c r="G107" t="s">
+        <v>183</v>
+      </c>
+      <c r="F107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>131</v>
       </c>
@@ -6907,13 +6752,13 @@
         <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>177</v>
-      </c>
-      <c r="G108" t="s">
+        <v>183</v>
+      </c>
+      <c r="F108" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>131</v>
       </c>
@@ -6927,13 +6772,13 @@
         <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>177</v>
-      </c>
-      <c r="G109" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>131</v>
       </c>
@@ -6947,13 +6792,13 @@
         <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
-      </c>
-      <c r="G110" t="s">
+        <v>183</v>
+      </c>
+      <c r="F110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>131</v>
       </c>
@@ -6967,13 +6812,13 @@
         <v>158</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
-      </c>
-      <c r="G111" t="s">
+        <v>183</v>
+      </c>
+      <c r="F111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>131</v>
       </c>
@@ -6987,13 +6832,13 @@
         <v>158</v>
       </c>
       <c r="E112" t="s">
-        <v>177</v>
-      </c>
-      <c r="G112" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>131</v>
       </c>
@@ -7007,13 +6852,13 @@
         <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>177</v>
-      </c>
-      <c r="G113" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -7027,13 +6872,13 @@
         <v>158</v>
       </c>
       <c r="E114" t="s">
-        <v>177</v>
-      </c>
-      <c r="G114" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>131</v>
       </c>
@@ -7047,13 +6892,13 @@
         <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>177</v>
-      </c>
-      <c r="G115" t="s">
+        <v>183</v>
+      </c>
+      <c r="F115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>131</v>
       </c>
@@ -7067,13 +6912,13 @@
         <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>177</v>
-      </c>
-      <c r="G116" t="s">
+        <v>183</v>
+      </c>
+      <c r="F116" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>132</v>
       </c>
@@ -7087,13 +6932,13 @@
         <v>159</v>
       </c>
       <c r="E117" t="s">
-        <v>177</v>
-      </c>
-      <c r="G117" t="s">
+        <v>182</v>
+      </c>
+      <c r="F117" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>132</v>
       </c>
@@ -7107,13 +6952,13 @@
         <v>159</v>
       </c>
       <c r="E118" t="s">
-        <v>177</v>
-      </c>
-      <c r="G118" t="s">
+        <v>182</v>
+      </c>
+      <c r="F118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>132</v>
       </c>
@@ -7127,13 +6972,13 @@
         <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>177</v>
-      </c>
-      <c r="G119" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>132</v>
       </c>
@@ -7147,13 +6992,13 @@
         <v>159</v>
       </c>
       <c r="E120" t="s">
-        <v>177</v>
-      </c>
-      <c r="G120" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>132</v>
       </c>
@@ -7167,13 +7012,13 @@
         <v>159</v>
       </c>
       <c r="E121" t="s">
-        <v>177</v>
-      </c>
-      <c r="G121" t="s">
+        <v>182</v>
+      </c>
+      <c r="F121" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>131</v>
       </c>
@@ -7187,13 +7032,13 @@
         <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>177</v>
-      </c>
-      <c r="G122" t="s">
+        <v>183</v>
+      </c>
+      <c r="F122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>131</v>
       </c>
@@ -7207,13 +7052,13 @@
         <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>177</v>
-      </c>
-      <c r="G123" t="s">
+        <v>183</v>
+      </c>
+      <c r="F123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>131</v>
       </c>
@@ -7227,13 +7072,13 @@
         <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>177</v>
-      </c>
-      <c r="G124" t="s">
+        <v>183</v>
+      </c>
+      <c r="F124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>131</v>
       </c>
@@ -7247,13 +7092,13 @@
         <v>157</v>
       </c>
       <c r="E125" t="s">
-        <v>177</v>
-      </c>
-      <c r="G125" t="s">
+        <v>183</v>
+      </c>
+      <c r="F125" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>126</v>
       </c>
@@ -7267,14 +7112,14 @@
         <v>157</v>
       </c>
       <c r="E126" t="s">
-        <v>177</v>
-      </c>
-      <c r="G126" t="s">
+        <v>183</v>
+      </c>
+      <c r="F126" t="s">
         <v>49</v>
       </c>
-      <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>126</v>
       </c>
@@ -7288,13 +7133,13 @@
         <v>157</v>
       </c>
       <c r="E127" t="s">
-        <v>177</v>
-      </c>
-      <c r="G127" t="s">
+        <v>183</v>
+      </c>
+      <c r="F127" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>131</v>
       </c>
@@ -7308,13 +7153,13 @@
         <v>158</v>
       </c>
       <c r="E128" t="s">
-        <v>177</v>
-      </c>
-      <c r="G128" t="s">
+        <v>183</v>
+      </c>
+      <c r="F128" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>131</v>
       </c>
@@ -7328,9 +7173,9 @@
         <v>158</v>
       </c>
       <c r="E129" t="s">
-        <v>177</v>
-      </c>
-      <c r="G129" t="s">
+        <v>183</v>
+      </c>
+      <c r="F129" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7346,10 +7191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,8 +7263,8 @@
       <c r="A6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="7">
-        <v>-1002156412551</v>
+      <c r="B6">
+        <v>-1002486405540</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>140</v>
@@ -7430,8 +7275,8 @@
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="6">
-        <v>-1002197383783</v>
+      <c r="B7">
+        <v>-1002383589094</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>140</v>
@@ -7441,8 +7286,8 @@
       <c r="A8" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="7">
-        <v>-1002221930423</v>
+      <c r="B8">
+        <v>-1002367221793</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>140</v>
@@ -7539,28 +7384,25 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-1002450143442</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="14">
-        <v>-1002155900039</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="16">
-        <v>-2247918484</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="14">
+        <v>-1002294601204</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7576,8 +7418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8322463-DDB4-408E-9911-272820B4360D}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7827,20 +7669,20 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B37">
-        <v>-1002402556424</v>
+        <v>-1002486405540</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B38">
         <v>-1002367221793</v>
@@ -7848,7 +7690,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B39">
         <v>-1002383589094</v>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CD0F30-1952-4AC0-A29C-621973869797}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFC065C-41B7-4A1A-9935-E6FBDA508188}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="211">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -583,22 +583,94 @@
     <t>Grupo 6</t>
   </si>
   <si>
-    <t>GoldPicks mexicanos</t>
-  </si>
-  <si>
-    <t>GoldPicks extranjeros</t>
-  </si>
-  <si>
-    <t>GoldPicks stakes 10 y garantizados</t>
-  </si>
-  <si>
     <t>Gold picks Los reyes</t>
   </si>
   <si>
-    <t>Gold picks retos escalera</t>
-  </si>
-  <si>
     <t>C:\Users\Administrator\EnviarTipsters\GoldPicks.png</t>
+  </si>
+  <si>
+    <t>VIP Parrot</t>
+  </si>
+  <si>
+    <t>El veci premium</t>
+  </si>
+  <si>
+    <t>RepartoBets</t>
+  </si>
+  <si>
+    <t>Premium 3.0</t>
+  </si>
+  <si>
+    <t>Phoenix VIP nba y tenis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix VIP </t>
+  </si>
+  <si>
+    <t>Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t>Stakazo diario ADM</t>
+  </si>
+  <si>
+    <t>Stakazos soccer bets</t>
+  </si>
+  <si>
+    <t>S.P.R.T.S apuestas</t>
+  </si>
+  <si>
+    <t>Santi tenis</t>
+  </si>
+  <si>
+    <t>Diamante Negro</t>
+  </si>
+  <si>
+    <t>QSportAi</t>
+  </si>
+  <si>
+    <t>Troywins</t>
+  </si>
+  <si>
+    <t>Datsq9</t>
+  </si>
+  <si>
+    <t>KinPicks Futbol</t>
+  </si>
+  <si>
+    <t>Tennis Insider</t>
+  </si>
+  <si>
+    <t>Coach Saenz</t>
+  </si>
+  <si>
+    <t>Platinum Locks</t>
+  </si>
+  <si>
+    <t>Sean Perry Wins</t>
+  </si>
+  <si>
+    <t>Vegas Ninja</t>
+  </si>
+  <si>
+    <t>Tbsports</t>
+  </si>
+  <si>
+    <t>Exclusive Play</t>
+  </si>
+  <si>
+    <t>Revoogx</t>
+  </si>
+  <si>
+    <t>goldpicks nacionales</t>
+  </si>
+  <si>
+    <t>goldpicks extranjeros</t>
+  </si>
+  <si>
+    <t>goldpicks stakes</t>
+  </si>
+  <si>
+    <t>goldpicks retos escalera</t>
   </si>
 </sst>
 </file>
@@ -722,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -738,9 +810,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,13 +988,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G139" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
-  <autoFilter ref="A1:G139" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G163" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
+  <autoFilter ref="A1:G163" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
@@ -940,8 +1005,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:G133" totalsRowShown="0">
-  <autoFilter ref="A1:G133" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:G157" totalsRowShown="0">
+  <autoFilter ref="A1:G157" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
@@ -1286,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,258 +3040,402 @@
       <c r="G139" s="2"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" s="1">
+        <v>10000</v>
+      </c>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" s="1">
+        <v>10000</v>
+      </c>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" s="1">
+        <v>10000</v>
+      </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" s="1">
+        <v>10000</v>
+      </c>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="1">
+        <v>10000</v>
+      </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>188</v>
+      </c>
+      <c r="B145" s="1">
+        <v>10000</v>
+      </c>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" s="1">
+        <v>10000</v>
+      </c>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" s="1">
+        <v>10000</v>
+      </c>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>191</v>
+      </c>
+      <c r="B148" s="1">
+        <v>10000</v>
+      </c>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="1">
+        <v>10000</v>
+      </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" s="1">
+        <v>10000</v>
+      </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" s="1">
+        <v>10000</v>
+      </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" s="1">
+        <v>10000</v>
+      </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" s="1">
+        <v>10000</v>
+      </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>197</v>
+      </c>
+      <c r="B154" s="1">
+        <v>10000</v>
+      </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" s="1">
+        <v>10000</v>
+      </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="1">
+        <v>10000</v>
+      </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="1">
+        <v>10000</v>
+      </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" s="1">
+        <v>10000</v>
+      </c>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" s="1">
+        <v>10000</v>
+      </c>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" s="1">
+        <v>10000</v>
+      </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>204</v>
+      </c>
+      <c r="B161" s="1">
+        <v>10000</v>
+      </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" s="1">
+        <v>10000</v>
+      </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" s="1">
+        <v>10000</v>
+      </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
@@ -3589,10 +3798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K129" sqref="K129"/>
+    <sheetView topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,8 +3854,8 @@
       <c r="E2" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>184</v>
+      <c r="F2" t="s">
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>87</v>
@@ -3668,8 +3877,8 @@
       <c r="E3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>181</v>
+      <c r="F3" t="s">
+        <v>207</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -3691,8 +3900,8 @@
       <c r="E4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>181</v>
+      <c r="F4" t="s">
+        <v>207</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -3714,8 +3923,8 @@
       <c r="E5" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>181</v>
+      <c r="F5" t="s">
+        <v>207</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -3737,8 +3946,8 @@
       <c r="E6" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>181</v>
+      <c r="F6" t="s">
+        <v>207</v>
       </c>
       <c r="G6" t="s">
         <v>120</v>
@@ -3760,8 +3969,8 @@
       <c r="E7" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>181</v>
+      <c r="F7" t="s">
+        <v>210</v>
       </c>
       <c r="G7" t="s">
         <v>99</v>
@@ -3783,8 +3992,8 @@
       <c r="E8" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>181</v>
+      <c r="F8" t="s">
+        <v>207</v>
       </c>
       <c r="G8" t="s">
         <v>178</v>
@@ -3806,8 +4015,8 @@
       <c r="E9" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>181</v>
+      <c r="F9" t="s">
+        <v>207</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -3829,8 +4038,8 @@
       <c r="E10" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>181</v>
+      <c r="F10" t="s">
+        <v>207</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -3852,8 +4061,8 @@
       <c r="E11" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>181</v>
+      <c r="F11" t="s">
+        <v>207</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -3876,8 +4085,8 @@
       <c r="E12" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>181</v>
+      <c r="F12" t="s">
+        <v>207</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -3900,8 +4109,8 @@
       <c r="E13" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>181</v>
+      <c r="F13" t="s">
+        <v>207</v>
       </c>
       <c r="G13" t="s">
         <v>132</v>
@@ -3923,8 +4132,8 @@
       <c r="E14" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>181</v>
+      <c r="F14" t="s">
+        <v>207</v>
       </c>
       <c r="G14" t="s">
         <v>95</v>
@@ -3946,8 +4155,8 @@
       <c r="E15" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>181</v>
+      <c r="F15" t="s">
+        <v>207</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -3969,8 +4178,8 @@
       <c r="E16" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>181</v>
+      <c r="F16" t="s">
+        <v>207</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -3992,8 +4201,8 @@
       <c r="E17" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>181</v>
+      <c r="F17" t="s">
+        <v>207</v>
       </c>
       <c r="G17" t="s">
         <v>103</v>
@@ -4015,8 +4224,8 @@
       <c r="E18" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>181</v>
+      <c r="F18" t="s">
+        <v>207</v>
       </c>
       <c r="G18" t="s">
         <v>102</v>
@@ -4038,8 +4247,8 @@
       <c r="E19" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>181</v>
+      <c r="F19" t="s">
+        <v>207</v>
       </c>
       <c r="G19" t="s">
         <v>173</v>
@@ -4061,8 +4270,8 @@
       <c r="E20" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>181</v>
+      <c r="F20" t="s">
+        <v>207</v>
       </c>
       <c r="G20" t="s">
         <v>145</v>
@@ -4084,8 +4293,8 @@
       <c r="E21" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>181</v>
+      <c r="F21" t="s">
+        <v>207</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -4107,8 +4316,8 @@
       <c r="E22" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>181</v>
+      <c r="F22" t="s">
+        <v>207</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -4130,8 +4339,8 @@
       <c r="E23" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>181</v>
+      <c r="F23" t="s">
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -4153,8 +4362,8 @@
       <c r="E24" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>181</v>
+      <c r="F24" t="s">
+        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
@@ -4176,8 +4385,8 @@
       <c r="E25" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>181</v>
+      <c r="F25" t="s">
+        <v>207</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
@@ -4199,8 +4408,8 @@
       <c r="E26" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>181</v>
+      <c r="F26" t="s">
+        <v>207</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -4222,8 +4431,8 @@
       <c r="E27" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>181</v>
+      <c r="F27" t="s">
+        <v>207</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -4245,8 +4454,8 @@
       <c r="E28" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>181</v>
+      <c r="F28" t="s">
+        <v>207</v>
       </c>
       <c r="G28" t="s">
         <v>174</v>
@@ -4269,8 +4478,8 @@
       <c r="E29" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>181</v>
+      <c r="F29" t="s">
+        <v>207</v>
       </c>
       <c r="G29" t="s">
         <v>105</v>
@@ -4292,8 +4501,8 @@
       <c r="E30" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>181</v>
+      <c r="F30" t="s">
+        <v>207</v>
       </c>
       <c r="G30" t="s">
         <v>89</v>
@@ -4315,8 +4524,8 @@
       <c r="E31" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>181</v>
+      <c r="F31" t="s">
+        <v>207</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -4338,8 +4547,8 @@
       <c r="E32" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>181</v>
+      <c r="F32" t="s">
+        <v>207</v>
       </c>
       <c r="G32" t="s">
         <v>165</v>
@@ -4361,8 +4570,8 @@
       <c r="E33" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>181</v>
+      <c r="F33" t="s">
+        <v>207</v>
       </c>
       <c r="G33" t="s">
         <v>175</v>
@@ -4384,8 +4593,8 @@
       <c r="E34" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>181</v>
+      <c r="F34" t="s">
+        <v>207</v>
       </c>
       <c r="G34" t="s">
         <v>176</v>
@@ -4407,8 +4616,8 @@
       <c r="E35" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>181</v>
+      <c r="F35" t="s">
+        <v>207</v>
       </c>
       <c r="G35" t="s">
         <v>23</v>
@@ -4430,8 +4639,8 @@
       <c r="E36" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>181</v>
+      <c r="F36" t="s">
+        <v>207</v>
       </c>
       <c r="G36" t="s">
         <v>93</v>
@@ -4453,8 +4662,8 @@
       <c r="E37" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>181</v>
+      <c r="F37" t="s">
+        <v>207</v>
       </c>
       <c r="G37" t="s">
         <v>24</v>
@@ -4474,8 +4683,8 @@
       <c r="E38" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>181</v>
+      <c r="F38" t="s">
+        <v>207</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
@@ -4497,8 +4706,8 @@
       <c r="E39" t="s">
         <v>171</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>181</v>
+      <c r="F39" t="s">
+        <v>207</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
@@ -4520,8 +4729,8 @@
       <c r="E40" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>181</v>
+      <c r="F40" t="s">
+        <v>207</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4543,8 +4752,8 @@
       <c r="E41" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>181</v>
+      <c r="F41" t="s">
+        <v>207</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
@@ -4566,8 +4775,8 @@
       <c r="E42" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>181</v>
+      <c r="F42" t="s">
+        <v>207</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
@@ -4589,8 +4798,8 @@
       <c r="E43" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>181</v>
+      <c r="F43" t="s">
+        <v>207</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4612,8 +4821,8 @@
       <c r="E44" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>181</v>
+      <c r="F44" t="s">
+        <v>207</v>
       </c>
       <c r="G44" t="s">
         <v>30</v>
@@ -4635,8 +4844,8 @@
       <c r="E45" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>181</v>
+      <c r="F45" t="s">
+        <v>207</v>
       </c>
       <c r="G45" t="s">
         <v>90</v>
@@ -4658,8 +4867,8 @@
       <c r="E46" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>181</v>
+      <c r="F46" t="s">
+        <v>207</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -4681,8 +4890,8 @@
       <c r="E47" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>181</v>
+      <c r="F47" t="s">
+        <v>207</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4704,8 +4913,8 @@
       <c r="E48" t="s">
         <v>171</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>181</v>
+      <c r="F48" t="s">
+        <v>207</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4727,8 +4936,8 @@
       <c r="E49" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>181</v>
+      <c r="F49" t="s">
+        <v>207</v>
       </c>
       <c r="G49" t="s">
         <v>91</v>
@@ -4750,8 +4959,8 @@
       <c r="E50" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>181</v>
+      <c r="F50" t="s">
+        <v>207</v>
       </c>
       <c r="G50" t="s">
         <v>88</v>
@@ -4773,8 +4982,8 @@
       <c r="E51" t="s">
         <v>172</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>182</v>
+      <c r="F51" t="s">
+        <v>208</v>
       </c>
       <c r="G51" t="s">
         <v>146</v>
@@ -4796,8 +5005,8 @@
       <c r="E52" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>182</v>
+      <c r="F52" t="s">
+        <v>208</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
@@ -4819,8 +5028,8 @@
       <c r="E53" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>182</v>
+      <c r="F53" t="s">
+        <v>208</v>
       </c>
       <c r="G53" t="s">
         <v>53</v>
@@ -4842,8 +5051,8 @@
       <c r="E54" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>182</v>
+      <c r="F54" t="s">
+        <v>208</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -4865,8 +5074,8 @@
       <c r="E55" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>182</v>
+      <c r="F55" t="s">
+        <v>208</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -4888,8 +5097,8 @@
       <c r="E56" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>182</v>
+      <c r="F56" t="s">
+        <v>208</v>
       </c>
       <c r="G56" t="s">
         <v>38</v>
@@ -4911,8 +5120,8 @@
       <c r="E57" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>182</v>
+      <c r="F57" t="s">
+        <v>208</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
@@ -4934,8 +5143,8 @@
       <c r="E58" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>182</v>
+      <c r="F58" t="s">
+        <v>208</v>
       </c>
       <c r="G58" t="s">
         <v>179</v>
@@ -4957,8 +5166,8 @@
       <c r="E59" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="16" t="s">
-        <v>182</v>
+      <c r="F59" t="s">
+        <v>208</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -4980,8 +5189,8 @@
       <c r="E60" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>182</v>
+      <c r="F60" t="s">
+        <v>208</v>
       </c>
       <c r="G60" t="s">
         <v>41</v>
@@ -5003,8 +5212,8 @@
       <c r="E61" t="s">
         <v>172</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>182</v>
+      <c r="F61" t="s">
+        <v>208</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
@@ -5026,8 +5235,8 @@
       <c r="E62" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>182</v>
+      <c r="F62" t="s">
+        <v>208</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -5049,8 +5258,8 @@
       <c r="E63" t="s">
         <v>172</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>182</v>
+      <c r="F63" t="s">
+        <v>208</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -5072,8 +5281,8 @@
       <c r="E64" t="s">
         <v>172</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>182</v>
+      <c r="F64" t="s">
+        <v>208</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -5095,8 +5304,8 @@
       <c r="E65" t="s">
         <v>172</v>
       </c>
-      <c r="F65" s="16" t="s">
-        <v>182</v>
+      <c r="F65" t="s">
+        <v>208</v>
       </c>
       <c r="G65" t="s">
         <v>47</v>
@@ -5118,8 +5327,8 @@
       <c r="E66" t="s">
         <v>172</v>
       </c>
-      <c r="F66" s="16" t="s">
-        <v>182</v>
+      <c r="F66" t="s">
+        <v>208</v>
       </c>
       <c r="G66" t="s">
         <v>48</v>
@@ -5141,8 +5350,8 @@
       <c r="E67" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>182</v>
+      <c r="F67" t="s">
+        <v>208</v>
       </c>
       <c r="G67" t="s">
         <v>50</v>
@@ -5164,8 +5373,8 @@
       <c r="E68" t="s">
         <v>172</v>
       </c>
-      <c r="F68" s="16" t="s">
-        <v>182</v>
+      <c r="F68" t="s">
+        <v>208</v>
       </c>
       <c r="G68" t="s">
         <v>51</v>
@@ -5187,8 +5396,8 @@
       <c r="E69" t="s">
         <v>172</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>182</v>
+      <c r="F69" t="s">
+        <v>208</v>
       </c>
       <c r="G69" t="s">
         <v>49</v>
@@ -5210,8 +5419,8 @@
       <c r="E70" t="s">
         <v>172</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>182</v>
+      <c r="F70" t="s">
+        <v>208</v>
       </c>
       <c r="G70" t="s">
         <v>133</v>
@@ -5233,8 +5442,8 @@
       <c r="E71" t="s">
         <v>172</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>182</v>
+      <c r="F71" t="s">
+        <v>208</v>
       </c>
       <c r="G71" t="s">
         <v>69</v>
@@ -5256,8 +5465,8 @@
       <c r="E72" t="s">
         <v>172</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>182</v>
+      <c r="F72" t="s">
+        <v>208</v>
       </c>
       <c r="G72" t="s">
         <v>106</v>
@@ -5279,8 +5488,8 @@
       <c r="E73" t="s">
         <v>172</v>
       </c>
-      <c r="F73" s="16" t="s">
-        <v>182</v>
+      <c r="F73" t="s">
+        <v>208</v>
       </c>
       <c r="G73" t="s">
         <v>63</v>
@@ -5302,8 +5511,8 @@
       <c r="E74" t="s">
         <v>172</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>182</v>
+      <c r="F74" t="s">
+        <v>208</v>
       </c>
       <c r="G74" t="s">
         <v>66</v>
@@ -5325,8 +5534,8 @@
       <c r="E75" t="s">
         <v>172</v>
       </c>
-      <c r="F75" s="16" t="s">
-        <v>182</v>
+      <c r="F75" t="s">
+        <v>208</v>
       </c>
       <c r="G75" t="s">
         <v>125</v>
@@ -5348,8 +5557,8 @@
       <c r="E76" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="16" t="s">
-        <v>182</v>
+      <c r="F76" t="s">
+        <v>208</v>
       </c>
       <c r="G76" t="s">
         <v>67</v>
@@ -5371,8 +5580,8 @@
       <c r="E77" t="s">
         <v>172</v>
       </c>
-      <c r="F77" s="16" t="s">
-        <v>182</v>
+      <c r="F77" t="s">
+        <v>208</v>
       </c>
       <c r="G77" t="s">
         <v>127</v>
@@ -5394,8 +5603,8 @@
       <c r="E78" t="s">
         <v>172</v>
       </c>
-      <c r="F78" s="16" t="s">
-        <v>182</v>
+      <c r="F78" t="s">
+        <v>208</v>
       </c>
       <c r="G78" t="s">
         <v>70</v>
@@ -5417,8 +5626,8 @@
       <c r="E79" t="s">
         <v>172</v>
       </c>
-      <c r="F79" s="16" t="s">
-        <v>182</v>
+      <c r="F79" t="s">
+        <v>208</v>
       </c>
       <c r="G79" t="s">
         <v>71</v>
@@ -5440,8 +5649,8 @@
       <c r="E80" t="s">
         <v>172</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>182</v>
+      <c r="F80" t="s">
+        <v>208</v>
       </c>
       <c r="G80" t="s">
         <v>54</v>
@@ -5463,8 +5672,8 @@
       <c r="E81" t="s">
         <v>172</v>
       </c>
-      <c r="F81" s="16" t="s">
-        <v>182</v>
+      <c r="F81" t="s">
+        <v>208</v>
       </c>
       <c r="G81" t="s">
         <v>138</v>
@@ -5486,8 +5695,8 @@
       <c r="E82" t="s">
         <v>172</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>182</v>
+      <c r="F82" t="s">
+        <v>208</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>126</v>
@@ -5509,8 +5718,8 @@
       <c r="E83" t="s">
         <v>172</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>182</v>
+      <c r="F83" t="s">
+        <v>208</v>
       </c>
       <c r="G83" t="s">
         <v>68</v>
@@ -5532,8 +5741,8 @@
       <c r="E84" t="s">
         <v>172</v>
       </c>
-      <c r="F84" s="16" t="s">
-        <v>183</v>
+      <c r="F84" t="s">
+        <v>209</v>
       </c>
       <c r="G84" t="s">
         <v>139</v>
@@ -5555,8 +5764,8 @@
       <c r="E85" t="s">
         <v>172</v>
       </c>
-      <c r="F85" s="16" t="s">
-        <v>183</v>
+      <c r="F85" t="s">
+        <v>209</v>
       </c>
       <c r="G85" t="s">
         <v>100</v>
@@ -5578,8 +5787,8 @@
       <c r="E86" t="s">
         <v>171</v>
       </c>
-      <c r="F86" s="16" t="s">
-        <v>183</v>
+      <c r="F86" t="s">
+        <v>209</v>
       </c>
       <c r="G86" t="s">
         <v>119</v>
@@ -5601,8 +5810,8 @@
       <c r="E87" t="s">
         <v>171</v>
       </c>
-      <c r="F87" s="16" t="s">
-        <v>183</v>
+      <c r="F87" t="s">
+        <v>209</v>
       </c>
       <c r="G87" t="s">
         <v>118</v>
@@ -5624,8 +5833,8 @@
       <c r="E88" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="16" t="s">
-        <v>183</v>
+      <c r="F88" t="s">
+        <v>209</v>
       </c>
       <c r="G88" t="s">
         <v>109</v>
@@ -5647,8 +5856,8 @@
       <c r="E89" t="s">
         <v>171</v>
       </c>
-      <c r="F89" s="16" t="s">
-        <v>183</v>
+      <c r="F89" t="s">
+        <v>209</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -5670,8 +5879,8 @@
       <c r="E90" t="s">
         <v>172</v>
       </c>
-      <c r="F90" s="16" t="s">
-        <v>183</v>
+      <c r="F90" t="s">
+        <v>209</v>
       </c>
       <c r="G90" t="s">
         <v>81</v>
@@ -5693,8 +5902,8 @@
       <c r="E91" t="s">
         <v>172</v>
       </c>
-      <c r="F91" s="16" t="s">
-        <v>183</v>
+      <c r="F91" t="s">
+        <v>209</v>
       </c>
       <c r="G91" t="s">
         <v>82</v>
@@ -5716,8 +5925,8 @@
       <c r="E92" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="16" t="s">
-        <v>183</v>
+      <c r="F92" t="s">
+        <v>209</v>
       </c>
       <c r="G92" t="s">
         <v>166</v>
@@ -5739,8 +5948,8 @@
       <c r="E93" t="s">
         <v>172</v>
       </c>
-      <c r="F93" s="16" t="s">
-        <v>183</v>
+      <c r="F93" t="s">
+        <v>209</v>
       </c>
       <c r="G93" t="s">
         <v>130</v>
@@ -5762,8 +5971,8 @@
       <c r="E94" t="s">
         <v>172</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>183</v>
+      <c r="F94" t="s">
+        <v>209</v>
       </c>
       <c r="G94" t="s">
         <v>159</v>
@@ -5786,8 +5995,8 @@
       <c r="E95" t="s">
         <v>172</v>
       </c>
-      <c r="F95" s="16" t="s">
-        <v>183</v>
+      <c r="F95" t="s">
+        <v>209</v>
       </c>
       <c r="G95" t="s">
         <v>124</v>
@@ -5809,8 +6018,8 @@
       <c r="E96" t="s">
         <v>172</v>
       </c>
-      <c r="F96" s="16" t="s">
-        <v>183</v>
+      <c r="F96" t="s">
+        <v>209</v>
       </c>
       <c r="G96" t="s">
         <v>52</v>
@@ -5832,8 +6041,8 @@
       <c r="E97" t="s">
         <v>172</v>
       </c>
-      <c r="F97" s="16" t="s">
-        <v>183</v>
+      <c r="F97" t="s">
+        <v>209</v>
       </c>
       <c r="G97" t="s">
         <v>55</v>
@@ -5855,8 +6064,8 @@
       <c r="E98" t="s">
         <v>172</v>
       </c>
-      <c r="F98" s="16" t="s">
-        <v>183</v>
+      <c r="F98" t="s">
+        <v>209</v>
       </c>
       <c r="G98" t="s">
         <v>56</v>
@@ -5878,8 +6087,8 @@
       <c r="E99" t="s">
         <v>172</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>183</v>
+      <c r="F99" t="s">
+        <v>209</v>
       </c>
       <c r="G99" t="s">
         <v>57</v>
@@ -5901,8 +6110,8 @@
       <c r="E100" t="s">
         <v>172</v>
       </c>
-      <c r="F100" s="16" t="s">
-        <v>183</v>
+      <c r="F100" t="s">
+        <v>209</v>
       </c>
       <c r="G100" t="s">
         <v>94</v>
@@ -5924,8 +6133,8 @@
       <c r="E101" t="s">
         <v>172</v>
       </c>
-      <c r="F101" s="16" t="s">
-        <v>183</v>
+      <c r="F101" t="s">
+        <v>209</v>
       </c>
       <c r="G101" t="s">
         <v>58</v>
@@ -5947,8 +6156,8 @@
       <c r="E102" t="s">
         <v>172</v>
       </c>
-      <c r="F102" s="16" t="s">
-        <v>183</v>
+      <c r="F102" t="s">
+        <v>209</v>
       </c>
       <c r="G102" t="s">
         <v>59</v>
@@ -5970,8 +6179,8 @@
       <c r="E103" t="s">
         <v>172</v>
       </c>
-      <c r="F103" s="16" t="s">
-        <v>183</v>
+      <c r="F103" t="s">
+        <v>209</v>
       </c>
       <c r="G103" t="s">
         <v>60</v>
@@ -5993,8 +6202,8 @@
       <c r="E104" t="s">
         <v>172</v>
       </c>
-      <c r="F104" s="16" t="s">
-        <v>183</v>
+      <c r="F104" t="s">
+        <v>209</v>
       </c>
       <c r="G104" t="s">
         <v>61</v>
@@ -6016,8 +6225,8 @@
       <c r="E105" t="s">
         <v>172</v>
       </c>
-      <c r="F105" s="16" t="s">
-        <v>183</v>
+      <c r="F105" t="s">
+        <v>209</v>
       </c>
       <c r="G105" t="s">
         <v>64</v>
@@ -6039,8 +6248,8 @@
       <c r="E106" t="s">
         <v>172</v>
       </c>
-      <c r="F106" s="16" t="s">
-        <v>183</v>
+      <c r="F106" t="s">
+        <v>209</v>
       </c>
       <c r="G106" t="s">
         <v>65</v>
@@ -6062,8 +6271,8 @@
       <c r="E107" t="s">
         <v>172</v>
       </c>
-      <c r="F107" s="16" t="s">
-        <v>183</v>
+      <c r="F107" t="s">
+        <v>209</v>
       </c>
       <c r="G107" t="s">
         <v>72</v>
@@ -6085,8 +6294,8 @@
       <c r="E108" t="s">
         <v>172</v>
       </c>
-      <c r="F108" s="16" t="s">
-        <v>183</v>
+      <c r="F108" t="s">
+        <v>209</v>
       </c>
       <c r="G108" t="s">
         <v>73</v>
@@ -6108,8 +6317,8 @@
       <c r="E109" t="s">
         <v>172</v>
       </c>
-      <c r="F109" s="16" t="s">
-        <v>183</v>
+      <c r="F109" t="s">
+        <v>209</v>
       </c>
       <c r="G109" t="s">
         <v>74</v>
@@ -6131,8 +6340,8 @@
       <c r="E110" t="s">
         <v>172</v>
       </c>
-      <c r="F110" s="16" t="s">
-        <v>183</v>
+      <c r="F110" t="s">
+        <v>209</v>
       </c>
       <c r="G110" t="s">
         <v>75</v>
@@ -6154,8 +6363,8 @@
       <c r="E111" t="s">
         <v>172</v>
       </c>
-      <c r="F111" s="16" t="s">
-        <v>183</v>
+      <c r="F111" t="s">
+        <v>209</v>
       </c>
       <c r="G111" t="s">
         <v>76</v>
@@ -6177,8 +6386,8 @@
       <c r="E112" t="s">
         <v>172</v>
       </c>
-      <c r="F112" s="16" t="s">
-        <v>183</v>
+      <c r="F112" t="s">
+        <v>209</v>
       </c>
       <c r="G112" t="s">
         <v>77</v>
@@ -6200,8 +6409,8 @@
       <c r="E113" t="s">
         <v>172</v>
       </c>
-      <c r="F113" s="16" t="s">
-        <v>183</v>
+      <c r="F113" t="s">
+        <v>209</v>
       </c>
       <c r="G113" t="s">
         <v>78</v>
@@ -6223,8 +6432,8 @@
       <c r="E114" t="s">
         <v>172</v>
       </c>
-      <c r="F114" s="16" t="s">
-        <v>183</v>
+      <c r="F114" t="s">
+        <v>209</v>
       </c>
       <c r="G114" t="s">
         <v>79</v>
@@ -6246,8 +6455,8 @@
       <c r="E115" t="s">
         <v>172</v>
       </c>
-      <c r="F115" s="16" t="s">
-        <v>183</v>
+      <c r="F115" t="s">
+        <v>209</v>
       </c>
       <c r="G115" t="s">
         <v>80</v>
@@ -6269,8 +6478,8 @@
       <c r="E116" t="s">
         <v>172</v>
       </c>
-      <c r="F116" s="16" t="s">
-        <v>183</v>
+      <c r="F116" t="s">
+        <v>209</v>
       </c>
       <c r="G116" t="s">
         <v>82</v>
@@ -6292,8 +6501,8 @@
       <c r="E117" t="s">
         <v>172</v>
       </c>
-      <c r="F117" s="16" t="s">
-        <v>183</v>
+      <c r="F117" t="s">
+        <v>209</v>
       </c>
       <c r="G117" t="s">
         <v>83</v>
@@ -6315,8 +6524,8 @@
       <c r="E118" t="s">
         <v>172</v>
       </c>
-      <c r="F118" s="16" t="s">
-        <v>183</v>
+      <c r="F118" t="s">
+        <v>209</v>
       </c>
       <c r="G118" t="s">
         <v>84</v>
@@ -6338,8 +6547,8 @@
       <c r="E119" t="s">
         <v>172</v>
       </c>
-      <c r="F119" s="16" t="s">
-        <v>183</v>
+      <c r="F119" t="s">
+        <v>209</v>
       </c>
       <c r="G119" t="s">
         <v>92</v>
@@ -6361,8 +6570,8 @@
       <c r="E120" t="s">
         <v>171</v>
       </c>
-      <c r="F120" s="16" t="s">
-        <v>183</v>
+      <c r="F120" t="s">
+        <v>209</v>
       </c>
       <c r="G120" t="s">
         <v>131</v>
@@ -6384,8 +6593,8 @@
       <c r="E121" t="s">
         <v>171</v>
       </c>
-      <c r="F121" s="16" t="s">
-        <v>183</v>
+      <c r="F121" t="s">
+        <v>210</v>
       </c>
       <c r="G121" t="s">
         <v>101</v>
@@ -6407,8 +6616,8 @@
       <c r="E122" t="s">
         <v>171</v>
       </c>
-      <c r="F122" s="16" t="s">
-        <v>183</v>
+      <c r="F122" t="s">
+        <v>210</v>
       </c>
       <c r="G122" t="s">
         <v>104</v>
@@ -6430,8 +6639,8 @@
       <c r="E123" t="s">
         <v>171</v>
       </c>
-      <c r="F123" s="16" t="s">
-        <v>183</v>
+      <c r="F123" t="s">
+        <v>209</v>
       </c>
       <c r="G123" t="s">
         <v>108</v>
@@ -6453,8 +6662,8 @@
       <c r="E124" t="s">
         <v>171</v>
       </c>
-      <c r="F124" s="16" t="s">
-        <v>183</v>
+      <c r="F124" t="s">
+        <v>209</v>
       </c>
       <c r="G124" t="s">
         <v>107</v>
@@ -6476,8 +6685,8 @@
       <c r="E125" t="s">
         <v>172</v>
       </c>
-      <c r="F125" s="16" t="s">
-        <v>183</v>
+      <c r="F125" t="s">
+        <v>209</v>
       </c>
       <c r="G125" t="s">
         <v>141</v>
@@ -6499,8 +6708,8 @@
       <c r="E126" t="s">
         <v>172</v>
       </c>
-      <c r="F126" s="16" t="s">
-        <v>183</v>
+      <c r="F126" t="s">
+        <v>209</v>
       </c>
       <c r="G126" t="s">
         <v>143</v>
@@ -6523,8 +6732,8 @@
       <c r="E127" t="s">
         <v>172</v>
       </c>
-      <c r="F127" s="16" t="s">
-        <v>183</v>
+      <c r="F127" t="s">
+        <v>209</v>
       </c>
       <c r="G127" t="s">
         <v>144</v>
@@ -6546,8 +6755,8 @@
       <c r="E128" t="s">
         <v>172</v>
       </c>
-      <c r="F128" s="16" t="s">
-        <v>183</v>
+      <c r="F128" t="s">
+        <v>209</v>
       </c>
       <c r="G128" t="s">
         <v>163</v>
@@ -6569,8 +6778,8 @@
       <c r="E129" t="s">
         <v>172</v>
       </c>
-      <c r="F129" s="16" t="s">
-        <v>182</v>
+      <c r="F129" t="s">
+        <v>208</v>
       </c>
       <c r="G129" t="s">
         <v>46</v>
@@ -6592,8 +6801,8 @@
       <c r="E130" t="s">
         <v>172</v>
       </c>
-      <c r="F130" s="16" t="s">
-        <v>182</v>
+      <c r="F130" t="s">
+        <v>208</v>
       </c>
       <c r="G130" t="s">
         <v>62</v>
@@ -6615,8 +6824,8 @@
       <c r="E131" t="s">
         <v>172</v>
       </c>
-      <c r="F131" s="16" t="s">
-        <v>183</v>
+      <c r="F131" t="s">
+        <v>209</v>
       </c>
       <c r="G131" t="s">
         <v>167</v>
@@ -6638,8 +6847,8 @@
       <c r="E132" t="s">
         <v>172</v>
       </c>
-      <c r="F132" s="16" t="s">
-        <v>183</v>
+      <c r="F132" t="s">
+        <v>209</v>
       </c>
       <c r="G132" t="s">
         <v>168</v>
@@ -6661,11 +6870,266 @@
       <c r="E133" t="s">
         <v>172</v>
       </c>
-      <c r="F133" s="16" t="s">
-        <v>182</v>
+      <c r="F133" t="s">
+        <v>208</v>
       </c>
       <c r="G133" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="C134" t="s">
+        <v>149</v>
+      </c>
+      <c r="G134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="C135" t="s">
+        <v>149</v>
+      </c>
+      <c r="G135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+      <c r="G136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="C137" t="s">
+        <v>149</v>
+      </c>
+      <c r="G137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="C138" t="s">
+        <v>149</v>
+      </c>
+      <c r="G138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="C139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="C140" t="s">
+        <v>149</v>
+      </c>
+      <c r="G140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+      <c r="G141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="9"/>
+      <c r="C142" t="s">
+        <v>149</v>
+      </c>
+      <c r="G142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" t="s">
+        <v>172</v>
+      </c>
+      <c r="F143" t="s">
+        <v>209</v>
+      </c>
+      <c r="G143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D144" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" t="s">
+        <v>208</v>
+      </c>
+      <c r="G144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="9"/>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+      <c r="G145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="C146" t="s">
+        <v>148</v>
+      </c>
+      <c r="G146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="G147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="9"/>
+      <c r="C148" t="s">
+        <v>148</v>
+      </c>
+      <c r="G148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="9"/>
+      <c r="C149" t="s">
+        <v>149</v>
+      </c>
+      <c r="G149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="C150" t="s">
+        <v>149</v>
+      </c>
+      <c r="G150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151" t="s">
+        <v>151</v>
+      </c>
+      <c r="E151" t="s">
+        <v>171</v>
+      </c>
+      <c r="F151" t="s">
+        <v>207</v>
+      </c>
+      <c r="G151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="C152" t="s">
+        <v>148</v>
+      </c>
+      <c r="G152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="C153" t="s">
+        <v>148</v>
+      </c>
+      <c r="G153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="9"/>
+      <c r="C154" t="s">
+        <v>148</v>
+      </c>
+      <c r="G154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="C155" t="s">
+        <v>148</v>
+      </c>
+      <c r="G155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="9"/>
+      <c r="C156" t="s">
+        <v>148</v>
+      </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
+      <c r="C157" t="s">
+        <v>147</v>
+      </c>
+      <c r="G157" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6682,8 +7146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6894,58 +7358,58 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="14">
+        <v>-1002322215761</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="14">
+        <v>-1002426461312</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="14">
+        <v>-1002496590323</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="17">
-        <v>-1002322215761</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="B22" s="14">
+        <v>-1002390358046</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B20" s="17">
-        <v>-1002426461312</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="17">
-        <v>-1002496590323</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="17">
-        <v>-1002390358046</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="15">
+        <v>210</v>
+      </c>
+      <c r="B23" s="7">
         <v>-1002361153876</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="625" documentId="13_ncr:1_{E2FC9CF8-F2AC-4735-B3DA-D41B92DB252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2026BD57-191F-452D-839F-657F9192F5A4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B29B56FB-5BD0-4C33-91BC-FFD299585718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C65859-9087-4393-B47F-306FD065394F}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2010" windowWidth="21180" windowHeight="12345" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="231">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -85,9 +85,6 @@
     <t>IanStar</t>
   </si>
   <si>
-    <t>La mera fiera</t>
-  </si>
-  <si>
     <t>Licenciado</t>
   </si>
   <si>
@@ -718,7 +715,22 @@
     <t>Codigo NBA</t>
   </si>
   <si>
-    <t>Vecino picks</t>
+    <t>Prince stakes</t>
+  </si>
+  <si>
+    <t>Chapito garantizado</t>
+  </si>
+  <si>
+    <t>Profesor de las Apuestas</t>
+  </si>
+  <si>
+    <t>Roberth el Loco de las Apuestas</t>
+  </si>
+  <si>
+    <t>Parlays Tio Polo</t>
+  </si>
+  <si>
+    <t>los rey app adm</t>
   </si>
 </sst>
 </file>
@@ -850,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -867,6 +879,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,8 +1062,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G169" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
-  <autoFilter ref="A1:G169" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G173" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
+  <autoFilter ref="A1:G173" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
@@ -1062,8 +1078,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:H164" totalsRowShown="0">
-  <autoFilter ref="A1:H164" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:H173" totalsRowShown="0">
+  <autoFilter ref="A1:H173" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
@@ -1079,8 +1095,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C27" totalsRowShown="0">
-  <autoFilter ref="A1:C27" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}" name="Tabla35" displayName="Tabla35" ref="A1:C28" totalsRowShown="0">
+  <autoFilter ref="A1:C28" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
     <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
@@ -1409,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1467,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
@@ -1463,7 +1479,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -1475,52 +1491,74 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1">
+        <v>11950</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>63</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
       </c>
       <c r="C5" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>9990</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>6930</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
       <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>41</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
@@ -1532,51 +1570,47 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
       </c>
-      <c r="C8" s="1">
-        <v>9000</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
       </c>
-      <c r="C9" s="1">
-        <v>9020</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1">
         <v>10000</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1">
+        <v>9450</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1586,16 +1620,19 @@
         <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>9990</v>
+        <v>9900</v>
       </c>
       <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>52</v>
+      </c>
+      <c r="G11">
         <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1606,33 +1643,47 @@
         <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>8292</v>
+        <v>9650</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" s="10">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1">
         <v>10000</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="1">
+        <v>10400</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1">
         <v>10000</v>
@@ -1661,14 +1712,16 @@
         <v>10000</v>
       </c>
       <c r="C16" s="1">
-        <v>11660</v>
+        <v>8800</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
       <c r="F16" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1676,38 +1729,42 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1">
         <v>10000</v>
       </c>
       <c r="C17" s="1">
-        <v>9000</v>
+        <v>7990</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1">
         <v>10000</v>
       </c>
       <c r="C18" s="1">
-        <v>10950</v>
+        <v>11100</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
       <c r="F18" s="2">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,19 +1774,9 @@
       <c r="B19" s="1">
         <v>10000</v>
       </c>
-      <c r="C19" s="1">
-        <v>10910</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1739,22 +1786,21 @@
         <v>10000</v>
       </c>
       <c r="C20" s="1">
-        <v>10270</v>
+        <v>10850</v>
       </c>
       <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
       <c r="F20" s="13">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1">
         <v>10000</v>
@@ -1765,19 +1811,30 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1">
         <v>10000</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="1">
+        <v>11750</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1">
         <v>10000</v>
@@ -1793,14 +1850,25 @@
       <c r="B24" s="1">
         <v>10000</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="1">
+        <v>11150</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1">
         <v>10000</v>
@@ -1812,7 +1880,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1">
         <v>10000</v>
@@ -1834,28 +1902,30 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1">
         <v>10000</v>
       </c>
       <c r="C28" s="1">
-        <v>12614</v>
+        <v>13750</v>
       </c>
       <c r="D28" s="2">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
       <c r="F28" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1">
         <v>10000</v>
@@ -1867,7 +1937,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1">
         <v>10000</v>
@@ -1878,149 +1948,171 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="1">
         <v>10000</v>
       </c>
       <c r="C31" s="1">
-        <v>9500</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>7100</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8</v>
+      </c>
       <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F31" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1">
         <v>10000</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="B33" s="1">
         <v>10000</v>
       </c>
       <c r="C33" s="1">
-        <v>10645</v>
+        <v>10200</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
       <c r="F33" s="2">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1">
         <v>10000</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="1">
+        <v>9980</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>50</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1">
         <v>10000</v>
       </c>
       <c r="C35" s="1">
-        <v>9000</v>
+        <v>11550</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>64</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
         <v>10000</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="C36" s="1">
+        <v>13300</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1">
         <v>10000</v>
       </c>
-      <c r="C37" s="1">
-        <v>10620</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>100</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
         <v>10000</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C38" s="1">
+        <v>11950</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>65</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1">
         <v>10000</v>
       </c>
-      <c r="C39" s="1">
-        <v>10945</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>75</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1">
         <v>10000</v>
@@ -2031,159 +2123,193 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1">
         <v>10000</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="C41" s="1">
+        <v>10750</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2">
+        <v>63</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1">
         <v>10000</v>
       </c>
       <c r="C42" s="1">
-        <v>9900</v>
+        <v>10200</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
       </c>
       <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>55</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
-      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="1">
         <v>10000</v>
       </c>
-      <c r="C43" s="1">
-        <v>10191</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>67</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1">
         <v>10000</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="C44" s="1">
+        <v>10300</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1">
         <v>10000</v>
       </c>
-      <c r="C45" s="1">
-        <v>10625</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="1">
         <v>10000</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="C46" s="1">
+        <v>9800</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1">
         <v>10000</v>
       </c>
       <c r="C47" s="1">
-        <v>8500</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>10900</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1">
         <v>10000</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="C48" s="1">
+        <v>9750</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="1">
         <v>10000</v>
       </c>
-      <c r="C49" s="1">
-        <v>10165</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>67</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1">
         <v>10000</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="C50" s="1">
+        <v>10350</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1">
         <v>10000</v>
@@ -2194,7 +2320,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1">
         <v>10000</v>
@@ -2205,63 +2331,62 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1">
         <v>10000</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="C53" s="1">
+        <v>12960</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1">
         <v>10000</v>
       </c>
       <c r="C54" s="1">
-        <v>11820</v>
+        <v>7700</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
       <c r="F54" s="2">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1">
         <v>10000</v>
       </c>
-      <c r="C55" s="1">
-        <v>10820</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>67</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="1">
         <v>10000</v>
@@ -2274,95 +2399,101 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" s="1">
         <v>10000</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="C57" s="1">
+        <v>12050</v>
+      </c>
+      <c r="D57" s="2">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2">
+        <v>69</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
         <v>10000</v>
       </c>
-      <c r="C58" s="1">
-        <v>11430</v>
-      </c>
-      <c r="D58" s="2">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>75</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1">
         <v>10000</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="C59" s="1">
+        <v>11500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2">
+        <v>63</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1">
         <v>10000</v>
       </c>
       <c r="C60" s="1">
-        <v>9820</v>
+        <v>9100</v>
       </c>
       <c r="D60" s="2">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2">
+        <v>47</v>
+      </c>
+      <c r="G60">
         <v>1</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1">
         <v>10000</v>
       </c>
-      <c r="C61" s="1">
-        <v>9872</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2">
-        <v>4</v>
-      </c>
-      <c r="F61" s="2">
-        <v>20</v>
-      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" s="1">
         <v>10000</v>
@@ -2374,73 +2505,74 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="1">
         <v>10000</v>
       </c>
       <c r="C63" s="1">
-        <v>12115</v>
+        <v>11550</v>
       </c>
       <c r="D63" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F63" s="2">
-        <v>60</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="1">
         <v>10000</v>
       </c>
-      <c r="C64" s="1">
-        <v>9500</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1">
         <v>10000</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="C65" s="1">
+        <v>9750</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>5</v>
+      </c>
+      <c r="F65" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1">
         <v>10000</v>
       </c>
       <c r="C66" s="1">
-        <v>10218</v>
+        <v>11050</v>
       </c>
       <c r="D66" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F66" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2448,48 +2580,53 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="1">
         <v>10000</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="C67" s="1">
+        <v>10980</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" s="1">
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>10168</v>
+        <v>11800</v>
       </c>
       <c r="D68" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F68" s="2">
-        <v>86</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1">
         <v>10000</v>
       </c>
       <c r="C69" s="1">
-        <v>9675</v>
+        <v>8950</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -2503,35 +2640,43 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" s="1">
         <v>10000</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="C70" s="1">
+        <v>10600</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6</v>
+      </c>
+      <c r="F70" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1">
         <v>10000</v>
       </c>
       <c r="C71" s="1">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
         <v>10000</v>
@@ -2543,23 +2688,30 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="1">
         <v>10000</v>
       </c>
       <c r="C73" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>10800</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4</v>
+      </c>
       <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>67</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1">
         <v>10000</v>
@@ -2571,170 +2723,180 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="1">
         <v>10000</v>
       </c>
       <c r="C75" s="1">
-        <v>10125</v>
+        <v>9200</v>
       </c>
       <c r="D75" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E75" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F75" s="2">
-        <v>33</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>9876</v>
+        <v>10500</v>
       </c>
       <c r="D76" s="2">
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2">
+        <v>56</v>
+      </c>
+      <c r="G76">
         <v>1</v>
-      </c>
-      <c r="E76" s="2">
-        <v>2</v>
-      </c>
-      <c r="F76" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1">
         <v>10000</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="C77" s="1">
+        <v>9950</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1">
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>11240</v>
+        <v>10300</v>
       </c>
       <c r="D78" s="2">
-        <v>2</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
       <c r="F78" s="2">
-        <v>100</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="1">
         <v>10000</v>
       </c>
       <c r="C79" s="1">
-        <v>10244</v>
+        <v>14250</v>
       </c>
       <c r="D79" s="2">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5</v>
+      </c>
       <c r="F79" s="13">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="1">
         <v>10000</v>
       </c>
       <c r="C80" s="1">
-        <v>9900</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>9600</v>
+      </c>
+      <c r="D80" s="2">
+        <v>8</v>
+      </c>
       <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F80" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="1">
         <v>10000</v>
       </c>
       <c r="C81" s="1">
-        <v>10473</v>
+        <v>10950</v>
       </c>
       <c r="D81" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E81" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F81" s="2">
-        <v>64</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" s="1">
         <v>10000</v>
       </c>
       <c r="C82" s="1">
-        <v>9995</v>
+        <v>8950</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83" s="1">
         <v>10000</v>
       </c>
       <c r="C83" s="1">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
@@ -2744,20 +2906,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1">
         <v>10000</v>
       </c>
       <c r="C84" s="1">
-        <v>11170</v>
+        <v>10850</v>
       </c>
       <c r="D84" s="2">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2">
         <v>1</v>
       </c>
-      <c r="E84" s="2"/>
       <c r="F84" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2765,89 +2929,113 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="1">
         <v>10000</v>
       </c>
       <c r="C85" s="1">
-        <v>10325</v>
+        <v>11100</v>
       </c>
       <c r="D85" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E85" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F85" s="2">
-        <v>75</v>
-      </c>
-      <c r="G85" s="11">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="1">
         <v>10000</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="C86" s="1">
+        <v>9350</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B87" s="1">
         <v>10000</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="2"/>
+      <c r="C87" s="1">
+        <v>11980</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2">
+        <v>100</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="1">
         <v>10000</v>
       </c>
       <c r="C88" s="1">
-        <v>10510</v>
+        <v>11900</v>
       </c>
       <c r="D88" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E88" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B89" s="1">
         <v>10000</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
+      <c r="C89" s="1">
+        <v>12970</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3</v>
+      </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2">
+        <v>100</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90" s="1">
         <v>10000</v>
@@ -2859,7 +3047,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B91" s="1">
         <v>10000</v>
@@ -2871,7 +3059,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>10000</v>
@@ -2883,28 +3071,27 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B93" s="1">
         <v>10000</v>
       </c>
       <c r="C93" s="1">
-        <v>14150</v>
+        <v>8960</v>
       </c>
       <c r="D93" s="2">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E93" s="2">
+        <v>5</v>
+      </c>
       <c r="F93" s="2">
-        <v>100</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" s="1">
         <v>10000</v>
@@ -2916,7 +3103,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95" s="1">
         <v>10000</v>
@@ -2928,7 +3115,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" s="1">
         <v>10000</v>
@@ -2940,58 +3127,89 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B97" s="1">
         <v>10000</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="C97" s="1">
+        <v>9990</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98" s="1">
         <v>10000</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="C98" s="1">
+        <v>10700</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2">
+        <v>60</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99" s="1">
         <v>10000</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="2"/>
+      <c r="C99" s="1">
+        <v>10990</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="F99" s="2">
+        <v>100</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1">
         <v>10000</v>
       </c>
       <c r="C100" s="1">
-        <v>10520</v>
+        <v>10960</v>
       </c>
       <c r="D100" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -2999,98 +3217,117 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" s="1">
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>11170</v>
+        <v>17050</v>
       </c>
       <c r="D101" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E101" s="2">
+        <v>12</v>
+      </c>
+      <c r="F101" s="2">
+        <v>71</v>
+      </c>
+      <c r="G101">
         <v>2</v>
-      </c>
-      <c r="F101" s="2">
-        <v>60</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B102" s="1">
         <v>10000</v>
       </c>
       <c r="C102" s="1">
-        <v>10600</v>
+        <v>9600</v>
       </c>
       <c r="D102" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E102" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2">
-        <v>60</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="1">
         <v>10000</v>
       </c>
       <c r="C103" s="1">
-        <v>9200</v>
+        <v>10300</v>
       </c>
       <c r="D103" s="2">
+        <v>4</v>
+      </c>
+      <c r="E103" s="2">
+        <v>3</v>
+      </c>
+      <c r="F103" s="2">
+        <v>57</v>
+      </c>
+      <c r="G103">
         <v>1</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="2">
-        <v>50</v>
       </c>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104" s="1">
         <v>10000</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="C104" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>67</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>10000</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="C105" s="1">
+        <v>1150</v>
+      </c>
+      <c r="D105" s="2">
+        <v>5</v>
+      </c>
+      <c r="E105" s="2">
+        <v>2</v>
+      </c>
+      <c r="F105" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B106" s="1">
         <v>10000</v>
@@ -3102,48 +3339,47 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B107" s="1">
         <v>10000</v>
       </c>
       <c r="C107" s="1">
-        <v>9610</v>
+        <v>8550</v>
       </c>
       <c r="D107" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F107" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B108" s="1">
         <v>10000</v>
       </c>
       <c r="C108" s="1">
-        <v>11642</v>
+        <v>11550</v>
       </c>
       <c r="D108" s="2">
-        <v>3</v>
-      </c>
-      <c r="E108" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E108" s="2">
+        <v>5</v>
+      </c>
       <c r="F108" s="2">
-        <v>100</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B109" s="1">
         <v>10000</v>
@@ -3155,23 +3391,27 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="1">
         <v>10000</v>
       </c>
       <c r="C110" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>9980</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2</v>
+      </c>
       <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F110" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B111" s="1">
         <v>10000</v>
@@ -3183,19 +3423,23 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B112" s="1">
         <v>10000</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1">
+        <v>9000</v>
+      </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113" s="1">
         <v>10000</v>
@@ -3207,7 +3451,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B114" s="1">
         <v>10000</v>
@@ -3219,7 +3463,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115" s="1">
         <v>10000</v>
@@ -3231,7 +3475,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B116" s="1">
         <v>10000</v>
@@ -3243,55 +3487,54 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117" s="1">
         <v>10000</v>
       </c>
       <c r="C117" s="1">
-        <v>10720</v>
+        <v>11970</v>
       </c>
       <c r="D117" s="2">
+        <v>3</v>
+      </c>
+      <c r="E117" s="2">
         <v>1</v>
       </c>
-      <c r="E117" s="2"/>
       <c r="F117" s="2">
-        <v>100</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B118" s="1">
         <v>10000</v>
       </c>
       <c r="C118" s="1">
-        <v>9950</v>
+        <v>10970</v>
       </c>
       <c r="D118" s="2">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2">
         <v>2</v>
       </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
       <c r="F118" s="10">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119" s="1">
         <v>10000</v>
       </c>
       <c r="C119" s="1">
-        <v>9560</v>
+        <v>9980</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
@@ -3305,7 +3548,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120" s="1">
         <v>10000</v>
@@ -3317,7 +3560,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121" s="1">
         <v>10000</v>
@@ -3329,13 +3572,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="1">
         <v>10000</v>
       </c>
       <c r="C122" s="1">
-        <v>10370</v>
+        <v>11970</v>
       </c>
       <c r="D122" s="2">
         <v>3</v>
@@ -3352,7 +3595,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B123" s="1">
         <v>10000</v>
@@ -3364,13 +3607,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>10000</v>
       </c>
       <c r="C124" s="1">
-        <v>9060</v>
+        <v>9900</v>
       </c>
       <c r="D124" s="2">
         <v>2</v>
@@ -3385,7 +3628,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>10000</v>
@@ -3398,13 +3641,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>10000</v>
       </c>
       <c r="C126" s="1">
-        <v>10200</v>
+        <v>10450</v>
       </c>
       <c r="D126" s="2">
         <v>1</v>
@@ -3419,28 +3662,28 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
         <v>10000</v>
       </c>
       <c r="C127" s="1">
-        <v>10180</v>
+        <v>11980</v>
       </c>
       <c r="D127" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2">
         <v>100</v>
       </c>
       <c r="G127" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B128" s="1">
         <v>10000</v>
@@ -3453,37 +3696,49 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B129" s="1">
         <v>10000</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="C129" s="1">
+        <v>10150</v>
+      </c>
+      <c r="D129" s="2">
+        <v>7</v>
+      </c>
+      <c r="E129" s="2">
+        <v>6</v>
+      </c>
+      <c r="F129" s="2">
+        <v>54</v>
+      </c>
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" s="1">
         <v>10000</v>
       </c>
       <c r="C130" s="1">
-        <v>9627</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>7700</v>
+      </c>
+      <c r="D130" s="2">
+        <v>6</v>
+      </c>
       <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F130" s="2">
+        <v>38</v>
+      </c>
       <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B131" s="1">
         <v>10000</v>
@@ -3496,20 +3751,28 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B132" s="1">
         <v>10000</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="C132" s="1">
+        <v>9990</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <v>50</v>
+      </c>
       <c r="G132" s="2"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
@@ -3522,7 +3785,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
@@ -3535,7 +3798,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" s="1">
         <v>10000</v>
@@ -3548,20 +3811,24 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B136" s="1">
         <v>10000</v>
       </c>
-      <c r="C136" s="1"/>
+      <c r="C136" s="1">
+        <v>8000</v>
+      </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="2">
+        <v>2</v>
+      </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="1">
         <v>10000</v>
@@ -3571,50 +3838,56 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B138" s="1">
         <v>10000</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="C138" s="1">
+        <v>8700</v>
+      </c>
+      <c r="D138" s="2">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2">
+        <v>8</v>
+      </c>
+      <c r="F138" s="2">
+        <v>43</v>
+      </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="1">
         <v>10000</v>
       </c>
       <c r="C139" s="1">
-        <v>10102</v>
+        <v>10500</v>
       </c>
       <c r="D139" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F139" s="2">
-        <v>50</v>
-      </c>
-      <c r="G139" s="2">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G139" s="2"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B140" s="1">
         <v>10000</v>
@@ -3627,7 +3900,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B141" s="1">
         <v>10000</v>
@@ -3640,7 +3913,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B142" s="1">
         <v>10000</v>
@@ -3653,7 +3926,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B143" s="1">
         <v>10000</v>
@@ -3666,7 +3939,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B144" s="1">
         <v>10000</v>
@@ -3679,7 +3952,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B145" s="1">
         <v>10000</v>
@@ -3692,7 +3965,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" s="1">
         <v>10000</v>
@@ -3705,7 +3978,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B147" s="1">
         <v>10000</v>
@@ -3718,7 +3991,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B148" s="1">
         <v>10000</v>
@@ -3731,41 +4004,41 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B149" s="1">
         <v>10000</v>
       </c>
-      <c r="C149" s="1">
-        <v>9970</v>
-      </c>
-      <c r="D149" s="2">
-        <v>1</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="2">
-        <v>50</v>
-      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B150" s="1">
         <v>10000</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="C150" s="1">
+        <v>7450</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2">
+        <v>6</v>
+      </c>
+      <c r="F150" s="2">
+        <v>14</v>
+      </c>
       <c r="G150" s="2"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B151" s="1">
         <v>10000</v>
@@ -3778,7 +4051,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B152" s="1">
         <v>10000</v>
@@ -3791,7 +4064,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B153" s="1">
         <v>10000</v>
@@ -3804,7 +4077,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B154" s="1">
         <v>10000</v>
@@ -3817,7 +4090,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B155" s="1">
         <v>10000</v>
@@ -3830,7 +4103,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" s="1">
         <v>10000</v>
@@ -3843,24 +4116,28 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B157" s="1">
         <v>10000</v>
       </c>
       <c r="C157" s="1">
-        <v>9250</v>
-      </c>
-      <c r="D157" s="2"/>
+        <v>9350</v>
+      </c>
+      <c r="D157" s="2">
+        <v>3</v>
+      </c>
       <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F157" s="2">
+        <v>43</v>
+      </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158" s="1">
         <v>10000</v>
@@ -3873,7 +4150,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B159" s="1">
         <v>10000</v>
@@ -3886,7 +4163,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B160" s="1">
         <v>10000</v>
@@ -3899,7 +4176,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B161" s="1">
         <v>10000</v>
@@ -3912,7 +4189,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B162" s="1">
         <v>10000</v>
@@ -3925,7 +4202,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B163" s="1">
         <v>10000</v>
@@ -3938,7 +4215,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B164" s="1">
         <v>10000</v>
@@ -3951,7 +4228,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B165" s="1">
         <v>10000</v>
@@ -3964,7 +4241,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B166" s="1">
         <v>10000</v>
@@ -3977,20 +4254,30 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B167" s="1">
         <v>10000</v>
       </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
+      <c r="C167" s="1">
+        <v>12960</v>
+      </c>
+      <c r="D167" s="2">
+        <v>4</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2">
+        <v>80</v>
+      </c>
+      <c r="G167" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B168" s="1">
         <v>10000</v>
@@ -4003,41 +4290,95 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B169" s="1">
         <v>10000</v>
       </c>
-      <c r="C169" s="1"/>
+      <c r="C169" s="1">
+        <v>8000</v>
+      </c>
       <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="2">
+        <v>2</v>
+      </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="A170" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C170" s="1">
+        <v>10980</v>
+      </c>
+      <c r="D170" s="2">
+        <v>2</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+      <c r="F170" s="2">
+        <v>67</v>
+      </c>
       <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
+      <c r="A171" t="s">
+        <v>227</v>
+      </c>
+      <c r="B171" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C171" s="1">
+        <v>10980</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1</v>
+      </c>
+      <c r="F171" s="2">
+        <v>67</v>
+      </c>
+      <c r="G171" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
+      <c r="A172" t="s">
+        <v>228</v>
+      </c>
+      <c r="B172" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C172" s="1">
+        <v>9990</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172" s="2">
+        <v>50</v>
+      </c>
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>229</v>
+      </c>
+      <c r="B173" s="1">
+        <v>10000</v>
+      </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4419,10 +4760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,25 +4779,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -4464,60 +4805,77 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -4525,25 +4883,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -4551,277 +4909,277 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
       </c>
       <c r="G9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="C11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" t="s">
         <v>11</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" t="s">
-        <v>205</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="G16" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="G17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H18" t="s">
         <v>100</v>
@@ -4829,1212 +5187,1212 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" t="s">
-        <v>205</v>
-      </c>
+      <c r="A28" s="8"/>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" t="s">
-        <v>205</v>
-      </c>
+      <c r="A37" s="8"/>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" t="s">
-        <v>217</v>
-      </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" t="s">
-        <v>205</v>
-      </c>
-      <c r="G40" t="s">
-        <v>217</v>
-      </c>
-      <c r="H40" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+      <c r="H44" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="G43" t="s">
-        <v>217</v>
-      </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" t="s">
-        <v>205</v>
-      </c>
-      <c r="G44" t="s">
-        <v>217</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" t="s">
+        <v>204</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" t="s">
-        <v>158</v>
-      </c>
+      <c r="A48" s="8"/>
       <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H49" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H51" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H59" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C69" t="s">
@@ -6044,1411 +6402,1438 @@
         <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H70" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H71" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
         <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H72" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
         <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H74" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H75" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H76" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
         <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H78" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G79" t="s">
         <v>218</v>
       </c>
       <c r="H79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H80" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H81" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G82" t="s">
-        <v>219</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>124</v>
+        <v>218</v>
+      </c>
+      <c r="H82" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
         <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G83" t="s">
-        <v>219</v>
-      </c>
-      <c r="H83" t="s">
-        <v>66</v>
+        <v>218</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H84" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H85" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
         <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H87" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="D88" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
+        <v>206</v>
       </c>
       <c r="G88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G90" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="G92" t="s">
+        <v>218</v>
+      </c>
+      <c r="H92" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="G91" t="s">
-        <v>219</v>
-      </c>
-      <c r="H91" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
-        <v>147</v>
-      </c>
-      <c r="D92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" t="s">
-        <v>170</v>
-      </c>
-      <c r="F92" t="s">
-        <v>207</v>
-      </c>
-      <c r="G92" t="s">
-        <v>219</v>
-      </c>
-      <c r="H92" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
         <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H94" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H96" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H97" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H98" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H99" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H100" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H102" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H104" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H105" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H106" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H108" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F110" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H110" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" t="s">
         <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H111" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H112" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F113" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H113" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H114" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H115" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H116" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F118" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G118" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H118" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F119" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H119" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E120" t="s">
         <v>169</v>
       </c>
       <c r="F120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H120" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>95</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E121" t="s">
         <v>169</v>
       </c>
       <c r="F121" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G121" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H121" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F122" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H122" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F123" t="s">
         <v>207</v>
       </c>
       <c r="G123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H123" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="D124" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" t="s">
+        <v>207</v>
       </c>
       <c r="G124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H124" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B125" t="s">
-        <v>96</v>
+      <c r="B125" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C125" t="s">
         <v>147</v>
@@ -7457,24 +7842,24 @@
         <v>151</v>
       </c>
       <c r="E125" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G125" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H125" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
-        <v>96</v>
+      <c r="B126" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C126" t="s">
         <v>147</v>
@@ -7483,434 +7868,462 @@
         <v>151</v>
       </c>
       <c r="E126" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G126" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H126" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H127" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D128" t="s">
         <v>150</v>
       </c>
       <c r="E128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D129" t="s">
         <v>150</v>
       </c>
       <c r="E129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F129" t="s">
         <v>206</v>
       </c>
       <c r="G129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H129" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>147</v>
+      <c r="A130" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F130" t="s">
         <v>206</v>
       </c>
       <c r="G130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H130" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B131" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C131" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F131" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>126</v>
+      <c r="A132" t="s">
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F132" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G132" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B133" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F133" t="s">
         <v>206</v>
       </c>
       <c r="G133" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H133" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
+      <c r="A134" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" t="s">
+        <v>95</v>
+      </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="D134" t="s">
+        <v>150</v>
+      </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" t="s">
+        <v>206</v>
+      </c>
+      <c r="G134" t="s">
+        <v>218</v>
       </c>
       <c r="H134" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+      <c r="A135" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" t="s">
+        <v>95</v>
+      </c>
       <c r="C135" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="D135" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" t="s">
+        <v>205</v>
+      </c>
+      <c r="G135" t="s">
+        <v>218</v>
       </c>
       <c r="H135" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="C136" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H136" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="C137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H137" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="C138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H138" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H139" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="C140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H140" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="C141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
+      <c r="H142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="H143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
+      <c r="C144" t="s">
+        <v>146</v>
+      </c>
+      <c r="H144" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="C142" t="s">
-        <v>147</v>
-      </c>
-      <c r="H142" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145" t="s">
+        <v>150</v>
+      </c>
+      <c r="E145" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" t="s">
+        <v>206</v>
+      </c>
+      <c r="G145" t="s">
+        <v>218</v>
+      </c>
+      <c r="H145" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B143" t="s">
-        <v>96</v>
-      </c>
-      <c r="C143" t="s">
-        <v>147</v>
-      </c>
-      <c r="D143" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143" t="s">
-        <v>170</v>
-      </c>
-      <c r="F143" t="s">
-        <v>207</v>
-      </c>
-      <c r="G143" t="s">
-        <v>219</v>
-      </c>
-      <c r="H143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B144" t="s">
-        <v>96</v>
-      </c>
-      <c r="C144" t="s">
-        <v>96</v>
-      </c>
-      <c r="D144" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" t="s">
-        <v>170</v>
-      </c>
-      <c r="F144" t="s">
-        <v>206</v>
-      </c>
-      <c r="G144" t="s">
-        <v>219</v>
-      </c>
-      <c r="H144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="C145" t="s">
-        <v>145</v>
-      </c>
-      <c r="G145" t="s">
-        <v>217</v>
-      </c>
-      <c r="H145" t="s">
-        <v>192</v>
-      </c>
-    </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146" t="s">
+        <v>95</v>
+      </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>95</v>
+      </c>
+      <c r="D146" t="s">
+        <v>150</v>
+      </c>
+      <c r="E146" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" t="s">
+        <v>205</v>
       </c>
       <c r="G146" t="s">
         <v>218</v>
       </c>
       <c r="H146" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G147" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H147" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G148" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H148" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G149" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H149" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G150" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H150" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C151" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E151" t="s">
         <v>169</v>
       </c>
       <c r="F151" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H151" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
+      <c r="A152" s="9"/>
       <c r="C152" t="s">
         <v>146</v>
       </c>
@@ -7918,55 +8331,69 @@
         <v>218</v>
       </c>
       <c r="H152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" t="s">
+        <v>168</v>
+      </c>
+      <c r="F153" t="s">
+        <v>204</v>
+      </c>
+      <c r="G153" t="s">
+        <v>216</v>
+      </c>
+      <c r="H153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="C154" t="s">
+        <v>145</v>
+      </c>
+      <c r="G154" t="s">
+        <v>217</v>
+      </c>
+      <c r="H154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="C155" t="s">
+        <v>145</v>
+      </c>
+      <c r="G155" t="s">
+        <v>217</v>
+      </c>
+      <c r="H155" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-      <c r="C153" t="s">
-        <v>146</v>
-      </c>
-      <c r="G153" t="s">
-        <v>218</v>
-      </c>
-      <c r="H153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="C154" t="s">
-        <v>146</v>
-      </c>
-      <c r="G154" t="s">
-        <v>218</v>
-      </c>
-      <c r="H154" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="C155" t="s">
-        <v>146</v>
-      </c>
-      <c r="G155" t="s">
-        <v>218</v>
-      </c>
-      <c r="H155" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="C156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H156" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7978,35 +8405,35 @@
         <v>217</v>
       </c>
       <c r="H157" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="C158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H158" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
+      <c r="A159" s="9"/>
       <c r="C159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H159" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
+      <c r="A160" s="9"/>
       <c r="C160" t="s">
         <v>145</v>
       </c>
@@ -8014,69 +8441,209 @@
         <v>217</v>
       </c>
       <c r="H160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="C161" t="s">
+        <v>144</v>
+      </c>
+      <c r="G161" t="s">
+        <v>216</v>
+      </c>
+      <c r="H161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="C162" t="s">
+        <v>144</v>
+      </c>
+      <c r="G162" t="s">
+        <v>216</v>
+      </c>
+      <c r="H162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="9"/>
+      <c r="C163" t="s">
+        <v>145</v>
+      </c>
+      <c r="G163" t="s">
+        <v>217</v>
+      </c>
+      <c r="H163" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="C161" t="s">
-        <v>146</v>
-      </c>
-      <c r="G161" t="s">
-        <v>218</v>
-      </c>
-      <c r="H161" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
-      <c r="C162" t="s">
-        <v>147</v>
-      </c>
-      <c r="G162" t="s">
-        <v>219</v>
-      </c>
-      <c r="H162" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B163" t="s">
-        <v>96</v>
-      </c>
-      <c r="C163" t="s">
-        <v>147</v>
-      </c>
-      <c r="D163" t="s">
-        <v>151</v>
-      </c>
-      <c r="E163" t="s">
-        <v>170</v>
-      </c>
-      <c r="F163" t="s">
-        <v>207</v>
-      </c>
-      <c r="G163" t="s">
-        <v>219</v>
-      </c>
-      <c r="H163" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="C164" t="s">
+        <v>146</v>
+      </c>
+      <c r="G164" t="s">
+        <v>218</v>
+      </c>
+      <c r="H164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" t="s">
+        <v>146</v>
+      </c>
+      <c r="D165" t="s">
+        <v>150</v>
+      </c>
+      <c r="E165" t="s">
+        <v>169</v>
+      </c>
+      <c r="F165" t="s">
+        <v>206</v>
+      </c>
+      <c r="G165" t="s">
+        <v>218</v>
+      </c>
+      <c r="H165" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B166" t="s">
+        <v>95</v>
+      </c>
+      <c r="C166" t="s">
+        <v>146</v>
+      </c>
+      <c r="D166" t="s">
+        <v>150</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+      <c r="F166" t="s">
+        <v>206</v>
+      </c>
+      <c r="G166" t="s">
+        <v>218</v>
+      </c>
+      <c r="H166" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+      <c r="C167" t="s">
+        <v>146</v>
+      </c>
+      <c r="D167" t="s">
+        <v>150</v>
+      </c>
+      <c r="E167" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" t="s">
+        <v>206</v>
+      </c>
+      <c r="G167" t="s">
+        <v>218</v>
+      </c>
+      <c r="H167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
         <v>145</v>
       </c>
-      <c r="G164" t="s">
-        <v>217</v>
-      </c>
-      <c r="H164" t="s">
-        <v>226</v>
+      <c r="D168" t="s">
+        <v>148</v>
+      </c>
+      <c r="E168" t="s">
+        <v>168</v>
+      </c>
+      <c r="F168" t="s">
+        <v>204</v>
+      </c>
+      <c r="G168" t="s">
+        <v>216</v>
+      </c>
+      <c r="H168" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="C169" t="s">
+        <v>230</v>
+      </c>
+      <c r="H169" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="C170" t="s">
+        <v>230</v>
+      </c>
+      <c r="H170" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="C171" t="s">
+        <v>230</v>
+      </c>
+      <c r="H171" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="C172" t="s">
+        <v>230</v>
+      </c>
+      <c r="H172" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
+      <c r="C173" t="s">
+        <v>230</v>
+      </c>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -8091,10 +8658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776695-D5A1-4904-8E78-54A23B163D0F}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8106,144 +8673,144 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7">
         <v>-1002105211537</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="6">
         <v>-1001957612350</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7">
         <v>-1002018254333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="6">
         <v>-1002088477755</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>-1002486405540</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>-1002383589094</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>-1002367221793</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="6">
-        <v>-1002308423882</v>
+        <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="7">
-        <v>-1002305899683</v>
+        <v>-1002378514893</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="6">
-        <v>-1002276990714</v>
+        <v>-1002407233853</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="7">
-        <v>-1002248753359</v>
+        <v>230</v>
+      </c>
+      <c r="B12" s="17">
+        <v>-1002348395828</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="6">
-        <v>-1002170091825</v>
+        <v>147</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-1002248753359</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>153</v>
@@ -8251,148 +8818,159 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="7">
-        <v>-1002177242150</v>
+        <v>148</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-1002170091825</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="6">
-        <v>-1002148324453</v>
+        <v>149</v>
+      </c>
+      <c r="B15" s="7">
+        <v>-1002177242150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-1002148324453</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B16" s="7">
-        <v>-1002242675024</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B17" s="7">
-        <v>-1002450143442</v>
+        <v>-1002242675024</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="14">
-        <v>-1002294601204</v>
+      <c r="B18" s="7">
+        <v>-1002450143442</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B19" s="14">
-        <v>-1002322215761</v>
+        <v>-1002294601204</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" s="14">
-        <v>-1002426461312</v>
+        <v>-1002322215761</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21" s="14">
-        <v>-1002496590323</v>
+        <v>-1002426461312</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="14">
+        <v>-1002496590323</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B22" s="14">
-        <v>-1002390358046</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="7">
-        <v>-1002361153876</v>
+        <v>178</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-1002390358046</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="14"/>
+        <v>207</v>
+      </c>
+      <c r="B24" s="7">
+        <v>-1002361153876</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot Reventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B29B56FB-5BD0-4C33-91BC-FFD299585718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C65859-9087-4393-B47F-306FD065394F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{D088F0E5-06C3-40FC-AF34-4161196E4290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EE378C9-BAC2-4C7A-9487-6F137E411673}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="242">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Retos japo</t>
   </si>
   <si>
-    <t>LMB pirrupicks</t>
-  </si>
-  <si>
     <t>El profe VIP</t>
   </si>
   <si>
@@ -730,7 +727,43 @@
     <t>Parlays Tio Polo</t>
   </si>
   <si>
-    <t>los rey app adm</t>
+    <t>El Profe de las Fijas</t>
+  </si>
+  <si>
+    <t>Tips King</t>
+  </si>
+  <si>
+    <t>Anonimous Bets</t>
+  </si>
+  <si>
+    <t>Bets Evolution</t>
+  </si>
+  <si>
+    <t>El Padrino</t>
+  </si>
+  <si>
+    <t>InfoBets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merlwin </t>
+  </si>
+  <si>
+    <t>Bet Panther</t>
+  </si>
+  <si>
+    <t>Tipster Futbol 10</t>
+  </si>
+  <si>
+    <t>David Bets</t>
+  </si>
+  <si>
+    <t>Iluminati NHL</t>
+  </si>
+  <si>
+    <t>PirruPicks LMP</t>
+  </si>
+  <si>
+    <t>los rey adm</t>
   </si>
 </sst>
 </file>
@@ -862,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -875,14 +908,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,8 +1093,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G173" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
-  <autoFilter ref="A1:G173" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:G184" totalsRowShown="0" dataDxfId="9" dataCellStyle="Porcentaje">
+  <autoFilter ref="A1:G184" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Tipster"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Inicial" dataDxfId="8"/>
@@ -1078,8 +1109,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:H173" totalsRowShown="0">
-  <autoFilter ref="A1:H173" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}" name="Tabla33" displayName="Tabla33" ref="A1:H184" totalsRowShown="0">
+  <autoFilter ref="A1:H184" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H179">
+    <sortCondition ref="C1:C179"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
@@ -1426,7 +1460,7 @@
   <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1501,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
@@ -1479,7 +1513,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -1491,94 +1525,106 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1">
-        <v>11950</v>
+        <v>11910</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>63</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
       </c>
       <c r="C5" s="1">
-        <v>9990</v>
+        <v>8990</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <v>6930</v>
+        <v>5890</v>
       </c>
       <c r="D6" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>9000</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="1">
+        <v>13940</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1587,29 +1633,37 @@
       <c r="B9" s="1">
         <v>10000</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="1">
+        <v>5177</v>
+      </c>
+      <c r="D9" s="2">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1">
         <v>10000</v>
       </c>
       <c r="C10" s="1">
-        <v>9450</v>
+        <v>7950</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,19 +1674,16 @@
         <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>9900</v>
+        <v>10550</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
-        <v>52</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1643,16 +1694,16 @@
         <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>9650</v>
+        <v>12150</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F12" s="10">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1660,25 +1711,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1">
         <v>10000</v>
       </c>
       <c r="C13" s="1">
-        <v>10400</v>
+        <v>13100</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="10">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1712,16 +1763,16 @@
         <v>10000</v>
       </c>
       <c r="C16" s="1">
-        <v>8800</v>
+        <v>6050</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1735,36 +1786,39 @@
         <v>10000</v>
       </c>
       <c r="C17" s="1">
-        <v>7990</v>
+        <v>6980</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1">
         <v>10000</v>
       </c>
       <c r="C18" s="1">
-        <v>11100</v>
+        <v>13550</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,21 +1840,21 @@
         <v>10000</v>
       </c>
       <c r="C20" s="1">
-        <v>10850</v>
+        <v>7950</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1">
         <v>10000</v>
@@ -1811,25 +1865,25 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1">
         <v>10000</v>
       </c>
       <c r="C22" s="1">
-        <v>11750</v>
+        <v>14250</v>
       </c>
       <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
+        <v>75</v>
+      </c>
+      <c r="G22">
         <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>83</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1851,24 +1905,21 @@
         <v>10000</v>
       </c>
       <c r="C24" s="1">
-        <v>11150</v>
+        <v>16450</v>
       </c>
       <c r="D24" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>64</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1">
         <v>10000</v>
@@ -1908,24 +1959,24 @@
         <v>10000</v>
       </c>
       <c r="C28" s="1">
-        <v>13750</v>
+        <v>14700</v>
       </c>
       <c r="D28" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1">
         <v>10000</v>
@@ -1948,22 +1999,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1">
         <v>10000</v>
       </c>
       <c r="C31" s="1">
-        <v>7100</v>
+        <v>12400</v>
       </c>
       <c r="D31" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,48 +2026,53 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="1">
         <v>10000</v>
       </c>
       <c r="C33" s="1">
-        <v>10200</v>
+        <v>12150</v>
       </c>
       <c r="D33" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1">
         <v>10000</v>
       </c>
       <c r="C34" s="1">
-        <v>9980</v>
+        <v>9960</v>
       </c>
       <c r="D34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
-        <v>50</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2026,16 +2082,16 @@
         <v>10000</v>
       </c>
       <c r="C35" s="1">
-        <v>11550</v>
+        <v>14000</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -2049,24 +2105,24 @@
         <v>10000</v>
       </c>
       <c r="C36" s="1">
-        <v>13300</v>
+        <v>14950</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1">
         <v>10000</v>
@@ -2084,16 +2140,16 @@
         <v>10000</v>
       </c>
       <c r="C38" s="1">
-        <v>11950</v>
+        <v>15500</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2129,54 +2185,63 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>10750</v>
+        <v>7700</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2">
-        <v>63</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="1">
         <v>10000</v>
       </c>
       <c r="C42" s="1">
-        <v>10200</v>
+        <v>10350</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="B43" s="1">
         <v>10000</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="C43" s="1">
+        <v>10850</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2186,16 +2251,19 @@
         <v>10000</v>
       </c>
       <c r="C44" s="1">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2211,22 +2279,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1">
         <v>10000</v>
       </c>
       <c r="C46" s="1">
-        <v>9800</v>
+        <v>11300</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2234,7 +2302,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1">
         <v>10000</v>
@@ -2255,25 +2323,25 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1">
         <v>10000</v>
       </c>
       <c r="C48" s="1">
-        <v>9750</v>
+        <v>15950</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F48" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2337,19 +2405,16 @@
         <v>10000</v>
       </c>
       <c r="C53" s="1">
-        <v>12960</v>
+        <v>10960</v>
       </c>
       <c r="D53" s="2">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
         <v>3</v>
       </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
       <c r="F53" s="2">
-        <v>75</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,21 +2425,24 @@
         <v>10000</v>
       </c>
       <c r="C54" s="1">
-        <v>7700</v>
+        <v>11950</v>
       </c>
       <c r="D54" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E54" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F54" s="2">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1">
         <v>10000</v>
@@ -2386,7 +2454,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="1">
         <v>10000</v>
@@ -2395,7 +2463,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="15"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -2405,19 +2473,16 @@
         <v>10000</v>
       </c>
       <c r="C57" s="1">
-        <v>12050</v>
+        <v>11300</v>
       </c>
       <c r="D57" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F57" s="2">
-        <v>69</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2440,19 +2505,16 @@
         <v>10000</v>
       </c>
       <c r="C59" s="1">
-        <v>11500</v>
+        <v>10350</v>
       </c>
       <c r="D59" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F59" s="2">
-        <v>63</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,19 +2525,16 @@
         <v>10000</v>
       </c>
       <c r="C60" s="1">
-        <v>9100</v>
+        <v>15600</v>
       </c>
       <c r="D60" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E60" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F60" s="2">
-        <v>47</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2511,21 +2570,21 @@
         <v>10000</v>
       </c>
       <c r="C63" s="1">
-        <v>11550</v>
+        <v>9550</v>
       </c>
       <c r="D63" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F63" s="2">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B64" s="1">
         <v>10000</v>
@@ -2543,16 +2602,19 @@
         <v>10000</v>
       </c>
       <c r="C65" s="1">
-        <v>9750</v>
+        <v>7650</v>
       </c>
       <c r="D65" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F65" s="2">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2563,39 +2625,39 @@
         <v>10000</v>
       </c>
       <c r="C66" s="1">
-        <v>11050</v>
+        <v>11750</v>
       </c>
       <c r="D66" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2">
         <v>60</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="1">
         <v>10000</v>
       </c>
       <c r="C67" s="1">
-        <v>10980</v>
+        <v>10960</v>
       </c>
       <c r="D67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2606,16 +2668,16 @@
         <v>10000</v>
       </c>
       <c r="C68" s="1">
-        <v>11800</v>
+        <v>16100</v>
       </c>
       <c r="D68" s="2">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E68" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F68" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,16 +2708,19 @@
         <v>10000</v>
       </c>
       <c r="C70" s="1">
-        <v>10600</v>
+        <v>6600</v>
       </c>
       <c r="D70" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F70" s="2">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,13 +2731,17 @@
         <v>10000</v>
       </c>
       <c r="C71" s="1">
-        <v>8500</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>8450</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
       <c r="E71" s="2">
-        <v>3</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F71" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -2694,19 +2763,19 @@
         <v>10000</v>
       </c>
       <c r="C73" s="1">
-        <v>10800</v>
+        <v>11650</v>
       </c>
       <c r="D73" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,16 +2798,16 @@
         <v>10000</v>
       </c>
       <c r="C75" s="1">
-        <v>9200</v>
+        <v>5900</v>
       </c>
       <c r="D75" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E75" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F75" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2749,16 +2818,16 @@
         <v>10000</v>
       </c>
       <c r="C76" s="1">
-        <v>10500</v>
+        <v>11700</v>
       </c>
       <c r="D76" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E76" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F76" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2772,16 +2841,16 @@
         <v>10000</v>
       </c>
       <c r="C77" s="1">
-        <v>9950</v>
+        <v>9450</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
       <c r="E77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2792,16 +2861,16 @@
         <v>10000</v>
       </c>
       <c r="C78" s="1">
-        <v>10300</v>
+        <v>10150</v>
       </c>
       <c r="D78" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E78" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F78" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2812,16 +2881,16 @@
         <v>10000</v>
       </c>
       <c r="C79" s="1">
-        <v>14250</v>
+        <v>16850</v>
       </c>
       <c r="D79" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E79" s="2">
-        <v>5</v>
-      </c>
-      <c r="F79" s="13">
-        <v>75</v>
+        <v>16</v>
+      </c>
+      <c r="F79" s="12">
+        <v>67</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -2835,16 +2904,16 @@
         <v>10000</v>
       </c>
       <c r="C80" s="1">
-        <v>9600</v>
+        <v>10900</v>
       </c>
       <c r="D80" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,16 +2924,16 @@
         <v>10000</v>
       </c>
       <c r="C81" s="1">
-        <v>10950</v>
+        <v>10100</v>
       </c>
       <c r="D81" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E81" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F81" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,13 +2944,13 @@
         <v>10000</v>
       </c>
       <c r="C82" s="1">
-        <v>8950</v>
+        <v>7950</v>
       </c>
       <c r="D82" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E82" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F82" s="2">
         <v>48</v>
@@ -2912,16 +2981,16 @@
         <v>10000</v>
       </c>
       <c r="C84" s="1">
-        <v>10850</v>
+        <v>12150</v>
       </c>
       <c r="D84" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2950,22 +3019,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1">
         <v>10000</v>
       </c>
       <c r="C86" s="1">
-        <v>9350</v>
+        <v>6800</v>
       </c>
       <c r="D86" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,16 +3066,16 @@
         <v>10000</v>
       </c>
       <c r="C88" s="1">
-        <v>11900</v>
+        <v>13650</v>
       </c>
       <c r="D88" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E88" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -3014,7 +3083,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B89" s="1">
         <v>10000</v>
@@ -3077,16 +3146,19 @@
         <v>10000</v>
       </c>
       <c r="C93" s="1">
-        <v>8960</v>
+        <v>10920</v>
       </c>
       <c r="D93" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E93" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F93" s="2">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,10 +3192,18 @@
       <c r="B96" s="1">
         <v>10000</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="C96" s="1">
+        <v>9980</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -3156,19 +3236,16 @@
         <v>10000</v>
       </c>
       <c r="C98" s="1">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="D98" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E98" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F98" s="2">
-        <v>60</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,19 +3277,16 @@
         <v>10000</v>
       </c>
       <c r="C100" s="1">
-        <v>10960</v>
+        <v>10950</v>
       </c>
       <c r="D100" s="2">
+        <v>5</v>
+      </c>
+      <c r="E100" s="2">
         <v>4</v>
       </c>
-      <c r="E100" s="2">
-        <v>3</v>
-      </c>
       <c r="F100" s="2">
-        <v>57</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3223,19 +3297,19 @@
         <v>10000</v>
       </c>
       <c r="C101" s="1">
-        <v>17050</v>
+        <v>21350</v>
       </c>
       <c r="D101" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E101" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F101" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,16 +3320,16 @@
         <v>10000</v>
       </c>
       <c r="C102" s="1">
-        <v>9600</v>
+        <v>8750</v>
       </c>
       <c r="D102" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E102" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F102" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,16 +3340,16 @@
         <v>10000</v>
       </c>
       <c r="C103" s="1">
-        <v>10300</v>
+        <v>11500</v>
       </c>
       <c r="D103" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F103" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3284,7 +3358,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="1">
         <v>10000</v>
@@ -3307,22 +3381,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="1">
         <v>10000</v>
       </c>
       <c r="C105" s="1">
-        <v>1150</v>
+        <v>11650</v>
       </c>
       <c r="D105" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E105" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3345,16 +3419,16 @@
         <v>10000</v>
       </c>
       <c r="C107" s="1">
-        <v>8550</v>
-      </c>
-      <c r="D107" s="13">
-        <v>9</v>
+        <v>8850</v>
+      </c>
+      <c r="D107" s="12">
+        <v>13</v>
       </c>
       <c r="E107" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F107" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3365,16 +3439,19 @@
         <v>10000</v>
       </c>
       <c r="C108" s="1">
-        <v>11550</v>
+        <v>12450</v>
       </c>
       <c r="D108" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E108" s="2">
         <v>5</v>
       </c>
       <c r="F108" s="2">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3391,22 +3468,22 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B110" s="1">
         <v>10000</v>
       </c>
       <c r="C110" s="1">
-        <v>9980</v>
+        <v>6970</v>
       </c>
       <c r="D110" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F110" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3444,10 +3521,18 @@
       <c r="B113" s="1">
         <v>10000</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+      <c r="C113" s="1">
+        <v>9990</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -3456,10 +3541,19 @@
       <c r="B114" s="1">
         <v>10000</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="2"/>
+      <c r="C114" s="1">
+        <v>11980</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2</v>
+      </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>100</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -3493,16 +3587,19 @@
         <v>10000</v>
       </c>
       <c r="C117" s="1">
-        <v>11970</v>
+        <v>12960</v>
       </c>
       <c r="D117" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
       </c>
       <c r="F117" s="2">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,18 +3610,20 @@
         <v>10000</v>
       </c>
       <c r="C118" s="1">
-        <v>10970</v>
+        <v>11960</v>
       </c>
       <c r="D118" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
       </c>
       <c r="F118" s="10">
-        <v>60</v>
-      </c>
-      <c r="G118" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="G118" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -3553,10 +3652,19 @@
       <c r="B120" s="1">
         <v>10000</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="2"/>
+      <c r="C120" s="1">
+        <v>10990</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="F120" s="2">
+        <v>100</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -3607,28 +3715,28 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="1">
         <v>10000</v>
       </c>
       <c r="C124" s="1">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="D124" s="2">
         <v>2</v>
       </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F124" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="1">
         <v>10000</v>
@@ -3641,7 +3749,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="1">
         <v>10000</v>
@@ -3662,7 +3770,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1">
         <v>10000</v>
@@ -3683,7 +3791,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" s="1">
         <v>10000</v>
@@ -3696,28 +3804,28 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" s="1">
         <v>10000</v>
       </c>
       <c r="C129" s="1">
-        <v>10150</v>
+        <v>10050</v>
       </c>
       <c r="D129" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F129" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" s="1">
         <v>10000</v>
@@ -3738,20 +3846,28 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" s="1">
         <v>10000</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="C131" s="1">
+        <v>9990</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <v>50</v>
+      </c>
       <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="1">
         <v>10000</v>
@@ -3772,20 +3888,28 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133" s="1">
         <v>10000</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="2"/>
+      <c r="C133" s="1">
+        <v>12970</v>
+      </c>
+      <c r="D133" s="2">
+        <v>3</v>
+      </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="12"/>
+      <c r="F133" s="2">
+        <v>100</v>
+      </c>
+      <c r="G133" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" s="1">
         <v>10000</v>
@@ -3794,11 +3918,11 @@
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="13"/>
+      <c r="G134" s="12"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B135" s="1">
         <v>10000</v>
@@ -3811,83 +3935,93 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B136" s="1">
         <v>10000</v>
       </c>
       <c r="C136" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D136" s="2"/>
+        <v>5980</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2</v>
+      </c>
       <c r="E136" s="2">
-        <v>2</v>
-      </c>
-      <c r="F136" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F136" s="2">
+        <v>25</v>
+      </c>
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B137" s="1">
         <v>10000</v>
       </c>
       <c r="C137" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D137" s="2"/>
+        <v>9980</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2</v>
+      </c>
       <c r="E137" s="2">
         <v>2</v>
       </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
+      <c r="F137" s="2">
+        <v>50</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B138" s="1">
         <v>10000</v>
       </c>
       <c r="C138" s="1">
-        <v>8700</v>
+        <v>6200</v>
       </c>
       <c r="D138" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E138" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F138" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B139" s="1">
         <v>10000</v>
       </c>
       <c r="C139" s="1">
-        <v>10500</v>
+        <v>13600</v>
       </c>
       <c r="D139" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F139" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G139" s="2"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" s="1">
         <v>10000</v>
@@ -3900,7 +4034,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141" s="1">
         <v>10000</v>
@@ -3913,7 +4047,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142" s="1">
         <v>10000</v>
@@ -3926,7 +4060,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143" s="1">
         <v>10000</v>
@@ -3939,7 +4073,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144" s="1">
         <v>10000</v>
@@ -3952,7 +4086,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145" s="1">
         <v>10000</v>
@@ -3965,7 +4099,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146" s="1">
         <v>10000</v>
@@ -3978,7 +4112,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147" s="1">
         <v>10000</v>
@@ -3991,7 +4125,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148" s="1">
         <v>10000</v>
@@ -4004,7 +4138,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149" s="1">
         <v>10000</v>
@@ -4017,28 +4151,30 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150" s="1">
         <v>10000</v>
       </c>
       <c r="C150" s="1">
-        <v>7450</v>
+        <v>9700</v>
       </c>
       <c r="D150" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E150" s="2">
         <v>6</v>
       </c>
       <c r="F150" s="2">
-        <v>14</v>
-      </c>
-      <c r="G150" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151" s="1">
         <v>10000</v>
@@ -4051,7 +4187,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152" s="1">
         <v>10000</v>
@@ -4064,7 +4200,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153" s="1">
         <v>10000</v>
@@ -4077,7 +4213,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154" s="1">
         <v>10000</v>
@@ -4090,7 +4226,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155" s="1">
         <v>10000</v>
@@ -4103,7 +4239,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156" s="1">
         <v>10000</v>
@@ -4116,28 +4252,28 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" s="1">
         <v>10000</v>
       </c>
       <c r="C157" s="1">
-        <v>9350</v>
+        <v>8750</v>
       </c>
       <c r="D157" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E157" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F157" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158" s="1">
         <v>10000</v>
@@ -4150,7 +4286,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159" s="1">
         <v>10000</v>
@@ -4163,7 +4299,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160" s="1">
         <v>10000</v>
@@ -4176,7 +4312,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161" s="1">
         <v>10000</v>
@@ -4189,7 +4325,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162" s="1">
         <v>10000</v>
@@ -4202,7 +4338,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B163" s="1">
         <v>10000</v>
@@ -4215,20 +4351,28 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B164" s="1">
         <v>10000</v>
       </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
+      <c r="C164" s="1">
+        <v>13930</v>
+      </c>
+      <c r="D164" s="2">
+        <v>7</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3</v>
+      </c>
+      <c r="F164" s="2">
+        <v>70</v>
+      </c>
       <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B165" s="1">
         <v>10000</v>
@@ -4241,7 +4385,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B166" s="1">
         <v>10000</v>
@@ -4254,30 +4398,28 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B167" s="1">
         <v>10000</v>
       </c>
       <c r="C167" s="1">
-        <v>12960</v>
+        <v>17900</v>
       </c>
       <c r="D167" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E167" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" s="2">
-        <v>80</v>
-      </c>
-      <c r="G167" s="2">
-        <v>3</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B168" s="1">
         <v>10000</v>
@@ -4290,68 +4432,74 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B169" s="1">
         <v>10000</v>
       </c>
       <c r="C169" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D169" s="2"/>
+        <v>10980</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2</v>
+      </c>
       <c r="E169" s="2">
-        <v>2</v>
-      </c>
-      <c r="F169" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F169" s="2">
+        <v>67</v>
+      </c>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B170" s="1">
         <v>10000</v>
       </c>
       <c r="C170" s="1">
-        <v>10980</v>
+        <v>10960</v>
       </c>
       <c r="D170" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E170" s="2">
+        <v>3</v>
+      </c>
+      <c r="F170" s="2">
+        <v>57</v>
+      </c>
+      <c r="G170" s="2">
         <v>1</v>
       </c>
-      <c r="F170" s="2">
-        <v>67</v>
-      </c>
-      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B171" s="1">
         <v>10000</v>
       </c>
       <c r="C171" s="1">
-        <v>10980</v>
+        <v>11250</v>
       </c>
       <c r="D171" s="2">
+        <v>5</v>
+      </c>
+      <c r="E171" s="2">
         <v>2</v>
       </c>
-      <c r="E171" s="2">
-        <v>1</v>
-      </c>
       <c r="F171" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G171" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B172" s="1">
         <v>10000</v>
@@ -4372,7 +4520,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B173" s="1">
         <v>10000</v>
@@ -4384,132 +4532,242 @@
       <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
+      <c r="A174" t="s">
+        <v>229</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C174" s="1">
+        <v>9970</v>
+      </c>
+      <c r="D174" s="2">
+        <v>3</v>
+      </c>
+      <c r="E174" s="2">
+        <v>3</v>
+      </c>
+      <c r="F174" s="2">
+        <v>50</v>
+      </c>
       <c r="G174" s="2"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>230</v>
+      </c>
+      <c r="B175" s="1">
+        <v>10000</v>
+      </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>231</v>
+      </c>
+      <c r="B176" s="1">
+        <v>10000</v>
+      </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>232</v>
+      </c>
+      <c r="B177" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C177" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2">
+        <v>2</v>
+      </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>233</v>
+      </c>
+      <c r="B178" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C178" s="1">
+        <v>10990</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="F178" s="2">
+        <v>100</v>
+      </c>
+      <c r="G178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>234</v>
+      </c>
+      <c r="B179" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C179" s="1">
+        <v>10990</v>
+      </c>
+      <c r="D179" s="2">
+        <v>1</v>
+      </c>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="F179" s="2">
+        <v>100</v>
+      </c>
+      <c r="G179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C180" s="1">
+        <v>10990</v>
+      </c>
+      <c r="D180" s="2">
+        <v>1</v>
+      </c>
       <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F180" s="2">
+        <v>100</v>
+      </c>
+      <c r="G180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>236</v>
+      </c>
+      <c r="B181" s="1">
+        <v>10000</v>
+      </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>237</v>
+      </c>
+      <c r="B182" s="1">
+        <v>10000</v>
+      </c>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>238</v>
+      </c>
+      <c r="B183" s="1">
+        <v>10000</v>
+      </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>239</v>
+      </c>
+      <c r="B184" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C184" s="1">
+        <v>7250</v>
+      </c>
+      <c r="D184" s="2">
+        <v>5</v>
+      </c>
+      <c r="E184" s="2">
+        <v>10</v>
+      </c>
+      <c r="F184" s="2">
+        <v>33</v>
+      </c>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
@@ -4760,10 +5018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E74397-B7FF-4262-BB9B-3B72FCE56037}">
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4782,22 +5040,22 @@
         <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
-        <v>155</v>
-      </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -4805,10 +5063,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>144</v>
@@ -4820,21 +5078,21 @@
         <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>144</v>
@@ -4846,21 +5104,21 @@
         <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
         <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>144</v>
@@ -4878,67 +5136,39 @@
         <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>204</v>
-      </c>
       <c r="G5" t="s">
         <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" t="s">
-        <v>204</v>
-      </c>
       <c r="G6" t="s">
         <v>216</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>144</v>
@@ -4956,15 +5186,15 @@
         <v>216</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>144</v>
@@ -4976,21 +5206,21 @@
         <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
         <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>144</v>
@@ -5008,27 +5238,41 @@
         <v>216</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="C10" t="s">
         <v>144</v>
       </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
       <c r="G10" t="s">
         <v>216</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
+        <v>124</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -5046,7 +5290,7 @@
         <v>216</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -5059,16 +5303,16 @@
         <v>216</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -5086,15 +5330,15 @@
         <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>144</v>
@@ -5112,24 +5356,41 @@
         <v>216</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
       <c r="G15" t="s">
         <v>216</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>144</v>
@@ -5147,50 +5408,39 @@
         <v>216</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
       <c r="G17" t="s">
         <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="C18" t="s">
         <v>144</v>
       </c>
-      <c r="D18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" t="s">
-        <v>204</v>
-      </c>
       <c r="G18" t="s">
         <v>216</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>144</v>
@@ -5208,67 +5458,39 @@
         <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="C20" t="s">
         <v>144</v>
       </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" t="s">
-        <v>204</v>
-      </c>
       <c r="G20" t="s">
         <v>216</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
+      <c r="A21" s="8"/>
       <c r="C21" t="s">
         <v>144</v>
       </c>
-      <c r="D21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" t="s">
-        <v>204</v>
-      </c>
       <c r="G21" t="s">
         <v>216</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C22" t="s">
         <v>144</v>
@@ -5286,7 +5508,7 @@
         <v>216</v>
       </c>
       <c r="H22" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5298,41 +5520,27 @@
         <v>216</v>
       </c>
       <c r="H23" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
+      <c r="A24" s="8"/>
       <c r="C24" t="s">
         <v>144</v>
       </c>
-      <c r="D24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" t="s">
-        <v>204</v>
-      </c>
       <c r="G24" t="s">
         <v>216</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>144</v>
@@ -5350,15 +5558,15 @@
         <v>216</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>144</v>
@@ -5376,34 +5584,54 @@
         <v>216</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
       <c r="G27" t="s">
         <v>216</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
       <c r="G28" t="s">
         <v>216</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>144</v>
@@ -5421,44 +5649,30 @@
         <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
+      <c r="A30" s="8"/>
       <c r="C30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
@@ -5470,24 +5684,24 @@
         <v>204</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
         <v>168</v>
@@ -5496,50 +5710,50 @@
         <v>204</v>
       </c>
       <c r="G32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
         <v>168</v>
@@ -5548,132 +5762,137 @@
         <v>204</v>
       </c>
       <c r="G34" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" t="s">
-        <v>162</v>
+        <v>217</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H36" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="s">
+        <v>203</v>
+      </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" t="s">
-        <v>157</v>
-      </c>
+      <c r="A39" s="8"/>
       <c r="C39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>148</v>
@@ -5685,24 +5904,24 @@
         <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
         <v>168</v>
@@ -5711,21 +5930,21 @@
         <v>204</v>
       </c>
       <c r="G41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
         <v>148</v>
@@ -5737,111 +5956,114 @@
         <v>204</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
       <c r="G44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -5850,1201 +6072,1162 @@
         <v>204</v>
       </c>
       <c r="G47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>156</v>
+      </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" t="s">
+        <v>203</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>157</v>
+      <c r="A50" s="8"/>
+      <c r="B50" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>157</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H57" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G58" t="s">
         <v>217</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" t="s">
         <v>169</v>
-      </c>
-      <c r="F59" t="s">
-        <v>205</v>
-      </c>
-      <c r="G59" t="s">
-        <v>217</v>
-      </c>
-      <c r="H59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G60" t="s">
         <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
       <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" t="s">
-        <v>169</v>
-      </c>
-      <c r="F61" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H62" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
       <c r="C63" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" t="s">
-        <v>169</v>
-      </c>
-      <c r="F63" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="G63" t="s">
-        <v>217</v>
-      </c>
-      <c r="H63" t="s">
-        <v>41</v>
+        <v>215</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G65" t="s">
         <v>217</v>
       </c>
       <c r="H65" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H66" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H69" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
         <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H71" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G72" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H72" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="G73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G74" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H74" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H75" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
         <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G76" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H76" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H77" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H78" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G79" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H79" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G80" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H81" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="G82" t="s">
         <v>218</v>
       </c>
       <c r="H82" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H84" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
+      <c r="A85" s="8"/>
       <c r="C85" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H85" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" t="s">
-        <v>95</v>
+        <v>124</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C86" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H86" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E89" t="s">
         <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B90" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H91" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" t="s">
+        <v>204</v>
+      </c>
       <c r="G92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H92" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G93" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H93" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
+      <c r="A94" s="8"/>
       <c r="C94" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="G94" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="J94" s="3"/>
     </row>
@@ -7052,8 +7235,8 @@
       <c r="A95" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B95" t="s">
-        <v>95</v>
+      <c r="B95" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C95" t="s">
         <v>146</v>
@@ -7062,24 +7245,24 @@
         <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G95" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H95" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B96" t="s">
-        <v>95</v>
+      <c r="B96" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C96" t="s">
         <v>146</v>
@@ -7088,24 +7271,24 @@
         <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G96" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B97" t="s">
-        <v>95</v>
+      <c r="B97" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C97" t="s">
         <v>146</v>
@@ -7114,24 +7297,24 @@
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G97" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H97" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B98" t="s">
-        <v>95</v>
+      <c r="B98" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C98" t="s">
         <v>146</v>
@@ -7140,24 +7323,24 @@
         <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F98" t="s">
         <v>206</v>
       </c>
       <c r="G98" t="s">
-        <v>218</v>
-      </c>
-      <c r="H98" t="s">
-        <v>50</v>
+        <v>215</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B99" t="s">
-        <v>95</v>
+      <c r="B99" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>146</v>
@@ -7166,1034 +7349,950 @@
         <v>150</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F99" t="s">
         <v>206</v>
       </c>
       <c r="G99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H99" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
         <v>95</v>
       </c>
-      <c r="C100" t="s">
-        <v>146</v>
-      </c>
       <c r="D100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H100" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
         <v>95</v>
       </c>
-      <c r="C101" t="s">
-        <v>146</v>
-      </c>
       <c r="D101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H101" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
         <v>95</v>
       </c>
-      <c r="C102" t="s">
-        <v>146</v>
-      </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G102" t="s">
-        <v>218</v>
-      </c>
-      <c r="H102" t="s">
-        <v>91</v>
+        <v>215</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" t="s">
         <v>95</v>
       </c>
-      <c r="C103" t="s">
-        <v>146</v>
-      </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H103" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
         <v>95</v>
       </c>
-      <c r="C104" t="s">
-        <v>146</v>
-      </c>
       <c r="D104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H104" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
         <v>95</v>
       </c>
-      <c r="C105" t="s">
-        <v>146</v>
-      </c>
       <c r="D105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H105" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
         <v>95</v>
       </c>
-      <c r="C106" t="s">
-        <v>146</v>
-      </c>
       <c r="D106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H106" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
         <v>95</v>
       </c>
-      <c r="C107" t="s">
-        <v>146</v>
-      </c>
       <c r="D107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H107" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
         <v>95</v>
       </c>
-      <c r="C108" t="s">
-        <v>146</v>
-      </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H108" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
         <v>95</v>
       </c>
-      <c r="C109" t="s">
-        <v>146</v>
-      </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H109" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C110" t="s">
-        <v>146</v>
-      </c>
       <c r="D110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" t="s">
         <v>95</v>
       </c>
-      <c r="C111" t="s">
-        <v>146</v>
-      </c>
       <c r="D111" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H111" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
         <v>95</v>
       </c>
-      <c r="C112" t="s">
-        <v>146</v>
-      </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
         <v>95</v>
       </c>
-      <c r="C113" t="s">
-        <v>146</v>
-      </c>
       <c r="D113" t="s">
         <v>149</v>
       </c>
       <c r="E113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H113" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
         <v>95</v>
       </c>
-      <c r="C114" t="s">
-        <v>146</v>
-      </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H114" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
         <v>95</v>
       </c>
-      <c r="C115" t="s">
-        <v>146</v>
-      </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H115" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" t="s">
-        <v>95</v>
-      </c>
-      <c r="C116" t="s">
-        <v>146</v>
-      </c>
-      <c r="D116" t="s">
-        <v>150</v>
-      </c>
-      <c r="E116" t="s">
-        <v>169</v>
-      </c>
-      <c r="F116" t="s">
-        <v>206</v>
-      </c>
-      <c r="G116" t="s">
-        <v>218</v>
-      </c>
+      <c r="A116" s="8"/>
       <c r="H116" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" t="s">
-        <v>95</v>
-      </c>
-      <c r="C117" t="s">
-        <v>146</v>
-      </c>
-      <c r="D117" t="s">
-        <v>150</v>
-      </c>
-      <c r="E117" t="s">
-        <v>169</v>
-      </c>
-      <c r="F117" t="s">
-        <v>206</v>
-      </c>
+      <c r="A117" s="8"/>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H117" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C118" t="s">
-        <v>146</v>
-      </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G118" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H118" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C119" t="s">
-        <v>146</v>
-      </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G119" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H119" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C120" t="s">
-        <v>146</v>
-      </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H120" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C121" t="s">
-        <v>146</v>
-      </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E121" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H121" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" t="s">
-        <v>147</v>
-      </c>
-      <c r="D122" t="s">
-        <v>151</v>
-      </c>
-      <c r="E122" t="s">
-        <v>168</v>
-      </c>
-      <c r="F122" t="s">
-        <v>206</v>
-      </c>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
       <c r="G122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H122" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C123" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E123" t="s">
         <v>168</v>
       </c>
       <c r="F123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H123" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C124" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H124" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E125" t="s">
         <v>168</v>
       </c>
       <c r="F125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H125" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D126" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E126" t="s">
         <v>168</v>
       </c>
       <c r="F126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G126" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H126" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" t="s">
-        <v>146</v>
-      </c>
-      <c r="D127" t="s">
-        <v>150</v>
-      </c>
-      <c r="E127" t="s">
-        <v>169</v>
-      </c>
-      <c r="F127" t="s">
-        <v>206</v>
-      </c>
+      <c r="A127" s="8"/>
+      <c r="B127" s="16"/>
       <c r="G127" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H127" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C128" t="s">
-        <v>146</v>
-      </c>
       <c r="D128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H128" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C129" t="s">
-        <v>146</v>
-      </c>
-      <c r="D129" t="s">
-        <v>150</v>
-      </c>
-      <c r="E129" t="s">
-        <v>169</v>
-      </c>
-      <c r="F129" t="s">
-        <v>206</v>
-      </c>
-      <c r="G129" t="s">
-        <v>218</v>
-      </c>
+      <c r="A129" s="8"/>
       <c r="H129" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" t="s">
         <v>95</v>
       </c>
-      <c r="C130" t="s">
-        <v>146</v>
-      </c>
       <c r="D130" t="s">
         <v>149</v>
       </c>
       <c r="E130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H130" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B131" t="s">
-        <v>93</v>
-      </c>
-      <c r="C131" t="s">
-        <v>144</v>
-      </c>
-      <c r="D131" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" t="s">
-        <v>169</v>
-      </c>
-      <c r="F131" t="s">
-        <v>205</v>
-      </c>
+      <c r="A131" s="8"/>
       <c r="G131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H131" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>146</v>
+      <c r="A132" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="B132" t="s">
         <v>95</v>
       </c>
-      <c r="C132" t="s">
-        <v>146</v>
-      </c>
       <c r="D132" t="s">
         <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F132" t="s">
         <v>205</v>
       </c>
       <c r="G132" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H132" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B133" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C133" t="s">
-        <v>146</v>
-      </c>
       <c r="D133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B134" t="s">
         <v>95</v>
       </c>
-      <c r="C134" t="s">
-        <v>146</v>
-      </c>
       <c r="D134" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G134" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B135" t="s">
         <v>95</v>
       </c>
-      <c r="C135" t="s">
-        <v>146</v>
-      </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F135" t="s">
         <v>205</v>
       </c>
       <c r="G135" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H135" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-      <c r="C136" t="s">
-        <v>146</v>
+      <c r="A136" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" t="s">
+        <v>149</v>
+      </c>
+      <c r="E136" t="s">
+        <v>168</v>
+      </c>
+      <c r="F136" t="s">
+        <v>205</v>
+      </c>
+      <c r="G136" t="s">
+        <v>217</v>
       </c>
       <c r="H136" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="C137" t="s">
-        <v>146</v>
+      <c r="A137" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" t="s">
+        <v>149</v>
+      </c>
+      <c r="E137" t="s">
+        <v>168</v>
+      </c>
+      <c r="F137" t="s">
+        <v>205</v>
+      </c>
+      <c r="G137" t="s">
+        <v>217</v>
       </c>
       <c r="H137" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="C138" t="s">
-        <v>146</v>
+      <c r="A138" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B138" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138" t="s">
+        <v>168</v>
+      </c>
+      <c r="F138" t="s">
+        <v>205</v>
+      </c>
+      <c r="G138" t="s">
+        <v>217</v>
       </c>
       <c r="H138" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
-      <c r="C139" t="s">
-        <v>146</v>
+      <c r="G139" t="s">
+        <v>215</v>
       </c>
       <c r="H139" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="C140" t="s">
-        <v>146</v>
+      <c r="A140" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" t="s">
+        <v>149</v>
+      </c>
+      <c r="E140" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" t="s">
+        <v>205</v>
+      </c>
+      <c r="G140" t="s">
+        <v>217</v>
       </c>
       <c r="H140" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="C141" t="s">
-        <v>146</v>
+      <c r="A141" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B141" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" t="s">
+        <v>149</v>
+      </c>
+      <c r="E141" t="s">
+        <v>168</v>
+      </c>
+      <c r="F141" t="s">
+        <v>205</v>
+      </c>
+      <c r="G141" t="s">
+        <v>217</v>
       </c>
       <c r="H141" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="C142" t="s">
-        <v>146</v>
+      <c r="A142" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" t="s">
+        <v>149</v>
+      </c>
+      <c r="E142" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" t="s">
+        <v>205</v>
+      </c>
+      <c r="G142" t="s">
+        <v>217</v>
       </c>
       <c r="H142" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="C143" t="s">
-        <v>146</v>
+      <c r="A143" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" t="s">
+        <v>149</v>
+      </c>
+      <c r="E143" t="s">
+        <v>168</v>
+      </c>
+      <c r="F143" t="s">
+        <v>205</v>
+      </c>
+      <c r="G143" t="s">
+        <v>217</v>
       </c>
       <c r="H143" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="C144" t="s">
-        <v>146</v>
+      <c r="A144" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" t="s">
+        <v>168</v>
+      </c>
+      <c r="F144" t="s">
+        <v>205</v>
+      </c>
+      <c r="G144" t="s">
+        <v>217</v>
       </c>
       <c r="H144" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -8201,450 +8300,701 @@
         <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>95</v>
-      </c>
-      <c r="C145" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D145" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E145" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F145" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H145" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B146" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" t="s">
-        <v>150</v>
-      </c>
-      <c r="E146" t="s">
-        <v>169</v>
-      </c>
-      <c r="F146" t="s">
-        <v>205</v>
-      </c>
-      <c r="G146" t="s">
-        <v>218</v>
-      </c>
+      <c r="A146" s="8"/>
       <c r="H146" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
-      <c r="C147" t="s">
-        <v>144</v>
-      </c>
-      <c r="G147" t="s">
-        <v>216</v>
-      </c>
       <c r="H147" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="C148" t="s">
-        <v>145</v>
-      </c>
-      <c r="G148" t="s">
-        <v>217</v>
-      </c>
       <c r="H148" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="C149" t="s">
-        <v>145</v>
+      <c r="A149" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" t="s">
+        <v>149</v>
+      </c>
+      <c r="E149" t="s">
+        <v>168</v>
+      </c>
+      <c r="F149" t="s">
+        <v>205</v>
       </c>
       <c r="G149" t="s">
         <v>217</v>
       </c>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="C150" t="s">
-        <v>145</v>
+      <c r="A150" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" t="s">
+        <v>149</v>
+      </c>
+      <c r="E150" t="s">
+        <v>168</v>
+      </c>
+      <c r="F150" t="s">
+        <v>205</v>
       </c>
       <c r="G150" t="s">
         <v>217</v>
       </c>
       <c r="H150" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B151" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C151" t="s">
-        <v>146</v>
-      </c>
       <c r="D151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="C152" t="s">
-        <v>146</v>
+      <c r="A152" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" t="s">
+        <v>149</v>
+      </c>
+      <c r="E152" t="s">
+        <v>168</v>
+      </c>
+      <c r="F152" t="s">
+        <v>205</v>
       </c>
       <c r="G152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H152" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="D153" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E153" t="s">
         <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G153" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H153" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
-      <c r="C154" t="s">
-        <v>145</v>
-      </c>
-      <c r="G154" t="s">
-        <v>217</v>
-      </c>
       <c r="H154" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="C155" t="s">
-        <v>145</v>
+      <c r="A155" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" t="s">
+        <v>168</v>
+      </c>
+      <c r="F155" t="s">
+        <v>205</v>
       </c>
       <c r="G155" t="s">
         <v>217</v>
       </c>
       <c r="H155" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="C156" t="s">
-        <v>145</v>
+      <c r="A156" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B156" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" t="s">
+        <v>168</v>
+      </c>
+      <c r="F156" t="s">
+        <v>205</v>
       </c>
       <c r="G156" t="s">
         <v>217</v>
       </c>
       <c r="H156" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="C157" t="s">
-        <v>145</v>
+      <c r="A157" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" t="s">
+        <v>168</v>
+      </c>
+      <c r="F157" t="s">
+        <v>204</v>
       </c>
       <c r="G157" t="s">
         <v>217</v>
       </c>
       <c r="H157" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="C158" t="s">
-        <v>145</v>
+      <c r="A158" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158" t="s">
+        <v>149</v>
+      </c>
+      <c r="E158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F158" t="s">
+        <v>205</v>
       </c>
       <c r="G158" t="s">
         <v>217</v>
       </c>
       <c r="H158" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="C159" t="s">
-        <v>144</v>
+      <c r="A159" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" t="s">
+        <v>168</v>
+      </c>
+      <c r="F159" t="s">
+        <v>204</v>
       </c>
       <c r="G159" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H159" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="C160" t="s">
+      <c r="A160" s="9" t="s">
         <v>145</v>
+      </c>
+      <c r="B160" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" t="s">
+        <v>168</v>
+      </c>
+      <c r="F160" t="s">
+        <v>204</v>
       </c>
       <c r="G160" t="s">
         <v>217</v>
       </c>
       <c r="H160" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="C161" t="s">
-        <v>144</v>
+      <c r="A161" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" t="s">
+        <v>149</v>
+      </c>
+      <c r="E161" t="s">
+        <v>168</v>
+      </c>
+      <c r="F161" t="s">
+        <v>205</v>
       </c>
       <c r="G161" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H161" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="C162" t="s">
-        <v>144</v>
+      <c r="A162" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B162" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" t="s">
+        <v>149</v>
+      </c>
+      <c r="E162" t="s">
+        <v>168</v>
+      </c>
+      <c r="F162" t="s">
+        <v>204</v>
       </c>
       <c r="G162" t="s">
-        <v>216</v>
-      </c>
-      <c r="H162" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="H162" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="C163" t="s">
-        <v>145</v>
+      <c r="A163" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B163" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163" t="s">
+        <v>168</v>
+      </c>
+      <c r="F163" t="s">
+        <v>205</v>
       </c>
       <c r="G163" t="s">
         <v>217</v>
       </c>
       <c r="H163" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
-      <c r="C164" t="s">
-        <v>146</v>
+      <c r="A164" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" t="s">
+        <v>168</v>
+      </c>
+      <c r="F164" t="s">
+        <v>205</v>
       </c>
       <c r="G164" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H164" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B165" t="s">
-        <v>95</v>
-      </c>
-      <c r="C165" t="s">
-        <v>146</v>
-      </c>
-      <c r="D165" t="s">
-        <v>150</v>
-      </c>
-      <c r="E165" t="s">
-        <v>169</v>
-      </c>
-      <c r="F165" t="s">
-        <v>206</v>
-      </c>
-      <c r="G165" t="s">
-        <v>218</v>
-      </c>
+      <c r="A165" s="8"/>
       <c r="H165" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B166" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C166" t="s">
-        <v>146</v>
-      </c>
       <c r="D166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G166" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H166" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B167" t="s">
-        <v>95</v>
-      </c>
-      <c r="C167" t="s">
-        <v>146</v>
-      </c>
-      <c r="D167" t="s">
-        <v>150</v>
-      </c>
-      <c r="E167" t="s">
-        <v>169</v>
-      </c>
-      <c r="F167" t="s">
-        <v>206</v>
-      </c>
-      <c r="G167" t="s">
-        <v>218</v>
-      </c>
+      <c r="A167" s="8"/>
       <c r="H167" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
-      </c>
-      <c r="C168" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D168" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E168" t="s">
         <v>168</v>
       </c>
       <c r="F168" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G168" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H168" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="16"/>
-      <c r="C169" t="s">
+      <c r="A169" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B169" t="s">
+        <v>95</v>
+      </c>
+      <c r="D169" t="s">
+        <v>149</v>
+      </c>
+      <c r="E169" t="s">
+        <v>168</v>
+      </c>
+      <c r="F169" t="s">
+        <v>205</v>
+      </c>
+      <c r="G169" t="s">
+        <v>217</v>
+      </c>
+      <c r="H169" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="G170" t="s">
+        <v>217</v>
+      </c>
+      <c r="H170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="G171" t="s">
+        <v>215</v>
+      </c>
+      <c r="H171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B172" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172" t="s">
+        <v>149</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+      <c r="F172" t="s">
+        <v>205</v>
+      </c>
+      <c r="G172" t="s">
+        <v>217</v>
+      </c>
+      <c r="H172" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B173" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" t="s">
+        <v>149</v>
+      </c>
+      <c r="E173" t="s">
+        <v>168</v>
+      </c>
+      <c r="F173" t="s">
+        <v>205</v>
+      </c>
+      <c r="G173" t="s">
+        <v>217</v>
+      </c>
+      <c r="H173" t="s">
         <v>230</v>
       </c>
-      <c r="H169" t="s">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B174" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" t="s">
+        <v>149</v>
+      </c>
+      <c r="E174" t="s">
+        <v>168</v>
+      </c>
+      <c r="F174" t="s">
+        <v>205</v>
+      </c>
+      <c r="G174" t="s">
+        <v>217</v>
+      </c>
+      <c r="H174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="G175" t="s">
+        <v>217</v>
+      </c>
+      <c r="H175" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" t="s">
+        <v>95</v>
+      </c>
+      <c r="D176" t="s">
+        <v>149</v>
+      </c>
+      <c r="E176" t="s">
+        <v>168</v>
+      </c>
+      <c r="F176" t="s">
+        <v>205</v>
+      </c>
+      <c r="G176" t="s">
+        <v>217</v>
+      </c>
+      <c r="H176" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B177" t="s">
+        <v>95</v>
+      </c>
+      <c r="D177" t="s">
+        <v>149</v>
+      </c>
+      <c r="E177" t="s">
+        <v>168</v>
+      </c>
+      <c r="F177" t="s">
+        <v>205</v>
+      </c>
+      <c r="G177" t="s">
+        <v>217</v>
+      </c>
+      <c r="H177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B178" t="s">
+        <v>95</v>
+      </c>
+      <c r="D178" t="s">
+        <v>148</v>
+      </c>
+      <c r="E178" t="s">
+        <v>168</v>
+      </c>
+      <c r="F178" t="s">
+        <v>205</v>
+      </c>
+      <c r="G178" t="s">
+        <v>217</v>
+      </c>
+      <c r="H178" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="H179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
+      <c r="C180" t="s">
+        <v>241</v>
+      </c>
+      <c r="H180" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="15"/>
+      <c r="C181" t="s">
+        <v>241</v>
+      </c>
+      <c r="H181" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="15"/>
+      <c r="C182" t="s">
+        <v>241</v>
+      </c>
+      <c r="H182" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
-      <c r="C170" t="s">
-        <v>230</v>
-      </c>
-      <c r="H170" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
-      <c r="C171" t="s">
-        <v>230</v>
-      </c>
-      <c r="H171" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="15"/>
+      <c r="C183" t="s">
+        <v>241</v>
+      </c>
+      <c r="H183" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
-      <c r="C172" t="s">
-        <v>230</v>
-      </c>
-      <c r="H172" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="15"/>
+      <c r="C184" t="s">
+        <v>241</v>
+      </c>
+      <c r="H184" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="18"/>
-      <c r="B173" s="19"/>
-      <c r="C173" t="s">
-        <v>230</v>
-      </c>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19" t="s">
-        <v>113</v>
-      </c>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="17"/>
+      <c r="B185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8661,7 +9011,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8676,7 +9026,7 @@
         <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
         <v>83</v>
@@ -8684,13 +9034,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="7">
         <v>-1002105211537</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8701,7 +9051,7 @@
         <v>-1001957612350</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8712,265 +9062,265 @@
         <v>-1002018254333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="6">
         <v>-1002088477755</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>-1002486405540</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>-1002383589094</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>-1002367221793</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="6">
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="7">
         <v>-1002378514893</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="6">
         <v>-1002407233853</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="17">
-        <v>-1002348395828</v>
+        <v>241</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-1002407233853</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="7">
         <v>-1002248753359</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="6">
         <v>-1002170091825</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="7">
         <v>-1002177242150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="6">
         <v>-1002148324453</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="7">
         <v>-1002242675024</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="7">
         <v>-1002450143442</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="14">
+        <v>167</v>
+      </c>
+      <c r="B19" s="13">
         <v>-1002294601204</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="14">
+        <v>203</v>
+      </c>
+      <c r="B20" s="13">
         <v>-1002322215761</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="14">
+        <v>204</v>
+      </c>
+      <c r="B21" s="13">
         <v>-1002426461312</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="14">
+        <v>205</v>
+      </c>
+      <c r="B22" s="13">
         <v>-1002496590323</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="13">
+        <v>-1002390358046</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="B23" s="14">
-        <v>-1002390358046</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="7">
         <v>-1002361153876</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="14"/>
+        <v>215</v>
+      </c>
+      <c r="B25" s="13"/>
       <c r="C25" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="14"/>
+        <v>217</v>
+      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
